--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\PycharmProjects\urbssolar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF9EF1-ED4E-481B-BA7A-CBC2C7FE66F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E7585-C206-4725-9DE7-6476AEADA30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Value</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>EU27_windoff</t>
+  </si>
+  <si>
+    <t>timestep</t>
   </si>
 </sst>
 </file>
@@ -650,12 +653,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -671,7 +674,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -679,12 +682,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8760</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -700,14 +703,14 @@
       <selection activeCell="E2" sqref="E2:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -730,7 +733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -753,7 +756,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -776,7 +779,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -799,7 +802,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -822,7 +825,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -845,7 +848,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -868,7 +871,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -891,7 +894,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -914,7 +917,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -937,7 +940,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -960,7 +963,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -983,7 +986,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -1364,64 +1367,64 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -1431,319 +1434,4564 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6341E4C-4AB4-44A4-8119-B6BB3BEB6E84}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2024</v>
       </c>
-      <c r="B2">
-        <v>0.125</v>
-      </c>
       <c r="C2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2024</v>
+      </c>
+      <c r="C3">
+        <v>0.125</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4">
+        <v>0.125</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2024</v>
+      </c>
+      <c r="C5">
+        <v>0.125</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6">
+        <v>0.125</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7">
+        <v>0.125</v>
+      </c>
+      <c r="D7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8">
+        <v>0.125</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9">
+        <v>0.125</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10">
+        <v>0.125</v>
+      </c>
+      <c r="D10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2024</v>
+      </c>
+      <c r="C11">
+        <v>0.125</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2024</v>
+      </c>
+      <c r="C12">
+        <v>0.125</v>
+      </c>
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13">
+        <v>0.125</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>2025</v>
       </c>
-      <c r="B3">
-        <v>0.125</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C14">
+        <v>0.125</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2025</v>
+      </c>
+      <c r="C15">
+        <v>0.125</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>0.125</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <v>0.125</v>
+      </c>
+      <c r="D17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>0.125</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19">
+        <v>0.125</v>
+      </c>
+      <c r="D19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>0.125</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2025</v>
+      </c>
+      <c r="C21">
+        <v>0.125</v>
+      </c>
+      <c r="D21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2025</v>
+      </c>
+      <c r="C22">
+        <v>0.125</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>2025</v>
+      </c>
+      <c r="C23">
+        <v>0.125</v>
+      </c>
+      <c r="D23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>2025</v>
+      </c>
+      <c r="C24">
+        <v>0.125</v>
+      </c>
+      <c r="D24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>2025</v>
+      </c>
+      <c r="C25">
+        <v>0.125</v>
+      </c>
+      <c r="D25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
         <v>2026</v>
       </c>
-      <c r="B4">
-        <v>0.125</v>
-      </c>
-      <c r="C4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C26">
+        <v>0.125</v>
+      </c>
+      <c r="D26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2026</v>
+      </c>
+      <c r="C27">
+        <v>0.125</v>
+      </c>
+      <c r="D27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2026</v>
+      </c>
+      <c r="C28">
+        <v>0.125</v>
+      </c>
+      <c r="D28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2026</v>
+      </c>
+      <c r="C29">
+        <v>0.125</v>
+      </c>
+      <c r="D29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2026</v>
+      </c>
+      <c r="C30">
+        <v>0.125</v>
+      </c>
+      <c r="D30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2026</v>
+      </c>
+      <c r="C31">
+        <v>0.125</v>
+      </c>
+      <c r="D31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2026</v>
+      </c>
+      <c r="C32">
+        <v>0.125</v>
+      </c>
+      <c r="D32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>2026</v>
+      </c>
+      <c r="C33">
+        <v>0.125</v>
+      </c>
+      <c r="D33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2026</v>
+      </c>
+      <c r="C34">
+        <v>0.125</v>
+      </c>
+      <c r="D34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>2026</v>
+      </c>
+      <c r="C35">
+        <v>0.125</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>2026</v>
+      </c>
+      <c r="C36">
+        <v>0.125</v>
+      </c>
+      <c r="D36">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>2026</v>
+      </c>
+      <c r="C37">
+        <v>0.125</v>
+      </c>
+      <c r="D37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
         <v>2027</v>
       </c>
-      <c r="B5">
-        <v>0.125</v>
-      </c>
-      <c r="C5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C38">
+        <v>0.125</v>
+      </c>
+      <c r="D38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2027</v>
+      </c>
+      <c r="C39">
+        <v>0.125</v>
+      </c>
+      <c r="D39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>2027</v>
+      </c>
+      <c r="C40">
+        <v>0.125</v>
+      </c>
+      <c r="D40">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2027</v>
+      </c>
+      <c r="C41">
+        <v>0.125</v>
+      </c>
+      <c r="D41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>2027</v>
+      </c>
+      <c r="C42">
+        <v>0.125</v>
+      </c>
+      <c r="D42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>2027</v>
+      </c>
+      <c r="C43">
+        <v>0.125</v>
+      </c>
+      <c r="D43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>2027</v>
+      </c>
+      <c r="C44">
+        <v>0.125</v>
+      </c>
+      <c r="D44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>2027</v>
+      </c>
+      <c r="C45">
+        <v>0.125</v>
+      </c>
+      <c r="D45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>2027</v>
+      </c>
+      <c r="C46">
+        <v>0.125</v>
+      </c>
+      <c r="D46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>2027</v>
+      </c>
+      <c r="C47">
+        <v>0.125</v>
+      </c>
+      <c r="D47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>2027</v>
+      </c>
+      <c r="C48">
+        <v>0.125</v>
+      </c>
+      <c r="D48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>2027</v>
+      </c>
+      <c r="C49">
+        <v>0.125</v>
+      </c>
+      <c r="D49">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
         <v>2028</v>
       </c>
-      <c r="B6">
-        <v>0.125</v>
-      </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C50">
+        <v>0.125</v>
+      </c>
+      <c r="D50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>2028</v>
+      </c>
+      <c r="C51">
+        <v>0.125</v>
+      </c>
+      <c r="D51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>2028</v>
+      </c>
+      <c r="C52">
+        <v>0.125</v>
+      </c>
+      <c r="D52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>2028</v>
+      </c>
+      <c r="C53">
+        <v>0.125</v>
+      </c>
+      <c r="D53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2028</v>
+      </c>
+      <c r="C54">
+        <v>0.125</v>
+      </c>
+      <c r="D54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>2028</v>
+      </c>
+      <c r="C55">
+        <v>0.125</v>
+      </c>
+      <c r="D55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>2028</v>
+      </c>
+      <c r="C56">
+        <v>0.125</v>
+      </c>
+      <c r="D56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>2028</v>
+      </c>
+      <c r="C57">
+        <v>0.125</v>
+      </c>
+      <c r="D57">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>2028</v>
+      </c>
+      <c r="C58">
+        <v>0.125</v>
+      </c>
+      <c r="D58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>2028</v>
+      </c>
+      <c r="C59">
+        <v>0.125</v>
+      </c>
+      <c r="D59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>2028</v>
+      </c>
+      <c r="C60">
+        <v>0.125</v>
+      </c>
+      <c r="D60">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>2028</v>
+      </c>
+      <c r="C61">
+        <v>0.125</v>
+      </c>
+      <c r="D61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
         <v>2029</v>
       </c>
-      <c r="B7">
-        <v>0.125</v>
-      </c>
-      <c r="C7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C62">
+        <v>0.125</v>
+      </c>
+      <c r="D62">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>2029</v>
+      </c>
+      <c r="C63">
+        <v>0.125</v>
+      </c>
+      <c r="D63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>2029</v>
+      </c>
+      <c r="C64">
+        <v>0.125</v>
+      </c>
+      <c r="D64">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>2029</v>
+      </c>
+      <c r="C65">
+        <v>0.125</v>
+      </c>
+      <c r="D65">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>2029</v>
+      </c>
+      <c r="C66">
+        <v>0.125</v>
+      </c>
+      <c r="D66">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>2029</v>
+      </c>
+      <c r="C67">
+        <v>0.125</v>
+      </c>
+      <c r="D67">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>2029</v>
+      </c>
+      <c r="C68">
+        <v>0.125</v>
+      </c>
+      <c r="D68">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>2029</v>
+      </c>
+      <c r="C69">
+        <v>0.125</v>
+      </c>
+      <c r="D69">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>2029</v>
+      </c>
+      <c r="C70">
+        <v>0.125</v>
+      </c>
+      <c r="D70">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>2029</v>
+      </c>
+      <c r="C71">
+        <v>0.125</v>
+      </c>
+      <c r="D71">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>2029</v>
+      </c>
+      <c r="C72">
+        <v>0.125</v>
+      </c>
+      <c r="D72">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>2029</v>
+      </c>
+      <c r="C73">
+        <v>0.125</v>
+      </c>
+      <c r="D73">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
         <v>2030</v>
       </c>
-      <c r="B8">
-        <v>0.125</v>
-      </c>
-      <c r="C8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C74">
+        <v>0.125</v>
+      </c>
+      <c r="D74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>2030</v>
+      </c>
+      <c r="C75">
+        <v>0.125</v>
+      </c>
+      <c r="D75">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>2030</v>
+      </c>
+      <c r="C76">
+        <v>0.125</v>
+      </c>
+      <c r="D76">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>2030</v>
+      </c>
+      <c r="C77">
+        <v>0.125</v>
+      </c>
+      <c r="D77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>2030</v>
+      </c>
+      <c r="C78">
+        <v>0.125</v>
+      </c>
+      <c r="D78">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>2030</v>
+      </c>
+      <c r="C79">
+        <v>0.125</v>
+      </c>
+      <c r="D79">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>2030</v>
+      </c>
+      <c r="C80">
+        <v>0.125</v>
+      </c>
+      <c r="D80">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>2030</v>
+      </c>
+      <c r="C81">
+        <v>0.125</v>
+      </c>
+      <c r="D81">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>2030</v>
+      </c>
+      <c r="C82">
+        <v>0.125</v>
+      </c>
+      <c r="D82">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>2030</v>
+      </c>
+      <c r="C83">
+        <v>0.125</v>
+      </c>
+      <c r="D83">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>2030</v>
+      </c>
+      <c r="C84">
+        <v>0.125</v>
+      </c>
+      <c r="D84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>2030</v>
+      </c>
+      <c r="C85">
+        <v>0.125</v>
+      </c>
+      <c r="D85">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
         <v>2031</v>
       </c>
-      <c r="B9">
-        <v>0.125</v>
-      </c>
-      <c r="C9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C86">
+        <v>0.125</v>
+      </c>
+      <c r="D86">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>2031</v>
+      </c>
+      <c r="C87">
+        <v>0.125</v>
+      </c>
+      <c r="D87">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>2031</v>
+      </c>
+      <c r="C88">
+        <v>0.125</v>
+      </c>
+      <c r="D88">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>2031</v>
+      </c>
+      <c r="C89">
+        <v>0.125</v>
+      </c>
+      <c r="D89">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>2031</v>
+      </c>
+      <c r="C90">
+        <v>0.125</v>
+      </c>
+      <c r="D90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>2031</v>
+      </c>
+      <c r="C91">
+        <v>0.125</v>
+      </c>
+      <c r="D91">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>2031</v>
+      </c>
+      <c r="C92">
+        <v>0.125</v>
+      </c>
+      <c r="D92">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>2031</v>
+      </c>
+      <c r="C93">
+        <v>0.125</v>
+      </c>
+      <c r="D93">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>2031</v>
+      </c>
+      <c r="C94">
+        <v>0.125</v>
+      </c>
+      <c r="D94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>2031</v>
+      </c>
+      <c r="C95">
+        <v>0.125</v>
+      </c>
+      <c r="D95">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>2031</v>
+      </c>
+      <c r="C96">
+        <v>0.125</v>
+      </c>
+      <c r="D96">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>2031</v>
+      </c>
+      <c r="C97">
+        <v>0.125</v>
+      </c>
+      <c r="D97">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
         <v>2032</v>
       </c>
-      <c r="B10">
-        <v>0.125</v>
-      </c>
-      <c r="C10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C98">
+        <v>0.125</v>
+      </c>
+      <c r="D98">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>2032</v>
+      </c>
+      <c r="C99">
+        <v>0.125</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>2032</v>
+      </c>
+      <c r="C100">
+        <v>0.125</v>
+      </c>
+      <c r="D100">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>2032</v>
+      </c>
+      <c r="C101">
+        <v>0.125</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>2032</v>
+      </c>
+      <c r="C102">
+        <v>0.125</v>
+      </c>
+      <c r="D102">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>2032</v>
+      </c>
+      <c r="C103">
+        <v>0.125</v>
+      </c>
+      <c r="D103">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>2032</v>
+      </c>
+      <c r="C104">
+        <v>0.125</v>
+      </c>
+      <c r="D104">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>2032</v>
+      </c>
+      <c r="C105">
+        <v>0.125</v>
+      </c>
+      <c r="D105">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>2032</v>
+      </c>
+      <c r="C106">
+        <v>0.125</v>
+      </c>
+      <c r="D106">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>2032</v>
+      </c>
+      <c r="C107">
+        <v>0.125</v>
+      </c>
+      <c r="D107">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>2032</v>
+      </c>
+      <c r="C108">
+        <v>0.125</v>
+      </c>
+      <c r="D108">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>2032</v>
+      </c>
+      <c r="C109">
+        <v>0.125</v>
+      </c>
+      <c r="D109">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
         <v>2033</v>
       </c>
-      <c r="B11">
-        <v>0.125</v>
-      </c>
-      <c r="C11">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="C110">
+        <v>0.125</v>
+      </c>
+      <c r="D110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>2033</v>
+      </c>
+      <c r="C111">
+        <v>0.125</v>
+      </c>
+      <c r="D111">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>2033</v>
+      </c>
+      <c r="C112">
+        <v>0.125</v>
+      </c>
+      <c r="D112">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>2033</v>
+      </c>
+      <c r="C113">
+        <v>0.125</v>
+      </c>
+      <c r="D113">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>2033</v>
+      </c>
+      <c r="C114">
+        <v>0.125</v>
+      </c>
+      <c r="D114">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>2033</v>
+      </c>
+      <c r="C115">
+        <v>0.125</v>
+      </c>
+      <c r="D115">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>2033</v>
+      </c>
+      <c r="C116">
+        <v>0.125</v>
+      </c>
+      <c r="D116">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>2033</v>
+      </c>
+      <c r="C117">
+        <v>0.125</v>
+      </c>
+      <c r="D117">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>9</v>
+      </c>
+      <c r="B118">
+        <v>2033</v>
+      </c>
+      <c r="C118">
+        <v>0.125</v>
+      </c>
+      <c r="D118">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>10</v>
+      </c>
+      <c r="B119">
+        <v>2033</v>
+      </c>
+      <c r="C119">
+        <v>0.125</v>
+      </c>
+      <c r="D119">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>11</v>
+      </c>
+      <c r="B120">
+        <v>2033</v>
+      </c>
+      <c r="C120">
+        <v>0.125</v>
+      </c>
+      <c r="D120">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>2033</v>
+      </c>
+      <c r="C121">
+        <v>0.125</v>
+      </c>
+      <c r="D121">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
         <v>2034</v>
       </c>
-      <c r="B12">
-        <v>0.125</v>
-      </c>
-      <c r="C12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="C122">
+        <v>0.125</v>
+      </c>
+      <c r="D122">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>2034</v>
+      </c>
+      <c r="C123">
+        <v>0.125</v>
+      </c>
+      <c r="D123">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>2034</v>
+      </c>
+      <c r="C124">
+        <v>0.125</v>
+      </c>
+      <c r="D124">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>2034</v>
+      </c>
+      <c r="C125">
+        <v>0.125</v>
+      </c>
+      <c r="D125">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>2034</v>
+      </c>
+      <c r="C126">
+        <v>0.125</v>
+      </c>
+      <c r="D126">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>2034</v>
+      </c>
+      <c r="C127">
+        <v>0.125</v>
+      </c>
+      <c r="D127">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>2034</v>
+      </c>
+      <c r="C128">
+        <v>0.125</v>
+      </c>
+      <c r="D128">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>2034</v>
+      </c>
+      <c r="C129">
+        <v>0.125</v>
+      </c>
+      <c r="D129">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>2034</v>
+      </c>
+      <c r="C130">
+        <v>0.125</v>
+      </c>
+      <c r="D130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131">
+        <v>2034</v>
+      </c>
+      <c r="C131">
+        <v>0.125</v>
+      </c>
+      <c r="D131">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132">
+        <v>2034</v>
+      </c>
+      <c r="C132">
+        <v>0.125</v>
+      </c>
+      <c r="D132">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>12</v>
+      </c>
+      <c r="B133">
+        <v>2034</v>
+      </c>
+      <c r="C133">
+        <v>0.125</v>
+      </c>
+      <c r="D133">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
         <v>2035</v>
       </c>
-      <c r="B13">
-        <v>0.125</v>
-      </c>
-      <c r="C13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C134">
+        <v>0.125</v>
+      </c>
+      <c r="D134">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>2035</v>
+      </c>
+      <c r="C135">
+        <v>0.125</v>
+      </c>
+      <c r="D135">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>2035</v>
+      </c>
+      <c r="C136">
+        <v>0.125</v>
+      </c>
+      <c r="D136">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137">
+        <v>2035</v>
+      </c>
+      <c r="C137">
+        <v>0.125</v>
+      </c>
+      <c r="D137">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>2035</v>
+      </c>
+      <c r="C138">
+        <v>0.125</v>
+      </c>
+      <c r="D138">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>2035</v>
+      </c>
+      <c r="C139">
+        <v>0.125</v>
+      </c>
+      <c r="D139">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>2035</v>
+      </c>
+      <c r="C140">
+        <v>0.125</v>
+      </c>
+      <c r="D140">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>8</v>
+      </c>
+      <c r="B141">
+        <v>2035</v>
+      </c>
+      <c r="C141">
+        <v>0.125</v>
+      </c>
+      <c r="D141">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>9</v>
+      </c>
+      <c r="B142">
+        <v>2035</v>
+      </c>
+      <c r="C142">
+        <v>0.125</v>
+      </c>
+      <c r="D142">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143">
+        <v>2035</v>
+      </c>
+      <c r="C143">
+        <v>0.125</v>
+      </c>
+      <c r="D143">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>2035</v>
+      </c>
+      <c r="C144">
+        <v>0.125</v>
+      </c>
+      <c r="D144">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>12</v>
+      </c>
+      <c r="B145">
+        <v>2035</v>
+      </c>
+      <c r="C145">
+        <v>0.125</v>
+      </c>
+      <c r="D145">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
         <v>2036</v>
       </c>
-      <c r="B14">
-        <v>0.125</v>
-      </c>
-      <c r="C14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="C146">
+        <v>0.125</v>
+      </c>
+      <c r="D146">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>2036</v>
+      </c>
+      <c r="C147">
+        <v>0.125</v>
+      </c>
+      <c r="D147">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>2036</v>
+      </c>
+      <c r="C148">
+        <v>0.125</v>
+      </c>
+      <c r="D148">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>2036</v>
+      </c>
+      <c r="C149">
+        <v>0.125</v>
+      </c>
+      <c r="D149">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150">
+        <v>2036</v>
+      </c>
+      <c r="C150">
+        <v>0.125</v>
+      </c>
+      <c r="D150">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>2036</v>
+      </c>
+      <c r="C151">
+        <v>0.125</v>
+      </c>
+      <c r="D151">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>2036</v>
+      </c>
+      <c r="C152">
+        <v>0.125</v>
+      </c>
+      <c r="D152">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>2036</v>
+      </c>
+      <c r="C153">
+        <v>0.125</v>
+      </c>
+      <c r="D153">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>9</v>
+      </c>
+      <c r="B154">
+        <v>2036</v>
+      </c>
+      <c r="C154">
+        <v>0.125</v>
+      </c>
+      <c r="D154">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>2036</v>
+      </c>
+      <c r="C155">
+        <v>0.125</v>
+      </c>
+      <c r="D155">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>11</v>
+      </c>
+      <c r="B156">
+        <v>2036</v>
+      </c>
+      <c r="C156">
+        <v>0.125</v>
+      </c>
+      <c r="D156">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>12</v>
+      </c>
+      <c r="B157">
+        <v>2036</v>
+      </c>
+      <c r="C157">
+        <v>0.125</v>
+      </c>
+      <c r="D157">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
         <v>2037</v>
       </c>
-      <c r="B15">
-        <v>0.125</v>
-      </c>
-      <c r="C15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="C158">
+        <v>0.125</v>
+      </c>
+      <c r="D158">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>2037</v>
+      </c>
+      <c r="C159">
+        <v>0.125</v>
+      </c>
+      <c r="D159">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>2037</v>
+      </c>
+      <c r="C160">
+        <v>0.125</v>
+      </c>
+      <c r="D160">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>2037</v>
+      </c>
+      <c r="C161">
+        <v>0.125</v>
+      </c>
+      <c r="D161">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>2037</v>
+      </c>
+      <c r="C162">
+        <v>0.125</v>
+      </c>
+      <c r="D162">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>2037</v>
+      </c>
+      <c r="C163">
+        <v>0.125</v>
+      </c>
+      <c r="D163">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164">
+        <v>2037</v>
+      </c>
+      <c r="C164">
+        <v>0.125</v>
+      </c>
+      <c r="D164">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>2037</v>
+      </c>
+      <c r="C165">
+        <v>0.125</v>
+      </c>
+      <c r="D165">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>2037</v>
+      </c>
+      <c r="C166">
+        <v>0.125</v>
+      </c>
+      <c r="D166">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>2037</v>
+      </c>
+      <c r="C167">
+        <v>0.125</v>
+      </c>
+      <c r="D167">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>11</v>
+      </c>
+      <c r="B168">
+        <v>2037</v>
+      </c>
+      <c r="C168">
+        <v>0.125</v>
+      </c>
+      <c r="D168">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>2037</v>
+      </c>
+      <c r="C169">
+        <v>0.125</v>
+      </c>
+      <c r="D169">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
         <v>2038</v>
       </c>
-      <c r="B16">
-        <v>0.125</v>
-      </c>
-      <c r="C16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="C170">
+        <v>0.125</v>
+      </c>
+      <c r="D170">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>2038</v>
+      </c>
+      <c r="C171">
+        <v>0.125</v>
+      </c>
+      <c r="D171">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>2038</v>
+      </c>
+      <c r="C172">
+        <v>0.125</v>
+      </c>
+      <c r="D172">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>2038</v>
+      </c>
+      <c r="C173">
+        <v>0.125</v>
+      </c>
+      <c r="D173">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174">
+        <v>2038</v>
+      </c>
+      <c r="C174">
+        <v>0.125</v>
+      </c>
+      <c r="D174">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175">
+        <v>2038</v>
+      </c>
+      <c r="C175">
+        <v>0.125</v>
+      </c>
+      <c r="D175">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>2038</v>
+      </c>
+      <c r="C176">
+        <v>0.125</v>
+      </c>
+      <c r="D176">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177">
+        <v>2038</v>
+      </c>
+      <c r="C177">
+        <v>0.125</v>
+      </c>
+      <c r="D177">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>2038</v>
+      </c>
+      <c r="C178">
+        <v>0.125</v>
+      </c>
+      <c r="D178">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>10</v>
+      </c>
+      <c r="B179">
+        <v>2038</v>
+      </c>
+      <c r="C179">
+        <v>0.125</v>
+      </c>
+      <c r="D179">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>11</v>
+      </c>
+      <c r="B180">
+        <v>2038</v>
+      </c>
+      <c r="C180">
+        <v>0.125</v>
+      </c>
+      <c r="D180">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>12</v>
+      </c>
+      <c r="B181">
+        <v>2038</v>
+      </c>
+      <c r="C181">
+        <v>0.125</v>
+      </c>
+      <c r="D181">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
         <v>2039</v>
       </c>
-      <c r="B17">
-        <v>0.125</v>
-      </c>
-      <c r="C17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="C182">
+        <v>0.125</v>
+      </c>
+      <c r="D182">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>2039</v>
+      </c>
+      <c r="C183">
+        <v>0.125</v>
+      </c>
+      <c r="D183">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>2039</v>
+      </c>
+      <c r="C184">
+        <v>0.125</v>
+      </c>
+      <c r="D184">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>2039</v>
+      </c>
+      <c r="C185">
+        <v>0.125</v>
+      </c>
+      <c r="D185">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>5</v>
+      </c>
+      <c r="B186">
+        <v>2039</v>
+      </c>
+      <c r="C186">
+        <v>0.125</v>
+      </c>
+      <c r="D186">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>2039</v>
+      </c>
+      <c r="C187">
+        <v>0.125</v>
+      </c>
+      <c r="D187">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>2039</v>
+      </c>
+      <c r="C188">
+        <v>0.125</v>
+      </c>
+      <c r="D188">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>2039</v>
+      </c>
+      <c r="C189">
+        <v>0.125</v>
+      </c>
+      <c r="D189">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>9</v>
+      </c>
+      <c r="B190">
+        <v>2039</v>
+      </c>
+      <c r="C190">
+        <v>0.125</v>
+      </c>
+      <c r="D190">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>2039</v>
+      </c>
+      <c r="C191">
+        <v>0.125</v>
+      </c>
+      <c r="D191">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>11</v>
+      </c>
+      <c r="B192">
+        <v>2039</v>
+      </c>
+      <c r="C192">
+        <v>0.125</v>
+      </c>
+      <c r="D192">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>12</v>
+      </c>
+      <c r="B193">
+        <v>2039</v>
+      </c>
+      <c r="C193">
+        <v>0.125</v>
+      </c>
+      <c r="D193">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
         <v>2040</v>
       </c>
-      <c r="B18">
-        <v>0.125</v>
-      </c>
-      <c r="C18">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C194">
+        <v>0.125</v>
+      </c>
+      <c r="D194">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>2040</v>
+      </c>
+      <c r="C195">
+        <v>0.125</v>
+      </c>
+      <c r="D195">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="B196">
+        <v>2040</v>
+      </c>
+      <c r="C196">
+        <v>0.125</v>
+      </c>
+      <c r="D196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>2040</v>
+      </c>
+      <c r="C197">
+        <v>0.125</v>
+      </c>
+      <c r="D197">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>2040</v>
+      </c>
+      <c r="C198">
+        <v>0.125</v>
+      </c>
+      <c r="D198">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>6</v>
+      </c>
+      <c r="B199">
+        <v>2040</v>
+      </c>
+      <c r="C199">
+        <v>0.125</v>
+      </c>
+      <c r="D199">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200">
+        <v>2040</v>
+      </c>
+      <c r="C200">
+        <v>0.125</v>
+      </c>
+      <c r="D200">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>2040</v>
+      </c>
+      <c r="C201">
+        <v>0.125</v>
+      </c>
+      <c r="D201">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>9</v>
+      </c>
+      <c r="B202">
+        <v>2040</v>
+      </c>
+      <c r="C202">
+        <v>0.125</v>
+      </c>
+      <c r="D202">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>2040</v>
+      </c>
+      <c r="C203">
+        <v>0.125</v>
+      </c>
+      <c r="D203">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>11</v>
+      </c>
+      <c r="B204">
+        <v>2040</v>
+      </c>
+      <c r="C204">
+        <v>0.125</v>
+      </c>
+      <c r="D204">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>12</v>
+      </c>
+      <c r="B205">
+        <v>2040</v>
+      </c>
+      <c r="C205">
+        <v>0.125</v>
+      </c>
+      <c r="D205">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
         <v>2041</v>
       </c>
-      <c r="B19">
-        <v>0.125</v>
-      </c>
-      <c r="C19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="C206">
+        <v>0.125</v>
+      </c>
+      <c r="D206">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207">
+        <v>2041</v>
+      </c>
+      <c r="C207">
+        <v>0.125</v>
+      </c>
+      <c r="D207">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>2041</v>
+      </c>
+      <c r="C208">
+        <v>0.125</v>
+      </c>
+      <c r="D208">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>2041</v>
+      </c>
+      <c r="C209">
+        <v>0.125</v>
+      </c>
+      <c r="D209">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>2041</v>
+      </c>
+      <c r="C210">
+        <v>0.125</v>
+      </c>
+      <c r="D210">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>2041</v>
+      </c>
+      <c r="C211">
+        <v>0.125</v>
+      </c>
+      <c r="D211">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212">
+        <v>2041</v>
+      </c>
+      <c r="C212">
+        <v>0.125</v>
+      </c>
+      <c r="D212">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>2041</v>
+      </c>
+      <c r="C213">
+        <v>0.125</v>
+      </c>
+      <c r="D213">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>9</v>
+      </c>
+      <c r="B214">
+        <v>2041</v>
+      </c>
+      <c r="C214">
+        <v>0.125</v>
+      </c>
+      <c r="D214">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>10</v>
+      </c>
+      <c r="B215">
+        <v>2041</v>
+      </c>
+      <c r="C215">
+        <v>0.125</v>
+      </c>
+      <c r="D215">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>11</v>
+      </c>
+      <c r="B216">
+        <v>2041</v>
+      </c>
+      <c r="C216">
+        <v>0.125</v>
+      </c>
+      <c r="D216">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>12</v>
+      </c>
+      <c r="B217">
+        <v>2041</v>
+      </c>
+      <c r="C217">
+        <v>0.125</v>
+      </c>
+      <c r="D217">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
         <v>2042</v>
       </c>
-      <c r="B20">
-        <v>0.125</v>
-      </c>
-      <c r="C20">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="C218">
+        <v>0.125</v>
+      </c>
+      <c r="D218">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <v>2042</v>
+      </c>
+      <c r="C219">
+        <v>0.125</v>
+      </c>
+      <c r="D219">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220">
+        <v>2042</v>
+      </c>
+      <c r="C220">
+        <v>0.125</v>
+      </c>
+      <c r="D220">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221">
+        <v>2042</v>
+      </c>
+      <c r="C221">
+        <v>0.125</v>
+      </c>
+      <c r="D221">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <v>2042</v>
+      </c>
+      <c r="C222">
+        <v>0.125</v>
+      </c>
+      <c r="D222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>6</v>
+      </c>
+      <c r="B223">
+        <v>2042</v>
+      </c>
+      <c r="C223">
+        <v>0.125</v>
+      </c>
+      <c r="D223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>7</v>
+      </c>
+      <c r="B224">
+        <v>2042</v>
+      </c>
+      <c r="C224">
+        <v>0.125</v>
+      </c>
+      <c r="D224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>2042</v>
+      </c>
+      <c r="C225">
+        <v>0.125</v>
+      </c>
+      <c r="D225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>9</v>
+      </c>
+      <c r="B226">
+        <v>2042</v>
+      </c>
+      <c r="C226">
+        <v>0.125</v>
+      </c>
+      <c r="D226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>10</v>
+      </c>
+      <c r="B227">
+        <v>2042</v>
+      </c>
+      <c r="C227">
+        <v>0.125</v>
+      </c>
+      <c r="D227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>11</v>
+      </c>
+      <c r="B228">
+        <v>2042</v>
+      </c>
+      <c r="C228">
+        <v>0.125</v>
+      </c>
+      <c r="D228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>12</v>
+      </c>
+      <c r="B229">
+        <v>2042</v>
+      </c>
+      <c r="C229">
+        <v>0.125</v>
+      </c>
+      <c r="D229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
         <v>2043</v>
       </c>
-      <c r="B21">
-        <v>0.125</v>
-      </c>
-      <c r="C21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="C230">
+        <v>0.125</v>
+      </c>
+      <c r="D230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <v>2043</v>
+      </c>
+      <c r="C231">
+        <v>0.125</v>
+      </c>
+      <c r="D231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232">
+        <v>2043</v>
+      </c>
+      <c r="C232">
+        <v>0.125</v>
+      </c>
+      <c r="D232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>2043</v>
+      </c>
+      <c r="C233">
+        <v>0.125</v>
+      </c>
+      <c r="D233">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>2043</v>
+      </c>
+      <c r="C234">
+        <v>0.125</v>
+      </c>
+      <c r="D234">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>6</v>
+      </c>
+      <c r="B235">
+        <v>2043</v>
+      </c>
+      <c r="C235">
+        <v>0.125</v>
+      </c>
+      <c r="D235">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>7</v>
+      </c>
+      <c r="B236">
+        <v>2043</v>
+      </c>
+      <c r="C236">
+        <v>0.125</v>
+      </c>
+      <c r="D236">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237">
+        <v>2043</v>
+      </c>
+      <c r="C237">
+        <v>0.125</v>
+      </c>
+      <c r="D237">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>9</v>
+      </c>
+      <c r="B238">
+        <v>2043</v>
+      </c>
+      <c r="C238">
+        <v>0.125</v>
+      </c>
+      <c r="D238">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>10</v>
+      </c>
+      <c r="B239">
+        <v>2043</v>
+      </c>
+      <c r="C239">
+        <v>0.125</v>
+      </c>
+      <c r="D239">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>11</v>
+      </c>
+      <c r="B240">
+        <v>2043</v>
+      </c>
+      <c r="C240">
+        <v>0.125</v>
+      </c>
+      <c r="D240">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>12</v>
+      </c>
+      <c r="B241">
+        <v>2043</v>
+      </c>
+      <c r="C241">
+        <v>0.125</v>
+      </c>
+      <c r="D241">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
         <v>2044</v>
       </c>
-      <c r="B22">
-        <v>0.125</v>
-      </c>
-      <c r="C22">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="C242">
+        <v>0.125</v>
+      </c>
+      <c r="D242">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>2044</v>
+      </c>
+      <c r="C243">
+        <v>0.125</v>
+      </c>
+      <c r="D243">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>2044</v>
+      </c>
+      <c r="C244">
+        <v>0.125</v>
+      </c>
+      <c r="D244">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245">
+        <v>2044</v>
+      </c>
+      <c r="C245">
+        <v>0.125</v>
+      </c>
+      <c r="D245">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5</v>
+      </c>
+      <c r="B246">
+        <v>2044</v>
+      </c>
+      <c r="C246">
+        <v>0.125</v>
+      </c>
+      <c r="D246">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <v>2044</v>
+      </c>
+      <c r="C247">
+        <v>0.125</v>
+      </c>
+      <c r="D247">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>7</v>
+      </c>
+      <c r="B248">
+        <v>2044</v>
+      </c>
+      <c r="C248">
+        <v>0.125</v>
+      </c>
+      <c r="D248">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249">
+        <v>2044</v>
+      </c>
+      <c r="C249">
+        <v>0.125</v>
+      </c>
+      <c r="D249">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250">
+        <v>2044</v>
+      </c>
+      <c r="C250">
+        <v>0.125</v>
+      </c>
+      <c r="D250">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>2044</v>
+      </c>
+      <c r="C251">
+        <v>0.125</v>
+      </c>
+      <c r="D251">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>11</v>
+      </c>
+      <c r="B252">
+        <v>2044</v>
+      </c>
+      <c r="C252">
+        <v>0.125</v>
+      </c>
+      <c r="D252">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>12</v>
+      </c>
+      <c r="B253">
+        <v>2044</v>
+      </c>
+      <c r="C253">
+        <v>0.125</v>
+      </c>
+      <c r="D253">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
         <v>2045</v>
       </c>
-      <c r="B23">
-        <v>0.125</v>
-      </c>
-      <c r="C23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="C254">
+        <v>0.125</v>
+      </c>
+      <c r="D254">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>2045</v>
+      </c>
+      <c r="C255">
+        <v>0.125</v>
+      </c>
+      <c r="D255">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256">
+        <v>2045</v>
+      </c>
+      <c r="C256">
+        <v>0.125</v>
+      </c>
+      <c r="D256">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257">
+        <v>2045</v>
+      </c>
+      <c r="C257">
+        <v>0.125</v>
+      </c>
+      <c r="D257">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>2045</v>
+      </c>
+      <c r="C258">
+        <v>0.125</v>
+      </c>
+      <c r="D258">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259">
+        <v>2045</v>
+      </c>
+      <c r="C259">
+        <v>0.125</v>
+      </c>
+      <c r="D259">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260">
+        <v>2045</v>
+      </c>
+      <c r="C260">
+        <v>0.125</v>
+      </c>
+      <c r="D260">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>8</v>
+      </c>
+      <c r="B261">
+        <v>2045</v>
+      </c>
+      <c r="C261">
+        <v>0.125</v>
+      </c>
+      <c r="D261">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>9</v>
+      </c>
+      <c r="B262">
+        <v>2045</v>
+      </c>
+      <c r="C262">
+        <v>0.125</v>
+      </c>
+      <c r="D262">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>10</v>
+      </c>
+      <c r="B263">
+        <v>2045</v>
+      </c>
+      <c r="C263">
+        <v>0.125</v>
+      </c>
+      <c r="D263">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>11</v>
+      </c>
+      <c r="B264">
+        <v>2045</v>
+      </c>
+      <c r="C264">
+        <v>0.125</v>
+      </c>
+      <c r="D264">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>12</v>
+      </c>
+      <c r="B265">
+        <v>2045</v>
+      </c>
+      <c r="C265">
+        <v>0.125</v>
+      </c>
+      <c r="D265">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
         <v>2046</v>
       </c>
-      <c r="B24">
-        <v>0.125</v>
-      </c>
-      <c r="C24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="C266">
+        <v>0.125</v>
+      </c>
+      <c r="D266">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>2046</v>
+      </c>
+      <c r="C267">
+        <v>0.125</v>
+      </c>
+      <c r="D267">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268">
+        <v>2046</v>
+      </c>
+      <c r="C268">
+        <v>0.125</v>
+      </c>
+      <c r="D268">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>4</v>
+      </c>
+      <c r="B269">
+        <v>2046</v>
+      </c>
+      <c r="C269">
+        <v>0.125</v>
+      </c>
+      <c r="D269">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>2046</v>
+      </c>
+      <c r="C270">
+        <v>0.125</v>
+      </c>
+      <c r="D270">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>6</v>
+      </c>
+      <c r="B271">
+        <v>2046</v>
+      </c>
+      <c r="C271">
+        <v>0.125</v>
+      </c>
+      <c r="D271">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>7</v>
+      </c>
+      <c r="B272">
+        <v>2046</v>
+      </c>
+      <c r="C272">
+        <v>0.125</v>
+      </c>
+      <c r="D272">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>8</v>
+      </c>
+      <c r="B273">
+        <v>2046</v>
+      </c>
+      <c r="C273">
+        <v>0.125</v>
+      </c>
+      <c r="D273">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>9</v>
+      </c>
+      <c r="B274">
+        <v>2046</v>
+      </c>
+      <c r="C274">
+        <v>0.125</v>
+      </c>
+      <c r="D274">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>10</v>
+      </c>
+      <c r="B275">
+        <v>2046</v>
+      </c>
+      <c r="C275">
+        <v>0.125</v>
+      </c>
+      <c r="D275">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>11</v>
+      </c>
+      <c r="B276">
+        <v>2046</v>
+      </c>
+      <c r="C276">
+        <v>0.125</v>
+      </c>
+      <c r="D276">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>12</v>
+      </c>
+      <c r="B277">
+        <v>2046</v>
+      </c>
+      <c r="C277">
+        <v>0.125</v>
+      </c>
+      <c r="D277">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
         <v>2047</v>
       </c>
-      <c r="B25">
-        <v>0.125</v>
-      </c>
-      <c r="C25">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="C278">
+        <v>0.125</v>
+      </c>
+      <c r="D278">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>2047</v>
+      </c>
+      <c r="C279">
+        <v>0.125</v>
+      </c>
+      <c r="D279">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3</v>
+      </c>
+      <c r="B280">
+        <v>2047</v>
+      </c>
+      <c r="C280">
+        <v>0.125</v>
+      </c>
+      <c r="D280">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>4</v>
+      </c>
+      <c r="B281">
+        <v>2047</v>
+      </c>
+      <c r="C281">
+        <v>0.125</v>
+      </c>
+      <c r="D281">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>2047</v>
+      </c>
+      <c r="C282">
+        <v>0.125</v>
+      </c>
+      <c r="D282">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>6</v>
+      </c>
+      <c r="B283">
+        <v>2047</v>
+      </c>
+      <c r="C283">
+        <v>0.125</v>
+      </c>
+      <c r="D283">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>7</v>
+      </c>
+      <c r="B284">
+        <v>2047</v>
+      </c>
+      <c r="C284">
+        <v>0.125</v>
+      </c>
+      <c r="D284">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>8</v>
+      </c>
+      <c r="B285">
+        <v>2047</v>
+      </c>
+      <c r="C285">
+        <v>0.125</v>
+      </c>
+      <c r="D285">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>9</v>
+      </c>
+      <c r="B286">
+        <v>2047</v>
+      </c>
+      <c r="C286">
+        <v>0.125</v>
+      </c>
+      <c r="D286">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>10</v>
+      </c>
+      <c r="B287">
+        <v>2047</v>
+      </c>
+      <c r="C287">
+        <v>0.125</v>
+      </c>
+      <c r="D287">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>11</v>
+      </c>
+      <c r="B288">
+        <v>2047</v>
+      </c>
+      <c r="C288">
+        <v>0.125</v>
+      </c>
+      <c r="D288">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>12</v>
+      </c>
+      <c r="B289">
+        <v>2047</v>
+      </c>
+      <c r="C289">
+        <v>0.125</v>
+      </c>
+      <c r="D289">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290">
         <v>2048</v>
       </c>
-      <c r="B26">
-        <v>0.125</v>
-      </c>
-      <c r="C26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="C290">
+        <v>0.125</v>
+      </c>
+      <c r="D290">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291">
+        <v>2048</v>
+      </c>
+      <c r="C291">
+        <v>0.125</v>
+      </c>
+      <c r="D291">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292">
+        <v>2048</v>
+      </c>
+      <c r="C292">
+        <v>0.125</v>
+      </c>
+      <c r="D292">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>4</v>
+      </c>
+      <c r="B293">
+        <v>2048</v>
+      </c>
+      <c r="C293">
+        <v>0.125</v>
+      </c>
+      <c r="D293">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294">
+        <v>2048</v>
+      </c>
+      <c r="C294">
+        <v>0.125</v>
+      </c>
+      <c r="D294">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>2048</v>
+      </c>
+      <c r="C295">
+        <v>0.125</v>
+      </c>
+      <c r="D295">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>7</v>
+      </c>
+      <c r="B296">
+        <v>2048</v>
+      </c>
+      <c r="C296">
+        <v>0.125</v>
+      </c>
+      <c r="D296">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>8</v>
+      </c>
+      <c r="B297">
+        <v>2048</v>
+      </c>
+      <c r="C297">
+        <v>0.125</v>
+      </c>
+      <c r="D297">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>9</v>
+      </c>
+      <c r="B298">
+        <v>2048</v>
+      </c>
+      <c r="C298">
+        <v>0.125</v>
+      </c>
+      <c r="D298">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>10</v>
+      </c>
+      <c r="B299">
+        <v>2048</v>
+      </c>
+      <c r="C299">
+        <v>0.125</v>
+      </c>
+      <c r="D299">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>11</v>
+      </c>
+      <c r="B300">
+        <v>2048</v>
+      </c>
+      <c r="C300">
+        <v>0.125</v>
+      </c>
+      <c r="D300">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>12</v>
+      </c>
+      <c r="B301">
+        <v>2048</v>
+      </c>
+      <c r="C301">
+        <v>0.125</v>
+      </c>
+      <c r="D301">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
         <v>2049</v>
       </c>
-      <c r="B27">
-        <v>0.125</v>
-      </c>
-      <c r="C27">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="C302">
+        <v>0.125</v>
+      </c>
+      <c r="D302">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303">
+        <v>2049</v>
+      </c>
+      <c r="C303">
+        <v>0.125</v>
+      </c>
+      <c r="D303">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>3</v>
+      </c>
+      <c r="B304">
+        <v>2049</v>
+      </c>
+      <c r="C304">
+        <v>0.125</v>
+      </c>
+      <c r="D304">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="B305">
+        <v>2049</v>
+      </c>
+      <c r="C305">
+        <v>0.125</v>
+      </c>
+      <c r="D305">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="B306">
+        <v>2049</v>
+      </c>
+      <c r="C306">
+        <v>0.125</v>
+      </c>
+      <c r="D306">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>6</v>
+      </c>
+      <c r="B307">
+        <v>2049</v>
+      </c>
+      <c r="C307">
+        <v>0.125</v>
+      </c>
+      <c r="D307">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <v>2049</v>
+      </c>
+      <c r="C308">
+        <v>0.125</v>
+      </c>
+      <c r="D308">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>8</v>
+      </c>
+      <c r="B309">
+        <v>2049</v>
+      </c>
+      <c r="C309">
+        <v>0.125</v>
+      </c>
+      <c r="D309">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>9</v>
+      </c>
+      <c r="B310">
+        <v>2049</v>
+      </c>
+      <c r="C310">
+        <v>0.125</v>
+      </c>
+      <c r="D310">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>10</v>
+      </c>
+      <c r="B311">
+        <v>2049</v>
+      </c>
+      <c r="C311">
+        <v>0.125</v>
+      </c>
+      <c r="D311">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>11</v>
+      </c>
+      <c r="B312">
+        <v>2049</v>
+      </c>
+      <c r="C312">
+        <v>0.125</v>
+      </c>
+      <c r="D312">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>12</v>
+      </c>
+      <c r="B313">
+        <v>2049</v>
+      </c>
+      <c r="C313">
+        <v>0.125</v>
+      </c>
+      <c r="D313">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314">
         <v>2050</v>
       </c>
-      <c r="B28">
-        <v>0.125</v>
-      </c>
-      <c r="C28">
+      <c r="C314">
+        <v>0.125</v>
+      </c>
+      <c r="D314">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315">
+        <v>2050</v>
+      </c>
+      <c r="C315">
+        <v>0.125</v>
+      </c>
+      <c r="D315">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>3</v>
+      </c>
+      <c r="B316">
+        <v>2050</v>
+      </c>
+      <c r="C316">
+        <v>0.125</v>
+      </c>
+      <c r="D316">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>4</v>
+      </c>
+      <c r="B317">
+        <v>2050</v>
+      </c>
+      <c r="C317">
+        <v>0.125</v>
+      </c>
+      <c r="D317">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>5</v>
+      </c>
+      <c r="B318">
+        <v>2050</v>
+      </c>
+      <c r="C318">
+        <v>0.125</v>
+      </c>
+      <c r="D318">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>6</v>
+      </c>
+      <c r="B319">
+        <v>2050</v>
+      </c>
+      <c r="C319">
+        <v>0.125</v>
+      </c>
+      <c r="D319">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>7</v>
+      </c>
+      <c r="B320">
+        <v>2050</v>
+      </c>
+      <c r="C320">
+        <v>0.125</v>
+      </c>
+      <c r="D320">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>8</v>
+      </c>
+      <c r="B321">
+        <v>2050</v>
+      </c>
+      <c r="C321">
+        <v>0.125</v>
+      </c>
+      <c r="D321">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>9</v>
+      </c>
+      <c r="B322">
+        <v>2050</v>
+      </c>
+      <c r="C322">
+        <v>0.125</v>
+      </c>
+      <c r="D322">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>10</v>
+      </c>
+      <c r="B323">
+        <v>2050</v>
+      </c>
+      <c r="C323">
+        <v>0.125</v>
+      </c>
+      <c r="D323">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>11</v>
+      </c>
+      <c r="B324">
+        <v>2050</v>
+      </c>
+      <c r="C324">
+        <v>0.125</v>
+      </c>
+      <c r="D324">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>12</v>
+      </c>
+      <c r="B325">
+        <v>2050</v>
+      </c>
+      <c r="C325">
+        <v>0.125</v>
+      </c>
+      <c r="D325">
         <v>0.25</v>
       </c>
     </row>
@@ -1760,19 +6008,19 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1819,7 +6067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1866,7 +6114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1913,49 +6161,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
   </sheetData>
@@ -1972,9 +6220,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +6235,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -1998,7 +6246,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -2009,7 +6257,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -2020,7 +6268,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -2031,7 +6279,7 @@
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -2042,7 +6290,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -2053,7 +6301,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -2064,7 +6312,7 @@
         <v>3.32E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -2075,7 +6323,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -2086,7 +6334,7 @@
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -2097,7 +6345,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -2108,7 +6356,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -2119,7 +6367,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -2130,7 +6378,7 @@
         <v>4.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -2141,7 +6389,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -2152,7 +6400,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -2163,7 +6411,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -2174,7 +6422,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -2185,7 +6433,7 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -2196,7 +6444,7 @@
         <v>5.74E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -2207,7 +6455,7 @@
         <v>5.96E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -2218,7 +6466,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -2229,7 +6477,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -2240,7 +6488,7 @@
         <v>6.6199999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -2251,7 +6499,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -2262,7 +6510,7 @@
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -2273,7 +6521,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -2297,9 +6545,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2312,7 +6560,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -2323,7 +6571,7 @@
         <v>26229.707720000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -2334,7 +6582,7 @@
         <v>26589.174669999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -2345,7 +6593,7 @@
         <v>60431.69513</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -2356,7 +6604,7 @@
         <v>95314.195130000007</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -2367,7 +6615,7 @@
         <v>130196.6951</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -2378,7 +6626,7 @@
         <v>165780.465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -2389,7 +6637,7 @@
         <v>179750.54879999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -2400,7 +6648,7 @@
         <v>195610.7611</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -2411,7 +6659,7 @@
         <v>196499.72339999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -2422,7 +6670,7 @@
         <v>198853.9976</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -2433,7 +6681,7 @@
         <v>202089.00579999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -2444,7 +6692,7 @@
         <v>164077.8836</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -2455,7 +6703,7 @@
         <v>126654.49769999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -2466,7 +6714,7 @@
         <v>90701.344779999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -2477,7 +6725,7 @@
         <v>57298.538379999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -2488,7 +6736,7 @@
         <v>40938.322699999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -2499,7 +6747,7 @@
         <v>30788.296410000003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -2510,7 +6758,7 @@
         <v>28368.054080000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -2521,7 +6769,7 @@
         <v>31250.81408</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -2532,7 +6780,7 @@
         <v>34011.350160000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -2543,7 +6791,7 @@
         <v>35066.675019999995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -2554,7 +6802,7 @@
         <v>33453.543590000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -2565,7 +6813,7 @@
         <v>25310.301890000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -2576,7 +6824,7 @@
         <v>11877.08452</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -2587,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -2598,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -2618,13 +6866,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3790A601-26C3-4DCA-97B6-9342C547A4A0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +6885,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -2648,7 +6896,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -2659,7 +6907,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -2670,7 +6918,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -2681,7 +6929,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -2692,7 +6940,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -2703,7 +6951,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -2714,7 +6962,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -2725,7 +6973,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -2736,7 +6984,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -2747,7 +6995,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -2758,7 +7006,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -2769,7 +7017,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -2780,7 +7028,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -2791,7 +7039,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -2802,7 +7050,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -2813,7 +7061,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -2824,7 +7072,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -2835,7 +7083,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -2846,7 +7094,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -2857,7 +7105,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -2868,7 +7116,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -2879,7 +7127,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -2890,7 +7138,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -2901,7 +7149,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -2912,7 +7160,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -2923,7 +7171,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2050</v>
       </c>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E7585-C206-4725-9DE7-6476AEADA30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B94D9-F7A9-4F57-AF86-552E387DCA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="67200" yWindow="-570" windowWidth="28800" windowHeight="15285" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Value</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>timestep</t>
+  </si>
+  <si>
+    <t>scrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mining </t>
+  </si>
+  <si>
+    <t>recycling_efficiency</t>
+  </si>
+  <si>
+    <t>recycling_EU27_solarPV</t>
+  </si>
+  <si>
+    <t>recycling_EU27_windoff</t>
+  </si>
+  <si>
+    <t>IR_recycling</t>
+  </si>
+  <si>
+    <t>Initial_decommisions</t>
   </si>
 </sst>
 </file>
@@ -656,9 +677,9 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -674,7 +695,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -682,7 +703,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -697,20 +718,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185AF38-42FD-4CFF-B287-2FCFFF6C6EF3}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -724,16 +746,22 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -747,16 +775,22 @@
         <v>414000</v>
       </c>
       <c r="E2">
+        <v>50000</v>
+      </c>
+      <c r="F2">
         <v>250240</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>303600</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -770,16 +804,22 @@
         <v>414000</v>
       </c>
       <c r="E3">
+        <v>50000</v>
+      </c>
+      <c r="F3">
         <v>246486.39999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>299045.40000000002</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>600000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -793,16 +833,22 @@
         <v>414000</v>
       </c>
       <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="F4">
         <v>242789.10399999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>294559.71899999998</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>600000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -816,16 +862,22 @@
         <v>414000</v>
       </c>
       <c r="E5">
+        <v>50000</v>
+      </c>
+      <c r="F5">
         <v>239147.26740000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>290141.32319999998</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>600000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -839,16 +891,22 @@
         <v>414000</v>
       </c>
       <c r="E6">
+        <v>50000</v>
+      </c>
+      <c r="F6">
         <v>235560.05840000001</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>285788.2034</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>600000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -862,16 +920,22 @@
         <v>414000</v>
       </c>
       <c r="E7">
+        <v>50000</v>
+      </c>
+      <c r="F7">
         <v>232026.65760000001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>281498.4804</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>600000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -885,16 +949,22 @@
         <v>414000</v>
       </c>
       <c r="E8">
+        <v>50000</v>
+      </c>
+      <c r="F8">
         <v>228546.25769999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>277270.34419999999</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>600000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -908,16 +978,22 @@
         <v>414000</v>
       </c>
       <c r="E9">
+        <v>50000</v>
+      </c>
+      <c r="F9">
         <v>225118.0638</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>273102.28909999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>600000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -931,16 +1007,22 @@
         <v>414000</v>
       </c>
       <c r="E10">
+        <v>50000</v>
+      </c>
+      <c r="F10">
         <v>221741.2929</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>268993.2548</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>600000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -954,16 +1036,22 @@
         <v>414000</v>
       </c>
       <c r="E11">
+        <v>50000</v>
+      </c>
+      <c r="F11">
         <v>218415.1735</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>264942.41499999998</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>600000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -977,16 +1065,22 @@
         <v>414000</v>
       </c>
       <c r="E12">
+        <v>50000</v>
+      </c>
+      <c r="F12">
         <v>215138.94589999999</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>260948.7948</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>600000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -1000,16 +1094,22 @@
         <v>414000</v>
       </c>
       <c r="E13">
+        <v>50000</v>
+      </c>
+      <c r="F13">
         <v>211911.86170000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>257011.4613</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>600000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -1023,16 +1123,22 @@
         <v>414000</v>
       </c>
       <c r="E14">
+        <v>50000</v>
+      </c>
+      <c r="F14">
         <v>208733.1838</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>253129.39139999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>600000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -1046,16 +1152,22 @@
         <v>414000</v>
       </c>
       <c r="E15">
+        <v>50000</v>
+      </c>
+      <c r="F15">
         <v>205602.18599999999</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>249301.63759999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>600000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -1069,16 +1181,22 @@
         <v>414000</v>
       </c>
       <c r="E16">
+        <v>50000</v>
+      </c>
+      <c r="F16">
         <v>202518.1532</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>245527.30809999999</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>600000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -1092,16 +1210,22 @@
         <v>414000</v>
       </c>
       <c r="E17">
+        <v>50000</v>
+      </c>
+      <c r="F17">
         <v>199480.38089999999</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>241805.39859999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>600000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -1115,16 +1239,22 @@
         <v>414000</v>
       </c>
       <c r="E18">
+        <v>50000</v>
+      </c>
+      <c r="F18">
         <v>196488.1752</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>238134.9901</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>600000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -1138,16 +1268,22 @@
         <v>414000</v>
       </c>
       <c r="E19">
+        <v>50000</v>
+      </c>
+      <c r="F19">
         <v>193540.85260000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>234515.065</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>600000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -1161,16 +1297,22 @@
         <v>414000</v>
       </c>
       <c r="E20">
+        <v>50000</v>
+      </c>
+      <c r="F20">
         <v>190637.73980000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>230944.68799999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>600000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -1184,16 +1326,22 @@
         <v>414000</v>
       </c>
       <c r="E21">
+        <v>50000</v>
+      </c>
+      <c r="F21">
         <v>187778.17370000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>227422.96530000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>600000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -1207,16 +1355,22 @@
         <v>414000</v>
       </c>
       <c r="E22">
+        <v>50000</v>
+      </c>
+      <c r="F22">
         <v>184961.50109999999</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>223948.88099999999</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>600000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -1230,16 +1384,22 @@
         <v>414000</v>
       </c>
       <c r="E23">
+        <v>50000</v>
+      </c>
+      <c r="F23">
         <v>182187.07860000001</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>220521.46350000001</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>600000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -1253,16 +1413,22 @@
         <v>414000</v>
       </c>
       <c r="E24">
+        <v>50000</v>
+      </c>
+      <c r="F24">
         <v>179454.27239999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>217139.74350000001</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>600000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -1276,16 +1442,22 @@
         <v>414000</v>
       </c>
       <c r="E25">
+        <v>50000</v>
+      </c>
+      <c r="F25">
         <v>176762.4583</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>213802.75769999999</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>600000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -1299,16 +1471,22 @@
         <v>414000</v>
       </c>
       <c r="E26">
+        <v>50000</v>
+      </c>
+      <c r="F26">
         <v>174111.0214</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>210509.61679999999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>600000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -1322,16 +1500,22 @@
         <v>414000</v>
       </c>
       <c r="E27">
+        <v>50000</v>
+      </c>
+      <c r="F27">
         <v>171499.3561</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>207259.3126</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>600000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -1345,13 +1529,19 @@
         <v>414000</v>
       </c>
       <c r="E28">
+        <v>50000</v>
+      </c>
+      <c r="F28">
         <v>168926.8658</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>204050.9535</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>600000</v>
+      </c>
+      <c r="I28">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -1367,64 +1557,64 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -1436,16 +1626,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6341E4C-4AB4-44A4-8119-B6BB3BEB6E84}">
   <dimension ref="A1:D325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1459,7 +1649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1473,7 +1663,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1487,7 +1677,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1501,7 +1691,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1515,7 +1705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1529,7 +1719,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1543,7 +1733,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1557,7 +1747,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1571,7 +1761,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1585,7 +1775,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1599,7 +1789,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1613,7 +1803,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1627,7 +1817,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1641,7 +1831,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1655,7 +1845,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1669,7 +1859,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1683,7 +1873,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1697,7 +1887,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1711,7 +1901,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1725,7 +1915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1739,7 +1929,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1753,7 +1943,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1767,7 +1957,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -1781,7 +1971,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1795,7 +1985,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1809,7 +1999,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1823,7 +2013,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1837,7 +2027,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1851,7 +2041,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1865,7 +2055,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1879,7 +2069,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1893,7 +2083,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1907,7 +2097,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1921,7 +2111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1935,7 +2125,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11</v>
       </c>
@@ -1949,7 +2139,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12</v>
       </c>
@@ -1963,7 +2153,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1977,7 +2167,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1991,7 +2181,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2005,7 +2195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2019,7 +2209,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2033,7 +2223,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2047,7 +2237,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2061,7 +2251,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2075,7 +2265,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2089,7 +2279,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2103,7 +2293,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2117,7 +2307,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2131,7 +2321,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2145,7 +2335,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2159,7 +2349,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2173,7 +2363,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2187,7 +2377,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2201,7 +2391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2215,7 +2405,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2229,7 +2419,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8</v>
       </c>
@@ -2243,7 +2433,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2257,7 +2447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10</v>
       </c>
@@ -2271,7 +2461,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -2285,7 +2475,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -2299,7 +2489,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2313,7 +2503,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2327,7 +2517,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2341,7 +2531,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2355,7 +2545,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2369,7 +2559,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2383,7 +2573,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7</v>
       </c>
@@ -2397,7 +2587,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2411,7 +2601,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
@@ -2425,7 +2615,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10</v>
       </c>
@@ -2439,7 +2629,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2453,7 +2643,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
@@ -2467,7 +2657,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2481,7 +2671,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2495,7 +2685,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2509,7 +2699,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2523,7 +2713,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2537,7 +2727,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6</v>
       </c>
@@ -2551,7 +2741,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2565,7 +2755,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2579,7 +2769,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>9</v>
       </c>
@@ -2593,7 +2783,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>10</v>
       </c>
@@ -2607,7 +2797,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>11</v>
       </c>
@@ -2621,7 +2811,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12</v>
       </c>
@@ -2635,7 +2825,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2649,7 +2839,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2663,7 +2853,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2677,7 +2867,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2691,7 +2881,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2705,7 +2895,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6</v>
       </c>
@@ -2719,7 +2909,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>7</v>
       </c>
@@ -2733,7 +2923,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8</v>
       </c>
@@ -2747,7 +2937,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9</v>
       </c>
@@ -2761,7 +2951,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>10</v>
       </c>
@@ -2775,7 +2965,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>11</v>
       </c>
@@ -2789,7 +2979,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12</v>
       </c>
@@ -2803,7 +2993,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2817,7 +3007,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2831,7 +3021,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2845,7 +3035,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2859,7 +3049,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2873,7 +3063,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>6</v>
       </c>
@@ -2887,7 +3077,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>7</v>
       </c>
@@ -2901,7 +3091,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>8</v>
       </c>
@@ -2915,7 +3105,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9</v>
       </c>
@@ -2929,7 +3119,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10</v>
       </c>
@@ -2943,7 +3133,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -2957,7 +3147,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12</v>
       </c>
@@ -2971,7 +3161,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -2985,7 +3175,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -2999,7 +3189,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3013,7 +3203,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3027,7 +3217,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3041,7 +3231,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>6</v>
       </c>
@@ -3055,7 +3245,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>7</v>
       </c>
@@ -3069,7 +3259,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3083,7 +3273,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9</v>
       </c>
@@ -3097,7 +3287,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10</v>
       </c>
@@ -3111,7 +3301,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11</v>
       </c>
@@ -3125,7 +3315,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -3139,7 +3329,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3153,7 +3343,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -3167,7 +3357,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3181,7 +3371,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -3195,7 +3385,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3209,7 +3399,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -3223,7 +3413,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7</v>
       </c>
@@ -3237,7 +3427,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8</v>
       </c>
@@ -3251,7 +3441,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9</v>
       </c>
@@ -3265,7 +3455,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>10</v>
       </c>
@@ -3279,7 +3469,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>11</v>
       </c>
@@ -3293,7 +3483,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>12</v>
       </c>
@@ -3307,7 +3497,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3321,7 +3511,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -3335,7 +3525,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3</v>
       </c>
@@ -3349,7 +3539,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -3363,7 +3553,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5</v>
       </c>
@@ -3377,7 +3567,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3391,7 +3581,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>7</v>
       </c>
@@ -3405,7 +3595,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>8</v>
       </c>
@@ -3419,7 +3609,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>9</v>
       </c>
@@ -3433,7 +3623,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10</v>
       </c>
@@ -3447,7 +3637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>11</v>
       </c>
@@ -3461,7 +3651,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>12</v>
       </c>
@@ -3475,7 +3665,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3489,7 +3679,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -3503,7 +3693,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3517,7 +3707,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3531,7 +3721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -3545,7 +3735,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3559,7 +3749,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3573,7 +3763,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>8</v>
       </c>
@@ -3587,7 +3777,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9</v>
       </c>
@@ -3601,7 +3791,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10</v>
       </c>
@@ -3615,7 +3805,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11</v>
       </c>
@@ -3629,7 +3819,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>12</v>
       </c>
@@ -3643,7 +3833,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3657,7 +3847,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2</v>
       </c>
@@ -3671,7 +3861,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3</v>
       </c>
@@ -3685,7 +3875,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4</v>
       </c>
@@ -3699,7 +3889,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5</v>
       </c>
@@ -3713,7 +3903,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6</v>
       </c>
@@ -3727,7 +3917,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -3741,7 +3931,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8</v>
       </c>
@@ -3755,7 +3945,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9</v>
       </c>
@@ -3769,7 +3959,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>10</v>
       </c>
@@ -3783,7 +3973,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>11</v>
       </c>
@@ -3797,7 +3987,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>12</v>
       </c>
@@ -3811,7 +4001,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -3825,7 +4015,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2</v>
       </c>
@@ -3839,7 +4029,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3</v>
       </c>
@@ -3853,7 +4043,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -3867,7 +4057,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5</v>
       </c>
@@ -3881,7 +4071,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -3895,7 +4085,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7</v>
       </c>
@@ -3909,7 +4099,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -3923,7 +4113,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9</v>
       </c>
@@ -3937,7 +4127,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>10</v>
       </c>
@@ -3951,7 +4141,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>11</v>
       </c>
@@ -3965,7 +4155,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>12</v>
       </c>
@@ -3979,7 +4169,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -3993,7 +4183,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2</v>
       </c>
@@ -4007,7 +4197,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3</v>
       </c>
@@ -4021,7 +4211,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>4</v>
       </c>
@@ -4035,7 +4225,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5</v>
       </c>
@@ -4049,7 +4239,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -4063,7 +4253,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>7</v>
       </c>
@@ -4077,7 +4267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4091,7 +4281,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9</v>
       </c>
@@ -4105,7 +4295,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>10</v>
       </c>
@@ -4119,7 +4309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>11</v>
       </c>
@@ -4133,7 +4323,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>12</v>
       </c>
@@ -4147,7 +4337,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4161,7 +4351,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2</v>
       </c>
@@ -4175,7 +4365,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3</v>
       </c>
@@ -4189,7 +4379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4</v>
       </c>
@@ -4203,7 +4393,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5</v>
       </c>
@@ -4217,7 +4407,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>6</v>
       </c>
@@ -4231,7 +4421,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>7</v>
       </c>
@@ -4245,7 +4435,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4259,7 +4449,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9</v>
       </c>
@@ -4273,7 +4463,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>10</v>
       </c>
@@ -4287,7 +4477,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>11</v>
       </c>
@@ -4301,7 +4491,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>12</v>
       </c>
@@ -4315,7 +4505,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -4329,7 +4519,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2</v>
       </c>
@@ -4343,7 +4533,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3</v>
       </c>
@@ -4357,7 +4547,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -4371,7 +4561,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>5</v>
       </c>
@@ -4385,7 +4575,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>6</v>
       </c>
@@ -4399,7 +4589,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>7</v>
       </c>
@@ -4413,7 +4603,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8</v>
       </c>
@@ -4427,7 +4617,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>9</v>
       </c>
@@ -4441,7 +4631,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>10</v>
       </c>
@@ -4455,7 +4645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11</v>
       </c>
@@ -4469,7 +4659,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12</v>
       </c>
@@ -4483,7 +4673,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -4497,7 +4687,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2</v>
       </c>
@@ -4511,7 +4701,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3</v>
       </c>
@@ -4525,7 +4715,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -4539,7 +4729,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>5</v>
       </c>
@@ -4553,7 +4743,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -4567,7 +4757,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>7</v>
       </c>
@@ -4581,7 +4771,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>8</v>
       </c>
@@ -4595,7 +4785,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>9</v>
       </c>
@@ -4609,7 +4799,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>10</v>
       </c>
@@ -4623,7 +4813,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>11</v>
       </c>
@@ -4637,7 +4827,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>12</v>
       </c>
@@ -4651,7 +4841,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -4665,7 +4855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2</v>
       </c>
@@ -4679,7 +4869,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -4693,7 +4883,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4</v>
       </c>
@@ -4707,7 +4897,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>5</v>
       </c>
@@ -4721,7 +4911,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>6</v>
       </c>
@@ -4735,7 +4925,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>7</v>
       </c>
@@ -4749,7 +4939,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -4763,7 +4953,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>9</v>
       </c>
@@ -4777,7 +4967,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>10</v>
       </c>
@@ -4791,7 +4981,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11</v>
       </c>
@@ -4805,7 +4995,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>12</v>
       </c>
@@ -4819,7 +5009,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -4833,7 +5023,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2</v>
       </c>
@@ -4847,7 +5037,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3</v>
       </c>
@@ -4861,7 +5051,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>4</v>
       </c>
@@ -4875,7 +5065,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>5</v>
       </c>
@@ -4889,7 +5079,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>6</v>
       </c>
@@ -4903,7 +5093,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>7</v>
       </c>
@@ -4917,7 +5107,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8</v>
       </c>
@@ -4931,7 +5121,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>9</v>
       </c>
@@ -4945,7 +5135,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>10</v>
       </c>
@@ -4959,7 +5149,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>11</v>
       </c>
@@ -4973,7 +5163,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>12</v>
       </c>
@@ -4987,7 +5177,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -5001,7 +5191,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2</v>
       </c>
@@ -5015,7 +5205,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3</v>
       </c>
@@ -5029,7 +5219,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>4</v>
       </c>
@@ -5043,7 +5233,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>5</v>
       </c>
@@ -5057,7 +5247,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6</v>
       </c>
@@ -5071,7 +5261,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>7</v>
       </c>
@@ -5085,7 +5275,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8</v>
       </c>
@@ -5099,7 +5289,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>9</v>
       </c>
@@ -5113,7 +5303,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>10</v>
       </c>
@@ -5127,7 +5317,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>11</v>
       </c>
@@ -5141,7 +5331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>12</v>
       </c>
@@ -5155,7 +5345,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -5169,7 +5359,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2</v>
       </c>
@@ -5183,7 +5373,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3</v>
       </c>
@@ -5197,7 +5387,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4</v>
       </c>
@@ -5211,7 +5401,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>5</v>
       </c>
@@ -5225,7 +5415,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>6</v>
       </c>
@@ -5239,7 +5429,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>7</v>
       </c>
@@ -5253,7 +5443,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -5267,7 +5457,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>9</v>
       </c>
@@ -5281,7 +5471,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>10</v>
       </c>
@@ -5295,7 +5485,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>11</v>
       </c>
@@ -5309,7 +5499,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>12</v>
       </c>
@@ -5323,7 +5513,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -5337,7 +5527,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2</v>
       </c>
@@ -5351,7 +5541,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3</v>
       </c>
@@ -5365,7 +5555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>4</v>
       </c>
@@ -5379,7 +5569,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>5</v>
       </c>
@@ -5393,7 +5583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6</v>
       </c>
@@ -5407,7 +5597,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>7</v>
       </c>
@@ -5421,7 +5611,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8</v>
       </c>
@@ -5435,7 +5625,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>9</v>
       </c>
@@ -5449,7 +5639,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>10</v>
       </c>
@@ -5463,7 +5653,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>11</v>
       </c>
@@ -5477,7 +5667,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>12</v>
       </c>
@@ -5491,7 +5681,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -5505,7 +5695,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2</v>
       </c>
@@ -5519,7 +5709,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3</v>
       </c>
@@ -5533,7 +5723,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>4</v>
       </c>
@@ -5547,7 +5737,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>5</v>
       </c>
@@ -5561,7 +5751,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>6</v>
       </c>
@@ -5575,7 +5765,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>7</v>
       </c>
@@ -5589,7 +5779,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>8</v>
       </c>
@@ -5603,7 +5793,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>9</v>
       </c>
@@ -5617,7 +5807,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>10</v>
       </c>
@@ -5631,7 +5821,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>11</v>
       </c>
@@ -5645,7 +5835,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>12</v>
       </c>
@@ -5659,7 +5849,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -5673,7 +5863,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2</v>
       </c>
@@ -5687,7 +5877,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3</v>
       </c>
@@ -5701,7 +5891,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>4</v>
       </c>
@@ -5715,7 +5905,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>5</v>
       </c>
@@ -5729,7 +5919,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6</v>
       </c>
@@ -5743,7 +5933,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>7</v>
       </c>
@@ -5757,7 +5947,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>8</v>
       </c>
@@ -5771,7 +5961,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>9</v>
       </c>
@@ -5785,7 +5975,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>10</v>
       </c>
@@ -5799,7 +5989,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>11</v>
       </c>
@@ -5813,7 +6003,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>12</v>
       </c>
@@ -5827,7 +6017,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -5841,7 +6031,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2</v>
       </c>
@@ -5855,7 +6045,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3</v>
       </c>
@@ -5869,7 +6059,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>4</v>
       </c>
@@ -5883,7 +6073,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5</v>
       </c>
@@ -5897,7 +6087,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>6</v>
       </c>
@@ -5911,7 +6101,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>7</v>
       </c>
@@ -5925,7 +6115,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>8</v>
       </c>
@@ -5939,7 +6129,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>9</v>
       </c>
@@ -5953,7 +6143,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>10</v>
       </c>
@@ -5967,7 +6157,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>11</v>
       </c>
@@ -5981,7 +6171,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>12</v>
       </c>
@@ -6002,25 +6192,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -6066,8 +6256,23 @@
       <c r="O1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -6113,8 +6318,23 @@
       <c r="O2" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>25</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T2" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -6160,50 +6380,67 @@
       <c r="O3" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>25</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T3" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
     </row>
   </sheetData>
@@ -6220,9 +6457,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6235,7 +6472,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -6246,7 +6483,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -6257,7 +6494,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -6268,7 +6505,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -6279,7 +6516,7 @@
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -6290,7 +6527,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -6301,7 +6538,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -6312,7 +6549,7 @@
         <v>3.32E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -6323,7 +6560,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -6334,7 +6571,7 @@
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -6345,7 +6582,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -6356,7 +6593,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -6367,7 +6604,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -6378,7 +6615,7 @@
         <v>4.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -6389,7 +6626,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -6400,7 +6637,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -6411,7 +6648,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -6422,7 +6659,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -6433,7 +6670,7 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -6444,7 +6681,7 @@
         <v>5.74E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -6455,7 +6692,7 @@
         <v>5.96E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -6466,7 +6703,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -6477,7 +6714,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -6488,7 +6725,7 @@
         <v>6.6199999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -6499,7 +6736,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -6510,7 +6747,7 @@
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -6521,7 +6758,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -6545,9 +6782,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6560,7 +6797,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -6571,7 +6808,7 @@
         <v>26229.707720000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -6582,7 +6819,7 @@
         <v>26589.174669999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -6593,7 +6830,7 @@
         <v>60431.69513</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -6604,7 +6841,7 @@
         <v>95314.195130000007</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -6615,7 +6852,7 @@
         <v>130196.6951</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -6626,7 +6863,7 @@
         <v>165780.465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -6637,7 +6874,7 @@
         <v>179750.54879999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -6648,7 +6885,7 @@
         <v>195610.7611</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -6659,7 +6896,7 @@
         <v>196499.72339999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -6670,7 +6907,7 @@
         <v>198853.9976</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -6681,7 +6918,7 @@
         <v>202089.00579999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -6692,7 +6929,7 @@
         <v>164077.8836</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -6703,7 +6940,7 @@
         <v>126654.49769999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -6714,7 +6951,7 @@
         <v>90701.344779999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -6725,7 +6962,7 @@
         <v>57298.538379999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -6736,7 +6973,7 @@
         <v>40938.322699999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -6747,7 +6984,7 @@
         <v>30788.296410000003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -6758,7 +6995,7 @@
         <v>28368.054080000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -6769,7 +7006,7 @@
         <v>31250.81408</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -6780,7 +7017,7 @@
         <v>34011.350160000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -6791,7 +7028,7 @@
         <v>35066.675019999995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -6802,7 +7039,7 @@
         <v>33453.543590000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -6813,7 +7050,7 @@
         <v>25310.301890000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -6824,7 +7061,7 @@
         <v>11877.08452</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -6835,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -6846,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -6870,9 +7107,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6885,7 +7122,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -6896,7 +7133,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -6907,7 +7144,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -6918,7 +7155,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -6929,7 +7166,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -6940,7 +7177,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -6951,7 +7188,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -6962,7 +7199,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -6973,7 +7210,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -6984,7 +7221,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -6995,7 +7232,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -7006,7 +7243,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -7017,7 +7254,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -7028,7 +7265,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -7039,7 +7276,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -7050,7 +7287,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -7061,7 +7298,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -7072,7 +7309,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -7083,7 +7320,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -7094,7 +7331,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -7105,7 +7342,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -7116,7 +7353,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -7127,7 +7364,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -7138,7 +7375,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -7149,7 +7386,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -7160,7 +7397,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -7171,7 +7408,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B94D9-F7A9-4F57-AF86-552E387DCA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614162DB-560C-43B5-A614-8041B0CFB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="-570" windowWidth="28800" windowHeight="15285" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Value</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>Initial_decommisions</t>
+  </si>
+  <si>
+    <t>EU27.windon</t>
+  </si>
+  <si>
+    <t>EU27_windon</t>
+  </si>
+  <si>
+    <t>import_EU27_windon</t>
+  </si>
+  <si>
+    <t>manufacturing_EU27_windon</t>
+  </si>
+  <si>
+    <t>remanufacturing_EU27_windon</t>
+  </si>
+  <si>
+    <t>recycling_EU27_windon</t>
   </si>
 </sst>
 </file>
@@ -718,10 +736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185AF38-42FD-4CFF-B287-2FCFFF6C6EF3}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,7 +750,7 @@
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -760,8 +778,20 @@
       <c r="I1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -775,22 +805,34 @@
         <v>414000</v>
       </c>
       <c r="E2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>250240</v>
+        <v>1775265.6417320003</v>
       </c>
       <c r="G2">
-        <v>303600</v>
+        <v>2337972.5216000001</v>
       </c>
       <c r="H2">
         <v>600000</v>
       </c>
       <c r="I2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1052044.8400000001</v>
+      </c>
+      <c r="K2">
+        <v>1673707.7000000002</v>
+      </c>
+      <c r="L2">
+        <v>600000</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -804,22 +846,34 @@
         <v>414000</v>
       </c>
       <c r="E3">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>246486.39999999999</v>
+        <v>1722922.372057667</v>
       </c>
       <c r="G3">
-        <v>299045.40000000002</v>
+        <v>2318026.381866667</v>
       </c>
       <c r="H3">
         <v>600000</v>
       </c>
       <c r="I3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>1042480.7960000001</v>
+      </c>
+      <c r="K3">
+        <v>1660955.6413333334</v>
+      </c>
+      <c r="L3">
+        <v>600000</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -833,22 +887,34 @@
         <v>414000</v>
       </c>
       <c r="E4">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <v>242789.10399999999</v>
+        <v>1670579.1023833335</v>
       </c>
       <c r="G4">
-        <v>294559.71899999998</v>
+        <v>2298080.2421333333</v>
       </c>
       <c r="H4">
         <v>600000</v>
       </c>
       <c r="I4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>1032916.7520000001</v>
+      </c>
+      <c r="K4">
+        <v>1648203.5826666667</v>
+      </c>
+      <c r="L4">
+        <v>600000</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -862,22 +928,34 @@
         <v>414000</v>
       </c>
       <c r="E5">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <v>239147.26740000001</v>
+        <v>1618235.832709</v>
       </c>
       <c r="G5">
-        <v>290141.32319999998</v>
+        <v>2278134.1023999997</v>
       </c>
       <c r="H5">
         <v>600000</v>
       </c>
       <c r="I5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>1023352.708</v>
+      </c>
+      <c r="K5">
+        <v>1635451.524</v>
+      </c>
+      <c r="L5">
+        <v>600000</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -891,22 +969,34 @@
         <v>414000</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F6">
-        <v>235560.05840000001</v>
+        <v>1565892.5630346665</v>
       </c>
       <c r="G6">
-        <v>285788.2034</v>
+        <v>2258187.9626666661</v>
       </c>
       <c r="H6">
         <v>600000</v>
       </c>
       <c r="I6">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>1013788.6639999999</v>
+      </c>
+      <c r="K6">
+        <v>1622699.4653333335</v>
+      </c>
+      <c r="L6">
+        <v>600000</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -920,22 +1010,34 @@
         <v>414000</v>
       </c>
       <c r="E7">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F7">
-        <v>232026.65760000001</v>
+        <v>1513549.293360333</v>
       </c>
       <c r="G7">
-        <v>281498.4804</v>
+        <v>2238241.8229333325</v>
       </c>
       <c r="H7">
         <v>600000</v>
       </c>
       <c r="I7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>1004224.62</v>
+      </c>
+      <c r="K7">
+        <v>1609947.4066666667</v>
+      </c>
+      <c r="L7">
+        <v>600000</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -949,22 +1051,34 @@
         <v>414000</v>
       </c>
       <c r="E8">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F8">
-        <v>228546.25769999999</v>
+        <v>1461206.0236859999</v>
       </c>
       <c r="G8">
-        <v>277270.34419999999</v>
+        <v>2218295.6831999999</v>
       </c>
       <c r="H8">
         <v>600000</v>
       </c>
       <c r="I8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>994660.57600000012</v>
+      </c>
+      <c r="K8">
+        <v>1597195.3480000002</v>
+      </c>
+      <c r="L8">
+        <v>600000</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -978,22 +1092,34 @@
         <v>414000</v>
       </c>
       <c r="E9">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F9">
-        <v>225118.0638</v>
+        <v>1444015.15599508</v>
       </c>
       <c r="G9">
-        <v>273102.28909999999</v>
+        <v>2205259.4561600001</v>
       </c>
       <c r="H9">
         <v>600000</v>
       </c>
       <c r="I9">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>992747.76720000012</v>
+      </c>
+      <c r="K9">
+        <v>1594326.1348000003</v>
+      </c>
+      <c r="L9">
+        <v>600000</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -1007,22 +1133,34 @@
         <v>414000</v>
       </c>
       <c r="E10">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>221741.2929</v>
+        <v>1426824.2883041599</v>
       </c>
       <c r="G10">
-        <v>268993.2548</v>
+        <v>2192223.2291199998</v>
       </c>
       <c r="H10">
         <v>600000</v>
       </c>
       <c r="I10">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <v>990834.9584</v>
+      </c>
+      <c r="K10">
+        <v>1591456.9216000002</v>
+      </c>
+      <c r="L10">
+        <v>600000</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -1036,22 +1174,34 @@
         <v>414000</v>
       </c>
       <c r="E11">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <v>218415.1735</v>
+        <v>1409633.42061324</v>
       </c>
       <c r="G11">
-        <v>264942.41499999998</v>
+        <v>2179187.0020799995</v>
       </c>
       <c r="H11">
         <v>600000</v>
       </c>
       <c r="I11">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <v>988922.1496</v>
+      </c>
+      <c r="K11">
+        <v>1588587.7084000004</v>
+      </c>
+      <c r="L11">
+        <v>600000</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -1065,22 +1215,34 @@
         <v>414000</v>
       </c>
       <c r="E12">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F12">
-        <v>215138.94589999999</v>
+        <v>1392442.5529223196</v>
       </c>
       <c r="G12">
-        <v>260948.7948</v>
+        <v>2166150.7750399997</v>
       </c>
       <c r="H12">
         <v>600000</v>
       </c>
       <c r="I12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>987009.34079999989</v>
+      </c>
+      <c r="K12">
+        <v>1585718.4952000002</v>
+      </c>
+      <c r="L12">
+        <v>600000</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -1094,22 +1256,34 @@
         <v>414000</v>
       </c>
       <c r="E13">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F13">
-        <v>211911.86170000001</v>
+        <v>1375251.6852313997</v>
       </c>
       <c r="G13">
-        <v>257011.4613</v>
+        <v>2153114.5479999995</v>
       </c>
       <c r="H13">
         <v>600000</v>
       </c>
       <c r="I13">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <v>985096.53199999989</v>
+      </c>
+      <c r="K13">
+        <v>1582849.2820000004</v>
+      </c>
+      <c r="L13">
+        <v>600000</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -1123,22 +1297,34 @@
         <v>414000</v>
       </c>
       <c r="E14">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F14">
-        <v>208733.1838</v>
+        <v>1358060.8175404796</v>
       </c>
       <c r="G14">
-        <v>253129.39139999999</v>
+        <v>2140078.3209599997</v>
       </c>
       <c r="H14">
         <v>600000</v>
       </c>
       <c r="I14">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>983183.72319999977</v>
+      </c>
+      <c r="K14">
+        <v>1579980.0688000005</v>
+      </c>
+      <c r="L14">
+        <v>600000</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -1152,22 +1338,34 @@
         <v>414000</v>
       </c>
       <c r="E15">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F15">
-        <v>205602.18599999999</v>
+        <v>1340869.9498495597</v>
       </c>
       <c r="G15">
-        <v>249301.63759999999</v>
+        <v>2127042.0939199994</v>
       </c>
       <c r="H15">
         <v>600000</v>
       </c>
       <c r="I15">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <v>981270.91439999978</v>
+      </c>
+      <c r="K15">
+        <v>1577110.8556000004</v>
+      </c>
+      <c r="L15">
+        <v>600000</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -1181,22 +1379,34 @@
         <v>414000</v>
       </c>
       <c r="E16">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F16">
-        <v>202518.1532</v>
+        <v>1323679.0821586396</v>
       </c>
       <c r="G16">
-        <v>245527.30809999999</v>
+        <v>2114005.8668799992</v>
       </c>
       <c r="H16">
         <v>600000</v>
       </c>
       <c r="I16">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>979358.10559999966</v>
+      </c>
+      <c r="K16">
+        <v>1574241.6424000005</v>
+      </c>
+      <c r="L16">
+        <v>600000</v>
+      </c>
+      <c r="M16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -1210,22 +1420,34 @@
         <v>414000</v>
       </c>
       <c r="E17">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F17">
-        <v>199480.38089999999</v>
+        <v>1306488.2144677194</v>
       </c>
       <c r="G17">
-        <v>241805.39859999999</v>
+        <v>2100969.6398399994</v>
       </c>
       <c r="H17">
         <v>600000</v>
       </c>
       <c r="I17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J17">
+        <v>977445.29679999966</v>
+      </c>
+      <c r="K17">
+        <v>1571372.4292000004</v>
+      </c>
+      <c r="L17">
+        <v>600000</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -1239,22 +1461,34 @@
         <v>414000</v>
       </c>
       <c r="E18">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F18">
-        <v>196488.1752</v>
+        <v>1288027.7959324</v>
       </c>
       <c r="G18">
-        <v>238134.9901</v>
+        <v>2087933.4128</v>
       </c>
       <c r="H18">
         <v>600000</v>
       </c>
       <c r="I18">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <v>975532.48799999955</v>
+      </c>
+      <c r="K18">
+        <v>1568503.2160000005</v>
+      </c>
+      <c r="L18">
+        <v>600000</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -1268,22 +1502,34 @@
         <v>414000</v>
       </c>
       <c r="E19">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F19">
-        <v>193540.85260000001</v>
+        <v>1288154.7510168403</v>
       </c>
       <c r="G19">
-        <v>234515.065</v>
+        <v>2076927.41784</v>
       </c>
       <c r="H19">
         <v>600000</v>
       </c>
       <c r="I19">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>973619.67919999966</v>
+      </c>
+      <c r="K19">
+        <v>1565634.0028000006</v>
+      </c>
+      <c r="L19">
+        <v>600000</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -1297,22 +1543,34 @@
         <v>414000</v>
       </c>
       <c r="E20">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F20">
-        <v>190637.73980000001</v>
+        <v>1288281.7061012802</v>
       </c>
       <c r="G20">
-        <v>230944.68799999999</v>
+        <v>2065921.4228800002</v>
       </c>
       <c r="H20">
         <v>600000</v>
       </c>
       <c r="I20">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>971706.87039999955</v>
+      </c>
+      <c r="K20">
+        <v>1562764.7896000005</v>
+      </c>
+      <c r="L20">
+        <v>600000</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -1326,22 +1584,34 @@
         <v>414000</v>
       </c>
       <c r="E21">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F21">
-        <v>187778.17370000001</v>
+        <v>1288408.6611857202</v>
       </c>
       <c r="G21">
-        <v>227422.96530000001</v>
+        <v>2054915.4279200002</v>
       </c>
       <c r="H21">
         <v>600000</v>
       </c>
       <c r="I21">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J21">
+        <v>969794.06159999955</v>
+      </c>
+      <c r="K21">
+        <v>1559895.5764000006</v>
+      </c>
+      <c r="L21">
+        <v>600000</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -1355,22 +1625,34 @@
         <v>414000</v>
       </c>
       <c r="E22">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F22">
-        <v>184961.50109999999</v>
+        <v>1288535.6162701603</v>
       </c>
       <c r="G22">
-        <v>223948.88099999999</v>
+        <v>2043909.4329600004</v>
       </c>
       <c r="H22">
         <v>600000</v>
       </c>
       <c r="I22">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>967881.25279999943</v>
+      </c>
+      <c r="K22">
+        <v>1557026.3632000005</v>
+      </c>
+      <c r="L22">
+        <v>600000</v>
+      </c>
+      <c r="M22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -1384,22 +1666,34 @@
         <v>414000</v>
       </c>
       <c r="E23">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F23">
-        <v>182187.07860000001</v>
+        <v>1288662.5713546001</v>
       </c>
       <c r="G23">
-        <v>220521.46350000001</v>
+        <v>2032903.4380000005</v>
       </c>
       <c r="H23">
         <v>600000</v>
       </c>
       <c r="I23">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>965968.44399999944</v>
+      </c>
+      <c r="K23">
+        <v>1554157.1500000006</v>
+      </c>
+      <c r="L23">
+        <v>600000</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -1413,22 +1707,34 @@
         <v>414000</v>
       </c>
       <c r="E24">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F24">
-        <v>179454.27239999999</v>
+        <v>1288789.5264390404</v>
       </c>
       <c r="G24">
-        <v>217139.74350000001</v>
+        <v>2021897.4430400007</v>
       </c>
       <c r="H24">
         <v>600000</v>
       </c>
       <c r="I24">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J24">
+        <v>964055.63519999932</v>
+      </c>
+      <c r="K24">
+        <v>1551287.9368000007</v>
+      </c>
+      <c r="L24">
+        <v>600000</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -1442,22 +1748,34 @@
         <v>414000</v>
       </c>
       <c r="E25">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F25">
-        <v>176762.4583</v>
+        <v>1288916.4815234803</v>
       </c>
       <c r="G25">
-        <v>213802.75769999999</v>
+        <v>2010891.4480800009</v>
       </c>
       <c r="H25">
         <v>600000</v>
       </c>
       <c r="I25">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>962142.82639999932</v>
+      </c>
+      <c r="K25">
+        <v>1548418.7236000006</v>
+      </c>
+      <c r="L25">
+        <v>600000</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -1471,22 +1789,34 @@
         <v>414000</v>
       </c>
       <c r="E26">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F26">
-        <v>174111.0214</v>
+        <v>1289043.4366079206</v>
       </c>
       <c r="G26">
-        <v>210509.61679999999</v>
+        <v>1999885.4531200009</v>
       </c>
       <c r="H26">
         <v>600000</v>
       </c>
       <c r="I26">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>960230.01759999921</v>
+      </c>
+      <c r="K26">
+        <v>1545549.5104000007</v>
+      </c>
+      <c r="L26">
+        <v>600000</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -1500,22 +1830,34 @@
         <v>414000</v>
       </c>
       <c r="E27">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F27">
-        <v>171499.3561</v>
+        <v>1289170.3916923604</v>
       </c>
       <c r="G27">
-        <v>207259.3126</v>
+        <v>1988879.4581600011</v>
       </c>
       <c r="H27">
         <v>600000</v>
       </c>
       <c r="I27">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>958317.20879999921</v>
+      </c>
+      <c r="K27">
+        <v>1542680.2972000006</v>
+      </c>
+      <c r="L27">
+        <v>600000</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -1529,19 +1871,31 @@
         <v>414000</v>
       </c>
       <c r="E28">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F28">
-        <v>168926.8658</v>
+        <v>1289297.3467768</v>
       </c>
       <c r="G28">
-        <v>204050.9535</v>
+        <v>1977873.4631999999</v>
       </c>
       <c r="H28">
         <v>600000</v>
       </c>
       <c r="I28">
-        <v>50000</v>
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>956404.40000000026</v>
+      </c>
+      <c r="K28">
+        <v>1539811.0840000003</v>
+      </c>
+      <c r="L28">
+        <v>600000</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1624,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6341E4C-4AB4-44A4-8119-B6BB3BEB6E84}">
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1989,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1648,8 +2002,11 @@
       <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1660,10 +2017,13 @@
         <v>0.125</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1674,10 +2034,13 @@
         <v>0.125</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1688,10 +2051,13 @@
         <v>0.125</v>
       </c>
       <c r="D4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1702,10 +2068,13 @@
         <v>0.125</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1716,10 +2085,13 @@
         <v>0.125</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1730,10 +2102,13 @@
         <v>0.125</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1744,10 +2119,13 @@
         <v>0.125</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1758,10 +2136,13 @@
         <v>0.125</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1772,10 +2153,13 @@
         <v>0.125</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1786,10 +2170,13 @@
         <v>0.125</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1800,10 +2187,13 @@
         <v>0.125</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1814,10 +2204,13 @@
         <v>0.125</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1828,10 +2221,13 @@
         <v>0.125</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1842,10 +2238,13 @@
         <v>0.125</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1856,10 +2255,13 @@
         <v>0.125</v>
       </c>
       <c r="D16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1870,10 +2272,13 @@
         <v>0.125</v>
       </c>
       <c r="D17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1884,10 +2289,13 @@
         <v>0.125</v>
       </c>
       <c r="D18">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1898,10 +2306,13 @@
         <v>0.125</v>
       </c>
       <c r="D19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1912,10 +2323,13 @@
         <v>0.125</v>
       </c>
       <c r="D20">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1926,10 +2340,13 @@
         <v>0.125</v>
       </c>
       <c r="D21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1940,10 +2357,13 @@
         <v>0.125</v>
       </c>
       <c r="D22">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1954,10 +2374,13 @@
         <v>0.125</v>
       </c>
       <c r="D23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -1968,10 +2391,13 @@
         <v>0.125</v>
       </c>
       <c r="D24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1982,10 +2408,13 @@
         <v>0.125</v>
       </c>
       <c r="D25">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1996,10 +2425,13 @@
         <v>0.125</v>
       </c>
       <c r="D26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2010,10 +2442,13 @@
         <v>0.125</v>
       </c>
       <c r="D27">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2024,10 +2459,13 @@
         <v>0.125</v>
       </c>
       <c r="D28">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2038,10 +2476,13 @@
         <v>0.125</v>
       </c>
       <c r="D29">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2052,10 +2493,13 @@
         <v>0.125</v>
       </c>
       <c r="D30">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2066,10 +2510,13 @@
         <v>0.125</v>
       </c>
       <c r="D31">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2080,10 +2527,13 @@
         <v>0.125</v>
       </c>
       <c r="D32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2094,10 +2544,13 @@
         <v>0.125</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -2108,10 +2561,13 @@
         <v>0.125</v>
       </c>
       <c r="D34">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -2122,10 +2578,13 @@
         <v>0.125</v>
       </c>
       <c r="D35">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2136,10 +2595,13 @@
         <v>0.125</v>
       </c>
       <c r="D36">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12</v>
       </c>
@@ -2150,10 +2612,13 @@
         <v>0.125</v>
       </c>
       <c r="D37">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2164,10 +2629,13 @@
         <v>0.125</v>
       </c>
       <c r="D38">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2178,10 +2646,13 @@
         <v>0.125</v>
       </c>
       <c r="D39">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2192,10 +2663,13 @@
         <v>0.125</v>
       </c>
       <c r="D40">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2206,10 +2680,13 @@
         <v>0.125</v>
       </c>
       <c r="D41">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2220,10 +2697,13 @@
         <v>0.125</v>
       </c>
       <c r="D42">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2234,10 +2714,13 @@
         <v>0.125</v>
       </c>
       <c r="D43">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2248,10 +2731,13 @@
         <v>0.125</v>
       </c>
       <c r="D44">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2262,10 +2748,13 @@
         <v>0.125</v>
       </c>
       <c r="D45">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2276,10 +2765,13 @@
         <v>0.125</v>
       </c>
       <c r="D46">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2290,10 +2782,13 @@
         <v>0.125</v>
       </c>
       <c r="D47">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2304,10 +2799,13 @@
         <v>0.125</v>
       </c>
       <c r="D48">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E48">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2318,10 +2816,13 @@
         <v>0.125</v>
       </c>
       <c r="D49">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2332,10 +2833,13 @@
         <v>0.125</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2346,10 +2850,13 @@
         <v>0.125</v>
       </c>
       <c r="D51">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2360,10 +2867,13 @@
         <v>0.125</v>
       </c>
       <c r="D52">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E52">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2374,10 +2884,13 @@
         <v>0.125</v>
       </c>
       <c r="D53">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2388,10 +2901,13 @@
         <v>0.125</v>
       </c>
       <c r="D54">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2402,10 +2918,13 @@
         <v>0.125</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2416,10 +2935,13 @@
         <v>0.125</v>
       </c>
       <c r="D56">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8</v>
       </c>
@@ -2430,10 +2952,13 @@
         <v>0.125</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2444,10 +2969,13 @@
         <v>0.125</v>
       </c>
       <c r="D58">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10</v>
       </c>
@@ -2458,10 +2986,13 @@
         <v>0.125</v>
       </c>
       <c r="D59">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -2472,10 +3003,13 @@
         <v>0.125</v>
       </c>
       <c r="D60">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -2486,10 +3020,13 @@
         <v>0.125</v>
       </c>
       <c r="D61">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2500,10 +3037,13 @@
         <v>0.125</v>
       </c>
       <c r="D62">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E62">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2514,10 +3054,13 @@
         <v>0.125</v>
       </c>
       <c r="D63">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2528,10 +3071,13 @@
         <v>0.125</v>
       </c>
       <c r="D64">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E64">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2542,10 +3088,13 @@
         <v>0.125</v>
       </c>
       <c r="D65">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2556,10 +3105,13 @@
         <v>0.125</v>
       </c>
       <c r="D66">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E66">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2570,10 +3122,13 @@
         <v>0.125</v>
       </c>
       <c r="D67">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E67">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7</v>
       </c>
@@ -2584,10 +3139,13 @@
         <v>0.125</v>
       </c>
       <c r="D68">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E68">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2598,10 +3156,13 @@
         <v>0.125</v>
       </c>
       <c r="D69">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E69">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
@@ -2612,10 +3173,13 @@
         <v>0.125</v>
       </c>
       <c r="D70">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E70">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10</v>
       </c>
@@ -2626,10 +3190,13 @@
         <v>0.125</v>
       </c>
       <c r="D71">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2640,10 +3207,13 @@
         <v>0.125</v>
       </c>
       <c r="D72">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E72">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
@@ -2654,10 +3224,13 @@
         <v>0.125</v>
       </c>
       <c r="D73">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2668,10 +3241,13 @@
         <v>0.125</v>
       </c>
       <c r="D74">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E74">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2682,10 +3258,13 @@
         <v>0.125</v>
       </c>
       <c r="D75">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2696,10 +3275,13 @@
         <v>0.125</v>
       </c>
       <c r="D76">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E76">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2710,10 +3292,13 @@
         <v>0.125</v>
       </c>
       <c r="D77">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E77">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2724,10 +3309,13 @@
         <v>0.125</v>
       </c>
       <c r="D78">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6</v>
       </c>
@@ -2738,10 +3326,13 @@
         <v>0.125</v>
       </c>
       <c r="D79">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E79">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2752,10 +3343,13 @@
         <v>0.125</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E80">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2766,10 +3360,13 @@
         <v>0.125</v>
       </c>
       <c r="D81">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E81">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>9</v>
       </c>
@@ -2780,10 +3377,13 @@
         <v>0.125</v>
       </c>
       <c r="D82">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E82">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>10</v>
       </c>
@@ -2794,10 +3394,13 @@
         <v>0.125</v>
       </c>
       <c r="D83">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>11</v>
       </c>
@@ -2808,10 +3411,13 @@
         <v>0.125</v>
       </c>
       <c r="D84">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E84">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12</v>
       </c>
@@ -2822,10 +3428,13 @@
         <v>0.125</v>
       </c>
       <c r="D85">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2836,10 +3445,13 @@
         <v>0.125</v>
       </c>
       <c r="D86">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E86">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2850,10 +3462,13 @@
         <v>0.125</v>
       </c>
       <c r="D87">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E87">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2864,10 +3479,13 @@
         <v>0.125</v>
       </c>
       <c r="D88">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E88">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2878,10 +3496,13 @@
         <v>0.125</v>
       </c>
       <c r="D89">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2892,10 +3513,13 @@
         <v>0.125</v>
       </c>
       <c r="D90">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6</v>
       </c>
@@ -2906,10 +3530,13 @@
         <v>0.125</v>
       </c>
       <c r="D91">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>7</v>
       </c>
@@ -2920,10 +3547,13 @@
         <v>0.125</v>
       </c>
       <c r="D92">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E92">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8</v>
       </c>
@@ -2934,10 +3564,13 @@
         <v>0.125</v>
       </c>
       <c r="D93">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E93">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9</v>
       </c>
@@ -2948,10 +3581,13 @@
         <v>0.125</v>
       </c>
       <c r="D94">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E94">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>10</v>
       </c>
@@ -2962,10 +3598,13 @@
         <v>0.125</v>
       </c>
       <c r="D95">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E95">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>11</v>
       </c>
@@ -2976,10 +3615,13 @@
         <v>0.125</v>
       </c>
       <c r="D96">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E96">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12</v>
       </c>
@@ -2990,10 +3632,13 @@
         <v>0.125</v>
       </c>
       <c r="D97">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3004,10 +3649,13 @@
         <v>0.125</v>
       </c>
       <c r="D98">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E98">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3018,10 +3666,13 @@
         <v>0.125</v>
       </c>
       <c r="D99">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E99">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3032,10 +3683,13 @@
         <v>0.125</v>
       </c>
       <c r="D100">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3046,10 +3700,13 @@
         <v>0.125</v>
       </c>
       <c r="D101">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E101">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -3060,10 +3717,13 @@
         <v>0.125</v>
       </c>
       <c r="D102">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E102">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>6</v>
       </c>
@@ -3074,10 +3734,13 @@
         <v>0.125</v>
       </c>
       <c r="D103">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E103">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>7</v>
       </c>
@@ -3088,10 +3751,13 @@
         <v>0.125</v>
       </c>
       <c r="D104">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E104">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>8</v>
       </c>
@@ -3102,10 +3768,13 @@
         <v>0.125</v>
       </c>
       <c r="D105">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E105">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9</v>
       </c>
@@ -3116,10 +3785,13 @@
         <v>0.125</v>
       </c>
       <c r="D106">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E106">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10</v>
       </c>
@@ -3130,10 +3802,13 @@
         <v>0.125</v>
       </c>
       <c r="D107">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E107">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -3144,10 +3819,13 @@
         <v>0.125</v>
       </c>
       <c r="D108">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E108">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12</v>
       </c>
@@ -3158,10 +3836,13 @@
         <v>0.125</v>
       </c>
       <c r="D109">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E109">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3172,10 +3853,13 @@
         <v>0.125</v>
       </c>
       <c r="D110">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E110">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3186,10 +3870,13 @@
         <v>0.125</v>
       </c>
       <c r="D111">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E111">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3200,10 +3887,13 @@
         <v>0.125</v>
       </c>
       <c r="D112">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E112">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3214,10 +3904,13 @@
         <v>0.125</v>
       </c>
       <c r="D113">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E113">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3228,10 +3921,13 @@
         <v>0.125</v>
       </c>
       <c r="D114">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E114">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>6</v>
       </c>
@@ -3242,10 +3938,13 @@
         <v>0.125</v>
       </c>
       <c r="D115">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E115">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>7</v>
       </c>
@@ -3256,10 +3955,13 @@
         <v>0.125</v>
       </c>
       <c r="D116">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E116">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3270,10 +3972,13 @@
         <v>0.125</v>
       </c>
       <c r="D117">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9</v>
       </c>
@@ -3284,10 +3989,13 @@
         <v>0.125</v>
       </c>
       <c r="D118">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E118">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10</v>
       </c>
@@ -3298,10 +4006,13 @@
         <v>0.125</v>
       </c>
       <c r="D119">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E119">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11</v>
       </c>
@@ -3312,10 +4023,13 @@
         <v>0.125</v>
       </c>
       <c r="D120">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E120">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -3326,10 +4040,13 @@
         <v>0.125</v>
       </c>
       <c r="D121">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E121">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3340,10 +4057,13 @@
         <v>0.125</v>
       </c>
       <c r="D122">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E122">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -3354,10 +4074,13 @@
         <v>0.125</v>
       </c>
       <c r="D123">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E123">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3368,10 +4091,13 @@
         <v>0.125</v>
       </c>
       <c r="D124">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E124">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -3382,10 +4108,13 @@
         <v>0.125</v>
       </c>
       <c r="D125">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3396,10 +4125,13 @@
         <v>0.125</v>
       </c>
       <c r="D126">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E126">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -3410,10 +4142,13 @@
         <v>0.125</v>
       </c>
       <c r="D127">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E127">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7</v>
       </c>
@@ -3424,10 +4159,13 @@
         <v>0.125</v>
       </c>
       <c r="D128">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E128">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8</v>
       </c>
@@ -3438,10 +4176,13 @@
         <v>0.125</v>
       </c>
       <c r="D129">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E129">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9</v>
       </c>
@@ -3452,10 +4193,13 @@
         <v>0.125</v>
       </c>
       <c r="D130">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E130">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>10</v>
       </c>
@@ -3466,10 +4210,13 @@
         <v>0.125</v>
       </c>
       <c r="D131">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E131">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>11</v>
       </c>
@@ -3480,10 +4227,13 @@
         <v>0.125</v>
       </c>
       <c r="D132">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E132">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>12</v>
       </c>
@@ -3494,10 +4244,13 @@
         <v>0.125</v>
       </c>
       <c r="D133">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E133">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3508,10 +4261,13 @@
         <v>0.125</v>
       </c>
       <c r="D134">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E134">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -3522,10 +4278,13 @@
         <v>0.125</v>
       </c>
       <c r="D135">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E135">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3</v>
       </c>
@@ -3536,10 +4295,13 @@
         <v>0.125</v>
       </c>
       <c r="D136">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E136">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -3550,10 +4312,13 @@
         <v>0.125</v>
       </c>
       <c r="D137">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E137">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5</v>
       </c>
@@ -3564,10 +4329,13 @@
         <v>0.125</v>
       </c>
       <c r="D138">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E138">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3578,10 +4346,13 @@
         <v>0.125</v>
       </c>
       <c r="D139">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E139">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>7</v>
       </c>
@@ -3592,10 +4363,13 @@
         <v>0.125</v>
       </c>
       <c r="D140">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E140">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>8</v>
       </c>
@@ -3606,10 +4380,13 @@
         <v>0.125</v>
       </c>
       <c r="D141">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E141">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>9</v>
       </c>
@@ -3620,10 +4397,13 @@
         <v>0.125</v>
       </c>
       <c r="D142">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E142">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10</v>
       </c>
@@ -3634,10 +4414,13 @@
         <v>0.125</v>
       </c>
       <c r="D143">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E143">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>11</v>
       </c>
@@ -3648,10 +4431,13 @@
         <v>0.125</v>
       </c>
       <c r="D144">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E144">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>12</v>
       </c>
@@ -3662,10 +4448,13 @@
         <v>0.125</v>
       </c>
       <c r="D145">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E145">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3676,10 +4465,13 @@
         <v>0.125</v>
       </c>
       <c r="D146">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E146">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -3690,10 +4482,13 @@
         <v>0.125</v>
       </c>
       <c r="D147">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E147">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3704,10 +4499,13 @@
         <v>0.125</v>
       </c>
       <c r="D148">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E148">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3718,10 +4516,13 @@
         <v>0.125</v>
       </c>
       <c r="D149">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E149">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -3732,10 +4533,13 @@
         <v>0.125</v>
       </c>
       <c r="D150">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E150">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3746,10 +4550,13 @@
         <v>0.125</v>
       </c>
       <c r="D151">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E151">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3760,10 +4567,13 @@
         <v>0.125</v>
       </c>
       <c r="D152">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E152">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>8</v>
       </c>
@@ -3774,10 +4584,13 @@
         <v>0.125</v>
       </c>
       <c r="D153">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E153">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9</v>
       </c>
@@ -3788,10 +4601,13 @@
         <v>0.125</v>
       </c>
       <c r="D154">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E154">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10</v>
       </c>
@@ -3802,10 +4618,13 @@
         <v>0.125</v>
       </c>
       <c r="D155">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E155">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11</v>
       </c>
@@ -3816,10 +4635,13 @@
         <v>0.125</v>
       </c>
       <c r="D156">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E156">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>12</v>
       </c>
@@ -3830,10 +4652,13 @@
         <v>0.125</v>
       </c>
       <c r="D157">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E157">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3844,10 +4669,13 @@
         <v>0.125</v>
       </c>
       <c r="D158">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E158">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2</v>
       </c>
@@ -3858,10 +4686,13 @@
         <v>0.125</v>
       </c>
       <c r="D159">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E159">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3</v>
       </c>
@@ -3872,10 +4703,13 @@
         <v>0.125</v>
       </c>
       <c r="D160">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E160">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4</v>
       </c>
@@ -3886,10 +4720,13 @@
         <v>0.125</v>
       </c>
       <c r="D161">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E161">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5</v>
       </c>
@@ -3900,10 +4737,13 @@
         <v>0.125</v>
       </c>
       <c r="D162">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E162">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6</v>
       </c>
@@ -3914,10 +4754,13 @@
         <v>0.125</v>
       </c>
       <c r="D163">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E163">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -3928,10 +4771,13 @@
         <v>0.125</v>
       </c>
       <c r="D164">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E164">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8</v>
       </c>
@@ -3942,10 +4788,13 @@
         <v>0.125</v>
       </c>
       <c r="D165">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E165">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9</v>
       </c>
@@ -3956,10 +4805,13 @@
         <v>0.125</v>
       </c>
       <c r="D166">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E166">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>10</v>
       </c>
@@ -3970,10 +4822,13 @@
         <v>0.125</v>
       </c>
       <c r="D167">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E167">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>11</v>
       </c>
@@ -3984,10 +4839,13 @@
         <v>0.125</v>
       </c>
       <c r="D168">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E168">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>12</v>
       </c>
@@ -3998,10 +4856,13 @@
         <v>0.125</v>
       </c>
       <c r="D169">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E169">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4012,10 +4873,13 @@
         <v>0.125</v>
       </c>
       <c r="D170">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E170">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2</v>
       </c>
@@ -4026,10 +4890,13 @@
         <v>0.125</v>
       </c>
       <c r="D171">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E171">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3</v>
       </c>
@@ -4040,10 +4907,13 @@
         <v>0.125</v>
       </c>
       <c r="D172">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E172">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -4054,10 +4924,13 @@
         <v>0.125</v>
       </c>
       <c r="D173">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E173">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5</v>
       </c>
@@ -4068,10 +4941,13 @@
         <v>0.125</v>
       </c>
       <c r="D174">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E174">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -4082,10 +4958,13 @@
         <v>0.125</v>
       </c>
       <c r="D175">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E175">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7</v>
       </c>
@@ -4096,10 +4975,13 @@
         <v>0.125</v>
       </c>
       <c r="D176">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E176">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -4110,10 +4992,13 @@
         <v>0.125</v>
       </c>
       <c r="D177">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E177">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9</v>
       </c>
@@ -4124,10 +5009,13 @@
         <v>0.125</v>
       </c>
       <c r="D178">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E178">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>10</v>
       </c>
@@ -4138,10 +5026,13 @@
         <v>0.125</v>
       </c>
       <c r="D179">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E179">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>11</v>
       </c>
@@ -4152,10 +5043,13 @@
         <v>0.125</v>
       </c>
       <c r="D180">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E180">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>12</v>
       </c>
@@ -4166,10 +5060,13 @@
         <v>0.125</v>
       </c>
       <c r="D181">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E181">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4180,10 +5077,13 @@
         <v>0.125</v>
       </c>
       <c r="D182">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E182">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2</v>
       </c>
@@ -4194,10 +5094,13 @@
         <v>0.125</v>
       </c>
       <c r="D183">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E183">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3</v>
       </c>
@@ -4208,10 +5111,13 @@
         <v>0.125</v>
       </c>
       <c r="D184">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E184">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>4</v>
       </c>
@@ -4222,10 +5128,13 @@
         <v>0.125</v>
       </c>
       <c r="D185">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E185">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5</v>
       </c>
@@ -4236,10 +5145,13 @@
         <v>0.125</v>
       </c>
       <c r="D186">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E186">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -4250,10 +5162,13 @@
         <v>0.125</v>
       </c>
       <c r="D187">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E187">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>7</v>
       </c>
@@ -4264,10 +5179,13 @@
         <v>0.125</v>
       </c>
       <c r="D188">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E188">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4278,10 +5196,13 @@
         <v>0.125</v>
       </c>
       <c r="D189">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E189">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9</v>
       </c>
@@ -4292,10 +5213,13 @@
         <v>0.125</v>
       </c>
       <c r="D190">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E190">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>10</v>
       </c>
@@ -4306,10 +5230,13 @@
         <v>0.125</v>
       </c>
       <c r="D191">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E191">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>11</v>
       </c>
@@ -4320,10 +5247,13 @@
         <v>0.125</v>
       </c>
       <c r="D192">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E192">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>12</v>
       </c>
@@ -4334,10 +5264,13 @@
         <v>0.125</v>
       </c>
       <c r="D193">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E193">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4348,10 +5281,13 @@
         <v>0.125</v>
       </c>
       <c r="D194">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E194">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2</v>
       </c>
@@ -4362,10 +5298,13 @@
         <v>0.125</v>
       </c>
       <c r="D195">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E195">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3</v>
       </c>
@@ -4376,10 +5315,13 @@
         <v>0.125</v>
       </c>
       <c r="D196">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4</v>
       </c>
@@ -4390,10 +5332,13 @@
         <v>0.125</v>
       </c>
       <c r="D197">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E197">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5</v>
       </c>
@@ -4404,10 +5349,13 @@
         <v>0.125</v>
       </c>
       <c r="D198">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E198">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>6</v>
       </c>
@@ -4418,10 +5366,13 @@
         <v>0.125</v>
       </c>
       <c r="D199">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E199">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>7</v>
       </c>
@@ -4432,10 +5383,13 @@
         <v>0.125</v>
       </c>
       <c r="D200">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E200">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4446,10 +5400,13 @@
         <v>0.125</v>
       </c>
       <c r="D201">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E201">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9</v>
       </c>
@@ -4460,10 +5417,13 @@
         <v>0.125</v>
       </c>
       <c r="D202">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E202">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>10</v>
       </c>
@@ -4474,10 +5434,13 @@
         <v>0.125</v>
       </c>
       <c r="D203">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E203">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>11</v>
       </c>
@@ -4488,10 +5451,13 @@
         <v>0.125</v>
       </c>
       <c r="D204">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E204">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>12</v>
       </c>
@@ -4502,10 +5468,13 @@
         <v>0.125</v>
       </c>
       <c r="D205">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E205">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -4516,10 +5485,13 @@
         <v>0.125</v>
       </c>
       <c r="D206">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E206">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2</v>
       </c>
@@ -4530,10 +5502,13 @@
         <v>0.125</v>
       </c>
       <c r="D207">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E207">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3</v>
       </c>
@@ -4544,10 +5519,13 @@
         <v>0.125</v>
       </c>
       <c r="D208">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E208">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -4558,10 +5536,13 @@
         <v>0.125</v>
       </c>
       <c r="D209">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E209">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>5</v>
       </c>
@@ -4572,10 +5553,13 @@
         <v>0.125</v>
       </c>
       <c r="D210">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E210">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>6</v>
       </c>
@@ -4586,10 +5570,13 @@
         <v>0.125</v>
       </c>
       <c r="D211">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E211">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>7</v>
       </c>
@@ -4600,10 +5587,13 @@
         <v>0.125</v>
       </c>
       <c r="D212">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E212">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8</v>
       </c>
@@ -4614,10 +5604,13 @@
         <v>0.125</v>
       </c>
       <c r="D213">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E213">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>9</v>
       </c>
@@ -4628,10 +5621,13 @@
         <v>0.125</v>
       </c>
       <c r="D214">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E214">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>10</v>
       </c>
@@ -4642,10 +5638,13 @@
         <v>0.125</v>
       </c>
       <c r="D215">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E215">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11</v>
       </c>
@@ -4656,10 +5655,13 @@
         <v>0.125</v>
       </c>
       <c r="D216">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E216">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12</v>
       </c>
@@ -4670,10 +5672,13 @@
         <v>0.125</v>
       </c>
       <c r="D217">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E217">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -4684,10 +5689,13 @@
         <v>0.125</v>
       </c>
       <c r="D218">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E218">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2</v>
       </c>
@@ -4698,10 +5706,13 @@
         <v>0.125</v>
       </c>
       <c r="D219">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E219">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3</v>
       </c>
@@ -4712,10 +5723,13 @@
         <v>0.125</v>
       </c>
       <c r="D220">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E220">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -4726,10 +5740,13 @@
         <v>0.125</v>
       </c>
       <c r="D221">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E221">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>5</v>
       </c>
@@ -4740,10 +5757,13 @@
         <v>0.125</v>
       </c>
       <c r="D222">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E222">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -4754,10 +5774,13 @@
         <v>0.125</v>
       </c>
       <c r="D223">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E223">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>7</v>
       </c>
@@ -4768,10 +5791,13 @@
         <v>0.125</v>
       </c>
       <c r="D224">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E224">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>8</v>
       </c>
@@ -4782,10 +5808,13 @@
         <v>0.125</v>
       </c>
       <c r="D225">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E225">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>9</v>
       </c>
@@ -4796,10 +5825,13 @@
         <v>0.125</v>
       </c>
       <c r="D226">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E226">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>10</v>
       </c>
@@ -4810,10 +5842,13 @@
         <v>0.125</v>
       </c>
       <c r="D227">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E227">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>11</v>
       </c>
@@ -4824,10 +5859,13 @@
         <v>0.125</v>
       </c>
       <c r="D228">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E228">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>12</v>
       </c>
@@ -4838,10 +5876,13 @@
         <v>0.125</v>
       </c>
       <c r="D229">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E229">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -4852,10 +5893,13 @@
         <v>0.125</v>
       </c>
       <c r="D230">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E230">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2</v>
       </c>
@@ -4866,10 +5910,13 @@
         <v>0.125</v>
       </c>
       <c r="D231">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E231">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -4880,10 +5927,13 @@
         <v>0.125</v>
       </c>
       <c r="D232">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E232">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4</v>
       </c>
@@ -4894,10 +5944,13 @@
         <v>0.125</v>
       </c>
       <c r="D233">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E233">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>5</v>
       </c>
@@ -4908,10 +5961,13 @@
         <v>0.125</v>
       </c>
       <c r="D234">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E234">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>6</v>
       </c>
@@ -4922,10 +5978,13 @@
         <v>0.125</v>
       </c>
       <c r="D235">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E235">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>7</v>
       </c>
@@ -4936,10 +5995,13 @@
         <v>0.125</v>
       </c>
       <c r="D236">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E236">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -4950,10 +6012,13 @@
         <v>0.125</v>
       </c>
       <c r="D237">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E237">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>9</v>
       </c>
@@ -4964,10 +6029,13 @@
         <v>0.125</v>
       </c>
       <c r="D238">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E238">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>10</v>
       </c>
@@ -4978,10 +6046,13 @@
         <v>0.125</v>
       </c>
       <c r="D239">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E239">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11</v>
       </c>
@@ -4992,10 +6063,13 @@
         <v>0.125</v>
       </c>
       <c r="D240">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E240">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>12</v>
       </c>
@@ -5006,10 +6080,13 @@
         <v>0.125</v>
       </c>
       <c r="D241">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E241">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5020,10 +6097,13 @@
         <v>0.125</v>
       </c>
       <c r="D242">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E242">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2</v>
       </c>
@@ -5034,10 +6114,13 @@
         <v>0.125</v>
       </c>
       <c r="D243">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E243">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3</v>
       </c>
@@ -5048,10 +6131,13 @@
         <v>0.125</v>
       </c>
       <c r="D244">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E244">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>4</v>
       </c>
@@ -5062,10 +6148,13 @@
         <v>0.125</v>
       </c>
       <c r="D245">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E245">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>5</v>
       </c>
@@ -5076,10 +6165,13 @@
         <v>0.125</v>
       </c>
       <c r="D246">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E246">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>6</v>
       </c>
@@ -5090,10 +6182,13 @@
         <v>0.125</v>
       </c>
       <c r="D247">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E247">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>7</v>
       </c>
@@ -5104,10 +6199,13 @@
         <v>0.125</v>
       </c>
       <c r="D248">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E248">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8</v>
       </c>
@@ -5118,10 +6216,13 @@
         <v>0.125</v>
       </c>
       <c r="D249">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E249">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>9</v>
       </c>
@@ -5132,10 +6233,13 @@
         <v>0.125</v>
       </c>
       <c r="D250">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E250">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>10</v>
       </c>
@@ -5146,10 +6250,13 @@
         <v>0.125</v>
       </c>
       <c r="D251">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E251">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>11</v>
       </c>
@@ -5160,10 +6267,13 @@
         <v>0.125</v>
       </c>
       <c r="D252">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E252">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>12</v>
       </c>
@@ -5174,10 +6284,13 @@
         <v>0.125</v>
       </c>
       <c r="D253">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E253">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -5188,10 +6301,13 @@
         <v>0.125</v>
       </c>
       <c r="D254">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E254">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2</v>
       </c>
@@ -5202,10 +6318,13 @@
         <v>0.125</v>
       </c>
       <c r="D255">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E255">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3</v>
       </c>
@@ -5216,10 +6335,13 @@
         <v>0.125</v>
       </c>
       <c r="D256">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E256">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>4</v>
       </c>
@@ -5230,10 +6352,13 @@
         <v>0.125</v>
       </c>
       <c r="D257">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E257">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>5</v>
       </c>
@@ -5244,10 +6369,13 @@
         <v>0.125</v>
       </c>
       <c r="D258">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E258">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6</v>
       </c>
@@ -5258,10 +6386,13 @@
         <v>0.125</v>
       </c>
       <c r="D259">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E259">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>7</v>
       </c>
@@ -5272,10 +6403,13 @@
         <v>0.125</v>
       </c>
       <c r="D260">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E260">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8</v>
       </c>
@@ -5286,10 +6420,13 @@
         <v>0.125</v>
       </c>
       <c r="D261">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E261">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>9</v>
       </c>
@@ -5300,10 +6437,13 @@
         <v>0.125</v>
       </c>
       <c r="D262">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E262">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>10</v>
       </c>
@@ -5314,10 +6454,13 @@
         <v>0.125</v>
       </c>
       <c r="D263">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E263">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>11</v>
       </c>
@@ -5328,10 +6471,13 @@
         <v>0.125</v>
       </c>
       <c r="D264">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E264">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>12</v>
       </c>
@@ -5342,10 +6488,13 @@
         <v>0.125</v>
       </c>
       <c r="D265">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E265">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -5356,10 +6505,13 @@
         <v>0.125</v>
       </c>
       <c r="D266">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E266">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2</v>
       </c>
@@ -5370,10 +6522,13 @@
         <v>0.125</v>
       </c>
       <c r="D267">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E267">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3</v>
       </c>
@@ -5384,10 +6539,13 @@
         <v>0.125</v>
       </c>
       <c r="D268">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E268">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4</v>
       </c>
@@ -5398,10 +6556,13 @@
         <v>0.125</v>
       </c>
       <c r="D269">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E269">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>5</v>
       </c>
@@ -5412,10 +6573,13 @@
         <v>0.125</v>
       </c>
       <c r="D270">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E270">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>6</v>
       </c>
@@ -5426,10 +6590,13 @@
         <v>0.125</v>
       </c>
       <c r="D271">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E271">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>7</v>
       </c>
@@ -5440,10 +6607,13 @@
         <v>0.125</v>
       </c>
       <c r="D272">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E272">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -5454,10 +6624,13 @@
         <v>0.125</v>
       </c>
       <c r="D273">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E273">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>9</v>
       </c>
@@ -5468,10 +6641,13 @@
         <v>0.125</v>
       </c>
       <c r="D274">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E274">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>10</v>
       </c>
@@ -5482,10 +6658,13 @@
         <v>0.125</v>
       </c>
       <c r="D275">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E275">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>11</v>
       </c>
@@ -5496,10 +6675,13 @@
         <v>0.125</v>
       </c>
       <c r="D276">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E276">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>12</v>
       </c>
@@ -5510,10 +6692,13 @@
         <v>0.125</v>
       </c>
       <c r="D277">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E277">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -5524,10 +6709,13 @@
         <v>0.125</v>
       </c>
       <c r="D278">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E278">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2</v>
       </c>
@@ -5538,10 +6726,13 @@
         <v>0.125</v>
       </c>
       <c r="D279">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E279">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3</v>
       </c>
@@ -5552,10 +6743,13 @@
         <v>0.125</v>
       </c>
       <c r="D280">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E280">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>4</v>
       </c>
@@ -5566,10 +6760,13 @@
         <v>0.125</v>
       </c>
       <c r="D281">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E281">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>5</v>
       </c>
@@ -5580,10 +6777,13 @@
         <v>0.125</v>
       </c>
       <c r="D282">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E282">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6</v>
       </c>
@@ -5594,10 +6794,13 @@
         <v>0.125</v>
       </c>
       <c r="D283">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E283">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>7</v>
       </c>
@@ -5608,10 +6811,13 @@
         <v>0.125</v>
       </c>
       <c r="D284">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E284">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8</v>
       </c>
@@ -5622,10 +6828,13 @@
         <v>0.125</v>
       </c>
       <c r="D285">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E285">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>9</v>
       </c>
@@ -5636,10 +6845,13 @@
         <v>0.125</v>
       </c>
       <c r="D286">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E286">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>10</v>
       </c>
@@ -5650,10 +6862,13 @@
         <v>0.125</v>
       </c>
       <c r="D287">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E287">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>11</v>
       </c>
@@ -5664,10 +6879,13 @@
         <v>0.125</v>
       </c>
       <c r="D288">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E288">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>12</v>
       </c>
@@ -5678,10 +6896,13 @@
         <v>0.125</v>
       </c>
       <c r="D289">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E289">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -5692,10 +6913,13 @@
         <v>0.125</v>
       </c>
       <c r="D290">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E290">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2</v>
       </c>
@@ -5706,10 +6930,13 @@
         <v>0.125</v>
       </c>
       <c r="D291">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E291">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3</v>
       </c>
@@ -5720,10 +6947,13 @@
         <v>0.125</v>
       </c>
       <c r="D292">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E292">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>4</v>
       </c>
@@ -5734,10 +6964,13 @@
         <v>0.125</v>
       </c>
       <c r="D293">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E293">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>5</v>
       </c>
@@ -5748,10 +6981,13 @@
         <v>0.125</v>
       </c>
       <c r="D294">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E294">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>6</v>
       </c>
@@ -5762,10 +6998,13 @@
         <v>0.125</v>
       </c>
       <c r="D295">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E295">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>7</v>
       </c>
@@ -5776,10 +7015,13 @@
         <v>0.125</v>
       </c>
       <c r="D296">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E296">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>8</v>
       </c>
@@ -5790,10 +7032,13 @@
         <v>0.125</v>
       </c>
       <c r="D297">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E297">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>9</v>
       </c>
@@ -5804,10 +7049,13 @@
         <v>0.125</v>
       </c>
       <c r="D298">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E298">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>10</v>
       </c>
@@ -5818,10 +7066,13 @@
         <v>0.125</v>
       </c>
       <c r="D299">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E299">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>11</v>
       </c>
@@ -5832,10 +7083,13 @@
         <v>0.125</v>
       </c>
       <c r="D300">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E300">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>12</v>
       </c>
@@ -5846,10 +7100,13 @@
         <v>0.125</v>
       </c>
       <c r="D301">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E301">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -5860,10 +7117,13 @@
         <v>0.125</v>
       </c>
       <c r="D302">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E302">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2</v>
       </c>
@@ -5874,10 +7134,13 @@
         <v>0.125</v>
       </c>
       <c r="D303">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E303">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3</v>
       </c>
@@ -5888,10 +7151,13 @@
         <v>0.125</v>
       </c>
       <c r="D304">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E304">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>4</v>
       </c>
@@ -5902,10 +7168,13 @@
         <v>0.125</v>
       </c>
       <c r="D305">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E305">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>5</v>
       </c>
@@ -5916,10 +7185,13 @@
         <v>0.125</v>
       </c>
       <c r="D306">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E306">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6</v>
       </c>
@@ -5930,10 +7202,13 @@
         <v>0.125</v>
       </c>
       <c r="D307">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E307">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>7</v>
       </c>
@@ -5944,10 +7219,13 @@
         <v>0.125</v>
       </c>
       <c r="D308">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E308">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>8</v>
       </c>
@@ -5958,10 +7236,13 @@
         <v>0.125</v>
       </c>
       <c r="D309">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E309">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>9</v>
       </c>
@@ -5972,10 +7253,13 @@
         <v>0.125</v>
       </c>
       <c r="D310">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E310">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>10</v>
       </c>
@@ -5986,10 +7270,13 @@
         <v>0.125</v>
       </c>
       <c r="D311">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E311">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>11</v>
       </c>
@@ -6000,10 +7287,13 @@
         <v>0.125</v>
       </c>
       <c r="D312">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E312">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>12</v>
       </c>
@@ -6014,10 +7304,13 @@
         <v>0.125</v>
       </c>
       <c r="D313">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E313">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -6028,10 +7321,13 @@
         <v>0.125</v>
       </c>
       <c r="D314">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E314">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2</v>
       </c>
@@ -6042,10 +7338,13 @@
         <v>0.125</v>
       </c>
       <c r="D315">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E315">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3</v>
       </c>
@@ -6056,10 +7355,13 @@
         <v>0.125</v>
       </c>
       <c r="D316">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E316">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>4</v>
       </c>
@@ -6070,10 +7372,13 @@
         <v>0.125</v>
       </c>
       <c r="D317">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E317">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5</v>
       </c>
@@ -6084,10 +7389,13 @@
         <v>0.125</v>
       </c>
       <c r="D318">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E318">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>6</v>
       </c>
@@ -6098,10 +7406,13 @@
         <v>0.125</v>
       </c>
       <c r="D319">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E319">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>7</v>
       </c>
@@ -6112,10 +7423,13 @@
         <v>0.125</v>
       </c>
       <c r="D320">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E320">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>8</v>
       </c>
@@ -6126,10 +7440,13 @@
         <v>0.125</v>
       </c>
       <c r="D321">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E321">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>9</v>
       </c>
@@ -6140,10 +7457,13 @@
         <v>0.125</v>
       </c>
       <c r="D322">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E322">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>10</v>
       </c>
@@ -6154,10 +7474,13 @@
         <v>0.125</v>
       </c>
       <c r="D323">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E323">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>11</v>
       </c>
@@ -6168,10 +7491,13 @@
         <v>0.125</v>
       </c>
       <c r="D324">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E324">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>12</v>
       </c>
@@ -6182,7 +7508,10 @@
         <v>0.125</v>
       </c>
       <c r="D325">
-        <v>0.25</v>
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E325">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -6194,8 +7523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6319,19 +7648,19 @@
         <v>5</v>
       </c>
       <c r="P2" s="7">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="7">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="R2" s="7">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="S2" s="7">
         <v>0.2</v>
       </c>
       <c r="T2" s="7">
-        <v>20000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -6339,13 +7668,13 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>100000</v>
+        <v>18800</v>
       </c>
       <c r="C3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7">
         <v>0.25</v>
@@ -6354,16 +7683,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0.37409999999999999</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="J3" s="7">
-        <v>0.38879999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="K3" s="7">
         <v>0.8</v>
@@ -6372,7 +7701,7 @@
         <v>0.8</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N3" s="7">
         <v>5</v>
@@ -6381,24 +7710,81 @@
         <v>5</v>
       </c>
       <c r="P3" s="7">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="Q3" s="7">
-        <v>25</v>
+        <v>10000</v>
       </c>
       <c r="R3" s="7">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="S3" s="7">
         <v>0.2</v>
       </c>
       <c r="T3" s="7">
-        <v>10000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>210000</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>24000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="7">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
+      <c r="P4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="7">
+        <v>25000</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -6454,7 +7840,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6469,7 +7855,9 @@
       <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6482,6 +7870,9 @@
       <c r="C2">
         <v>0.02</v>
       </c>
+      <c r="D2">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -6493,6 +7884,9 @@
       <c r="C3" s="2">
         <v>2.2200000000000001E-2</v>
       </c>
+      <c r="D3" s="2">
+        <v>2.2200000000000001E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -6504,6 +7898,9 @@
       <c r="C4" s="2">
         <v>2.4400000000000002E-2</v>
       </c>
+      <c r="D4" s="2">
+        <v>2.4400000000000002E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6515,6 +7912,9 @@
       <c r="C5" s="2">
         <v>2.6599999999999999E-2</v>
       </c>
+      <c r="D5" s="2">
+        <v>2.6599999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -6526,6 +7926,9 @@
       <c r="C6" s="2">
         <v>2.8799999999999999E-2</v>
       </c>
+      <c r="D6" s="2">
+        <v>2.8799999999999999E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -6537,6 +7940,9 @@
       <c r="C7" s="2">
         <v>3.1E-2</v>
       </c>
+      <c r="D7" s="2">
+        <v>3.1E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -6548,6 +7954,9 @@
       <c r="C8" s="2">
         <v>3.32E-2</v>
       </c>
+      <c r="D8" s="2">
+        <v>3.32E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -6559,6 +7968,9 @@
       <c r="C9" s="2">
         <v>3.5400000000000001E-2</v>
       </c>
+      <c r="D9" s="2">
+        <v>3.5400000000000001E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -6570,6 +7982,9 @@
       <c r="C10" s="2">
         <v>3.7600000000000001E-2</v>
       </c>
+      <c r="D10" s="2">
+        <v>3.7600000000000001E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -6581,6 +7996,9 @@
       <c r="C11" s="2">
         <v>3.9800000000000002E-2</v>
       </c>
+      <c r="D11" s="2">
+        <v>3.9800000000000002E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -6592,6 +8010,9 @@
       <c r="C12" s="2">
         <v>3.9800000000000002E-2</v>
       </c>
+      <c r="D12" s="2">
+        <v>3.9800000000000002E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -6603,6 +8024,9 @@
       <c r="C13" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="D13" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -6614,6 +8038,9 @@
       <c r="C14" s="2">
         <v>4.4200000000000003E-2</v>
       </c>
+      <c r="D14" s="2">
+        <v>4.4200000000000003E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -6625,6 +8052,9 @@
       <c r="C15" s="2">
         <v>4.6399999999999997E-2</v>
       </c>
+      <c r="D15" s="2">
+        <v>4.6399999999999997E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -6636,8 +8066,11 @@
       <c r="C16" s="2">
         <v>4.8599999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -6647,8 +8080,11 @@
       <c r="C17" s="2">
         <v>5.0799999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -6658,8 +8094,11 @@
       <c r="C18" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -6669,8 +8108,11 @@
       <c r="C19" s="2">
         <v>5.5199999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -6680,8 +8122,11 @@
       <c r="C20" s="2">
         <v>5.74E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2">
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -6691,8 +8136,11 @@
       <c r="C21" s="2">
         <v>5.96E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -6702,8 +8150,11 @@
       <c r="C22" s="2">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <v>6.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -6713,8 +8164,11 @@
       <c r="C23" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -6724,8 +8178,11 @@
       <c r="C24" s="2">
         <v>6.6199999999999995E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -6735,8 +8192,11 @@
       <c r="C25" s="2">
         <v>6.8400000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -6746,8 +8206,11 @@
       <c r="C26" s="2">
         <v>7.0599999999999996E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -6757,8 +8220,11 @@
       <c r="C27" s="2">
         <v>7.2800000000000004E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -6766,6 +8232,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D28">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -6779,7 +8248,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6794,7 +8263,9 @@
       <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6807,6 +8278,9 @@
       <c r="C2">
         <v>26229.707720000002</v>
       </c>
+      <c r="D2">
+        <v>26229.707720000002</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -6818,6 +8292,9 @@
       <c r="C3">
         <v>26589.174669999997</v>
       </c>
+      <c r="D3">
+        <v>26589.174669999997</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -6829,6 +8306,9 @@
       <c r="C4">
         <v>60431.69513</v>
       </c>
+      <c r="D4">
+        <v>60431.69513</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6840,6 +8320,9 @@
       <c r="C5">
         <v>95314.195130000007</v>
       </c>
+      <c r="D5">
+        <v>95314.195130000007</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -6851,6 +8334,9 @@
       <c r="C6">
         <v>130196.6951</v>
       </c>
+      <c r="D6">
+        <v>130196.6951</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -6862,6 +8348,9 @@
       <c r="C7">
         <v>165780.465</v>
       </c>
+      <c r="D7">
+        <v>165780.465</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -6873,6 +8362,9 @@
       <c r="C8">
         <v>179750.54879999999</v>
       </c>
+      <c r="D8">
+        <v>179750.54879999999</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -6884,6 +8376,9 @@
       <c r="C9">
         <v>195610.7611</v>
       </c>
+      <c r="D9">
+        <v>195610.7611</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -6895,6 +8390,9 @@
       <c r="C10">
         <v>196499.72339999999</v>
       </c>
+      <c r="D10">
+        <v>196499.72339999999</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -6906,6 +8404,9 @@
       <c r="C11">
         <v>198853.9976</v>
       </c>
+      <c r="D11">
+        <v>198853.9976</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -6917,6 +8418,9 @@
       <c r="C12">
         <v>202089.00579999998</v>
       </c>
+      <c r="D12">
+        <v>202089.00579999998</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -6928,6 +8432,9 @@
       <c r="C13">
         <v>164077.8836</v>
       </c>
+      <c r="D13">
+        <v>164077.8836</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -6939,6 +8446,9 @@
       <c r="C14">
         <v>126654.49769999999</v>
       </c>
+      <c r="D14">
+        <v>126654.49769999999</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -6950,6 +8460,9 @@
       <c r="C15">
         <v>90701.344779999999</v>
       </c>
+      <c r="D15">
+        <v>90701.344779999999</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -6961,8 +8474,11 @@
       <c r="C16">
         <v>57298.538379999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>57298.538379999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -6972,8 +8488,11 @@
       <c r="C17">
         <v>40938.322699999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>40938.322699999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -6983,8 +8502,11 @@
       <c r="C18">
         <v>30788.296410000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>30788.296410000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -6994,8 +8516,11 @@
       <c r="C19">
         <v>28368.054080000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>28368.054080000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -7005,8 +8530,11 @@
       <c r="C20">
         <v>31250.81408</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>31250.81408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -7016,8 +8544,11 @@
       <c r="C21">
         <v>34011.350160000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>34011.350160000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -7027,8 +8558,11 @@
       <c r="C22">
         <v>35066.675019999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>35066.675019999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -7038,8 +8572,11 @@
       <c r="C23">
         <v>33453.543590000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>33453.543590000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -7049,8 +8586,11 @@
       <c r="C24">
         <v>25310.301890000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>25310.301890000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -7060,8 +8600,11 @@
       <c r="C25">
         <v>11877.08452</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>11877.08452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -7071,8 +8614,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -7082,8 +8628,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -7091,6 +8640,9 @@
         <v>0</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
@@ -7104,7 +8656,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7119,7 +8671,9 @@
       <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7129,8 +8683,11 @@
       <c r="B2" s="4">
         <v>93020</v>
       </c>
-      <c r="C2" s="4">
-        <v>30000</v>
+      <c r="C2">
+        <v>13333</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23666</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -7140,8 +8697,11 @@
       <c r="B3" s="4">
         <v>93020</v>
       </c>
-      <c r="C3" s="4">
-        <v>30000</v>
+      <c r="C3">
+        <v>13333</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23666</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -7151,8 +8711,11 @@
       <c r="B4" s="4">
         <v>93020</v>
       </c>
-      <c r="C4" s="4">
-        <v>30000</v>
+      <c r="C4">
+        <v>13333</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23666</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7162,8 +8725,11 @@
       <c r="B5" s="4">
         <v>93020</v>
       </c>
-      <c r="C5" s="4">
-        <v>30000</v>
+      <c r="C5">
+        <v>13333</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23666</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7173,8 +8739,11 @@
       <c r="B6" s="4">
         <v>93020</v>
       </c>
-      <c r="C6" s="4">
-        <v>30000</v>
+      <c r="C6">
+        <v>13333</v>
+      </c>
+      <c r="D6" s="2">
+        <v>23666</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7184,8 +8753,11 @@
       <c r="B7" s="4">
         <v>93020</v>
       </c>
-      <c r="C7" s="4">
-        <v>30000</v>
+      <c r="C7">
+        <v>13333</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23666</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -7195,8 +8767,11 @@
       <c r="B8" s="4">
         <v>93020</v>
       </c>
-      <c r="C8" s="4">
-        <v>30000</v>
+      <c r="C8">
+        <v>8900</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7206,8 +8781,11 @@
       <c r="B9" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C9" s="4">
-        <v>30000</v>
+      <c r="C9">
+        <v>8900</v>
+      </c>
+      <c r="D9" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7217,8 +8795,11 @@
       <c r="B10" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C10" s="4">
-        <v>30000</v>
+      <c r="C10">
+        <v>8900</v>
+      </c>
+      <c r="D10" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7228,8 +8809,11 @@
       <c r="B11" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C11" s="4">
-        <v>30000</v>
+      <c r="C11">
+        <v>8900</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -7239,8 +8823,11 @@
       <c r="B12" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C12" s="4">
-        <v>30000</v>
+      <c r="C12">
+        <v>8900</v>
+      </c>
+      <c r="D12" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -7250,8 +8837,11 @@
       <c r="B13" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C13" s="4">
-        <v>30000</v>
+      <c r="C13">
+        <v>8900</v>
+      </c>
+      <c r="D13" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7261,8 +8851,11 @@
       <c r="B14" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C14" s="4">
-        <v>30000</v>
+      <c r="C14">
+        <v>8900</v>
+      </c>
+      <c r="D14" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7272,8 +8865,11 @@
       <c r="B15" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C15" s="4">
-        <v>30000</v>
+      <c r="C15">
+        <v>8900</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28700</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -7283,140 +8879,179 @@
       <c r="B16" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C16" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>8900</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
       <c r="B17" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C17" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>8900</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
       <c r="B18" s="4">
         <v>61911.5</v>
       </c>
-      <c r="C18" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>2900</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
       <c r="B19" s="4">
         <v>57655.199999999997</v>
       </c>
-      <c r="C19" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>2900</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
       <c r="B20" s="4">
         <v>57655.199999999997</v>
       </c>
-      <c r="C20" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2900</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
       <c r="B21" s="4">
         <v>57655.199999999997</v>
       </c>
-      <c r="C21" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>2900</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
       <c r="B22" s="3">
         <v>57655.199999999997</v>
       </c>
-      <c r="C22" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2900</v>
+      </c>
+      <c r="D22" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
       <c r="B23" s="3">
         <v>57655.199999999997</v>
       </c>
-      <c r="C23" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>2900</v>
+      </c>
+      <c r="D23" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
       <c r="B24" s="3">
         <v>57655.199999999997</v>
       </c>
-      <c r="C24" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2900</v>
+      </c>
+      <c r="D24" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
       <c r="B25" s="3">
         <v>57655.199999999997</v>
       </c>
-      <c r="C25" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>2900</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
       <c r="B26" s="3">
         <v>57655.199999999997</v>
       </c>
-      <c r="C26" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>2900</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
       <c r="B27" s="3">
         <v>57655.199999999997</v>
       </c>
-      <c r="C27" s="4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>2900</v>
+      </c>
+      <c r="D27" s="2">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
       <c r="B28" s="3">
         <v>57655.199999999997</v>
       </c>
-      <c r="C28" s="4">
-        <v>30000</v>
+      <c r="C28">
+        <v>2900</v>
+      </c>
+      <c r="D28" s="2">
+        <v>19100</v>
       </c>
     </row>
   </sheetData>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614162DB-560C-43B5-A614-8041B0CFB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDF984-1904-4865-89C0-861161723B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="7" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185AF38-42FD-4CFF-B287-2FCFFF6C6EF3}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +747,11 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -814,10 +818,10 @@
         <v>2337972.5216000001</v>
       </c>
       <c r="H2">
-        <v>600000</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I2" s="7">
+        <v>11000</v>
       </c>
       <c r="J2">
         <v>1052044.8400000001</v>
@@ -826,10 +830,10 @@
         <v>1673707.7000000002</v>
       </c>
       <c r="L2">
-        <v>600000</v>
-      </c>
-      <c r="M2">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M2" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -855,10 +859,10 @@
         <v>2318026.381866667</v>
       </c>
       <c r="H3">
-        <v>600000</v>
-      </c>
-      <c r="I3">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I3" s="7">
+        <v>11000</v>
       </c>
       <c r="J3">
         <v>1042480.7960000001</v>
@@ -867,10 +871,10 @@
         <v>1660955.6413333334</v>
       </c>
       <c r="L3">
-        <v>600000</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M3" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -896,10 +900,10 @@
         <v>2298080.2421333333</v>
       </c>
       <c r="H4">
-        <v>600000</v>
-      </c>
-      <c r="I4">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11000</v>
       </c>
       <c r="J4">
         <v>1032916.7520000001</v>
@@ -908,10 +912,10 @@
         <v>1648203.5826666667</v>
       </c>
       <c r="L4">
-        <v>600000</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -937,10 +941,10 @@
         <v>2278134.1023999997</v>
       </c>
       <c r="H5">
-        <v>600000</v>
-      </c>
-      <c r="I5">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>11000</v>
       </c>
       <c r="J5">
         <v>1023352.708</v>
@@ -949,10 +953,10 @@
         <v>1635451.524</v>
       </c>
       <c r="L5">
-        <v>600000</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M5" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -978,10 +982,10 @@
         <v>2258187.9626666661</v>
       </c>
       <c r="H6">
-        <v>600000</v>
-      </c>
-      <c r="I6">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11000</v>
       </c>
       <c r="J6">
         <v>1013788.6639999999</v>
@@ -990,10 +994,10 @@
         <v>1622699.4653333335</v>
       </c>
       <c r="L6">
-        <v>600000</v>
-      </c>
-      <c r="M6">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1019,10 +1023,10 @@
         <v>2238241.8229333325</v>
       </c>
       <c r="H7">
-        <v>600000</v>
-      </c>
-      <c r="I7">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11000</v>
       </c>
       <c r="J7">
         <v>1004224.62</v>
@@ -1031,10 +1035,10 @@
         <v>1609947.4066666667</v>
       </c>
       <c r="L7">
-        <v>600000</v>
-      </c>
-      <c r="M7">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M7" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1060,10 +1064,10 @@
         <v>2218295.6831999999</v>
       </c>
       <c r="H8">
-        <v>600000</v>
-      </c>
-      <c r="I8">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11000</v>
       </c>
       <c r="J8">
         <v>994660.57600000012</v>
@@ -1072,10 +1076,10 @@
         <v>1597195.3480000002</v>
       </c>
       <c r="L8">
-        <v>600000</v>
-      </c>
-      <c r="M8">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M8" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1101,10 +1105,10 @@
         <v>2205259.4561600001</v>
       </c>
       <c r="H9">
-        <v>600000</v>
-      </c>
-      <c r="I9">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>11000</v>
       </c>
       <c r="J9">
         <v>992747.76720000012</v>
@@ -1113,10 +1117,10 @@
         <v>1594326.1348000003</v>
       </c>
       <c r="L9">
-        <v>600000</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M9" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1142,10 +1146,10 @@
         <v>2192223.2291199998</v>
       </c>
       <c r="H10">
-        <v>600000</v>
-      </c>
-      <c r="I10">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11000</v>
       </c>
       <c r="J10">
         <v>990834.9584</v>
@@ -1154,10 +1158,10 @@
         <v>1591456.9216000002</v>
       </c>
       <c r="L10">
-        <v>600000</v>
-      </c>
-      <c r="M10">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M10" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1183,10 +1187,10 @@
         <v>2179187.0020799995</v>
       </c>
       <c r="H11">
-        <v>600000</v>
-      </c>
-      <c r="I11">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11000</v>
       </c>
       <c r="J11">
         <v>988922.1496</v>
@@ -1195,10 +1199,10 @@
         <v>1588587.7084000004</v>
       </c>
       <c r="L11">
-        <v>600000</v>
-      </c>
-      <c r="M11">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M11" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1224,10 +1228,10 @@
         <v>2166150.7750399997</v>
       </c>
       <c r="H12">
-        <v>600000</v>
-      </c>
-      <c r="I12">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11000</v>
       </c>
       <c r="J12">
         <v>987009.34079999989</v>
@@ -1236,10 +1240,10 @@
         <v>1585718.4952000002</v>
       </c>
       <c r="L12">
-        <v>600000</v>
-      </c>
-      <c r="M12">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M12" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1265,10 +1269,10 @@
         <v>2153114.5479999995</v>
       </c>
       <c r="H13">
-        <v>600000</v>
-      </c>
-      <c r="I13">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11000</v>
       </c>
       <c r="J13">
         <v>985096.53199999989</v>
@@ -1277,10 +1281,10 @@
         <v>1582849.2820000004</v>
       </c>
       <c r="L13">
-        <v>600000</v>
-      </c>
-      <c r="M13">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M13" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1306,10 +1310,10 @@
         <v>2140078.3209599997</v>
       </c>
       <c r="H14">
-        <v>600000</v>
-      </c>
-      <c r="I14">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11000</v>
       </c>
       <c r="J14">
         <v>983183.72319999977</v>
@@ -1318,10 +1322,10 @@
         <v>1579980.0688000005</v>
       </c>
       <c r="L14">
-        <v>600000</v>
-      </c>
-      <c r="M14">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M14" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1347,10 +1351,10 @@
         <v>2127042.0939199994</v>
       </c>
       <c r="H15">
-        <v>600000</v>
-      </c>
-      <c r="I15">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I15" s="7">
+        <v>11000</v>
       </c>
       <c r="J15">
         <v>981270.91439999978</v>
@@ -1359,10 +1363,10 @@
         <v>1577110.8556000004</v>
       </c>
       <c r="L15">
-        <v>600000</v>
-      </c>
-      <c r="M15">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M15" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1388,10 +1392,10 @@
         <v>2114005.8668799992</v>
       </c>
       <c r="H16">
-        <v>600000</v>
-      </c>
-      <c r="I16">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11000</v>
       </c>
       <c r="J16">
         <v>979358.10559999966</v>
@@ -1400,10 +1404,10 @@
         <v>1574241.6424000005</v>
       </c>
       <c r="L16">
-        <v>600000</v>
-      </c>
-      <c r="M16">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1429,10 +1433,10 @@
         <v>2100969.6398399994</v>
       </c>
       <c r="H17">
-        <v>600000</v>
-      </c>
-      <c r="I17">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11000</v>
       </c>
       <c r="J17">
         <v>977445.29679999966</v>
@@ -1441,10 +1445,10 @@
         <v>1571372.4292000004</v>
       </c>
       <c r="L17">
-        <v>600000</v>
-      </c>
-      <c r="M17">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M17" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1470,10 +1474,10 @@
         <v>2087933.4128</v>
       </c>
       <c r="H18">
-        <v>600000</v>
-      </c>
-      <c r="I18">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>11000</v>
       </c>
       <c r="J18">
         <v>975532.48799999955</v>
@@ -1482,10 +1486,10 @@
         <v>1568503.2160000005</v>
       </c>
       <c r="L18">
-        <v>600000</v>
-      </c>
-      <c r="M18">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M18" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1511,10 +1515,10 @@
         <v>2076927.41784</v>
       </c>
       <c r="H19">
-        <v>600000</v>
-      </c>
-      <c r="I19">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I19" s="7">
+        <v>11000</v>
       </c>
       <c r="J19">
         <v>973619.67919999966</v>
@@ -1523,10 +1527,10 @@
         <v>1565634.0028000006</v>
       </c>
       <c r="L19">
-        <v>600000</v>
-      </c>
-      <c r="M19">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M19" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1552,10 +1556,10 @@
         <v>2065921.4228800002</v>
       </c>
       <c r="H20">
-        <v>600000</v>
-      </c>
-      <c r="I20">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11000</v>
       </c>
       <c r="J20">
         <v>971706.87039999955</v>
@@ -1564,10 +1568,10 @@
         <v>1562764.7896000005</v>
       </c>
       <c r="L20">
-        <v>600000</v>
-      </c>
-      <c r="M20">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M20" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1593,10 +1597,10 @@
         <v>2054915.4279200002</v>
       </c>
       <c r="H21">
-        <v>600000</v>
-      </c>
-      <c r="I21">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I21" s="7">
+        <v>11000</v>
       </c>
       <c r="J21">
         <v>969794.06159999955</v>
@@ -1605,10 +1609,10 @@
         <v>1559895.5764000006</v>
       </c>
       <c r="L21">
-        <v>600000</v>
-      </c>
-      <c r="M21">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M21" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1634,10 +1638,10 @@
         <v>2043909.4329600004</v>
       </c>
       <c r="H22">
-        <v>600000</v>
-      </c>
-      <c r="I22">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I22" s="7">
+        <v>11000</v>
       </c>
       <c r="J22">
         <v>967881.25279999943</v>
@@ -1646,10 +1650,10 @@
         <v>1557026.3632000005</v>
       </c>
       <c r="L22">
-        <v>600000</v>
-      </c>
-      <c r="M22">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M22" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1675,10 +1679,10 @@
         <v>2032903.4380000005</v>
       </c>
       <c r="H23">
-        <v>600000</v>
-      </c>
-      <c r="I23">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I23" s="7">
+        <v>11000</v>
       </c>
       <c r="J23">
         <v>965968.44399999944</v>
@@ -1687,10 +1691,10 @@
         <v>1554157.1500000006</v>
       </c>
       <c r="L23">
-        <v>600000</v>
-      </c>
-      <c r="M23">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M23" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1716,10 +1720,10 @@
         <v>2021897.4430400007</v>
       </c>
       <c r="H24">
-        <v>600000</v>
-      </c>
-      <c r="I24">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I24" s="7">
+        <v>11000</v>
       </c>
       <c r="J24">
         <v>964055.63519999932</v>
@@ -1728,10 +1732,10 @@
         <v>1551287.9368000007</v>
       </c>
       <c r="L24">
-        <v>600000</v>
-      </c>
-      <c r="M24">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M24" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1757,10 +1761,10 @@
         <v>2010891.4480800009</v>
       </c>
       <c r="H25">
-        <v>600000</v>
-      </c>
-      <c r="I25">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11000</v>
       </c>
       <c r="J25">
         <v>962142.82639999932</v>
@@ -1769,10 +1773,10 @@
         <v>1548418.7236000006</v>
       </c>
       <c r="L25">
-        <v>600000</v>
-      </c>
-      <c r="M25">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M25" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1798,10 +1802,10 @@
         <v>1999885.4531200009</v>
       </c>
       <c r="H26">
-        <v>600000</v>
-      </c>
-      <c r="I26">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I26" s="7">
+        <v>11000</v>
       </c>
       <c r="J26">
         <v>960230.01759999921</v>
@@ -1810,10 +1814,10 @@
         <v>1545549.5104000007</v>
       </c>
       <c r="L26">
-        <v>600000</v>
-      </c>
-      <c r="M26">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M26" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1839,10 +1843,10 @@
         <v>1988879.4581600011</v>
       </c>
       <c r="H27">
-        <v>600000</v>
-      </c>
-      <c r="I27">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I27" s="7">
+        <v>11000</v>
       </c>
       <c r="J27">
         <v>958317.20879999921</v>
@@ -1851,10 +1855,10 @@
         <v>1542680.2972000006</v>
       </c>
       <c r="L27">
-        <v>600000</v>
-      </c>
-      <c r="M27">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M27" s="7">
+        <v>11000</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1880,10 +1884,10 @@
         <v>1977873.4631999999</v>
       </c>
       <c r="H28">
-        <v>600000</v>
-      </c>
-      <c r="I28">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="I28" s="7">
+        <v>11000</v>
       </c>
       <c r="J28">
         <v>956404.40000000026</v>
@@ -1892,10 +1896,10 @@
         <v>1539811.0840000003</v>
       </c>
       <c r="L28">
-        <v>600000</v>
-      </c>
-      <c r="M28">
-        <v>1000</v>
+        <v>9999999</v>
+      </c>
+      <c r="M28" s="7">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -7524,7 +7528,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7692,7 +7696,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="J3" s="7">
-        <v>0.35</v>
+        <v>0.38879999999999998</v>
       </c>
       <c r="K3" s="7">
         <v>0.8</v>
@@ -7754,7 +7758,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="J4" s="7">
-        <v>0.35</v>
+        <v>0.38879999999999998</v>
       </c>
       <c r="K4" s="7">
         <v>0.8</v>
@@ -8655,8 +8659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3790A601-26C3-4DCA-97B6-9342C547A4A0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8684,10 +8688,10 @@
         <v>93020</v>
       </c>
       <c r="C2">
-        <v>13333</v>
-      </c>
-      <c r="D2" s="2">
-        <v>23666</v>
+        <v>25000</v>
+      </c>
+      <c r="D2">
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -8698,10 +8702,10 @@
         <v>93020</v>
       </c>
       <c r="C3">
-        <v>13333</v>
-      </c>
-      <c r="D3" s="2">
-        <v>23666</v>
+        <v>25000</v>
+      </c>
+      <c r="D3">
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -8712,10 +8716,10 @@
         <v>93020</v>
       </c>
       <c r="C4">
-        <v>13333</v>
-      </c>
-      <c r="D4" s="2">
-        <v>23666</v>
+        <v>25000</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8726,10 +8730,10 @@
         <v>93020</v>
       </c>
       <c r="C5">
-        <v>13333</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23666</v>
+        <v>25000</v>
+      </c>
+      <c r="D5">
+        <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8740,10 +8744,10 @@
         <v>93020</v>
       </c>
       <c r="C6">
-        <v>13333</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23666</v>
+        <v>25000</v>
+      </c>
+      <c r="D6">
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8754,10 +8758,10 @@
         <v>93020</v>
       </c>
       <c r="C7">
-        <v>13333</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23666</v>
+        <v>25000</v>
+      </c>
+      <c r="D7">
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8768,10 +8772,10 @@
         <v>93020</v>
       </c>
       <c r="C8">
-        <v>8900</v>
-      </c>
-      <c r="D8" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D8">
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -8782,10 +8786,10 @@
         <v>61911.5</v>
       </c>
       <c r="C9">
-        <v>8900</v>
-      </c>
-      <c r="D9" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D9">
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -8796,10 +8800,10 @@
         <v>61911.5</v>
       </c>
       <c r="C10">
-        <v>8900</v>
-      </c>
-      <c r="D10" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D10">
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -8810,10 +8814,10 @@
         <v>61911.5</v>
       </c>
       <c r="C11">
-        <v>8900</v>
-      </c>
-      <c r="D11" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D11">
+        <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -8824,10 +8828,10 @@
         <v>61911.5</v>
       </c>
       <c r="C12">
-        <v>8900</v>
-      </c>
-      <c r="D12" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D12">
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -8838,10 +8842,10 @@
         <v>61911.5</v>
       </c>
       <c r="C13">
-        <v>8900</v>
-      </c>
-      <c r="D13" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D13">
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8852,10 +8856,10 @@
         <v>61911.5</v>
       </c>
       <c r="C14">
-        <v>8900</v>
-      </c>
-      <c r="D14" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D14">
+        <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8866,10 +8870,10 @@
         <v>61911.5</v>
       </c>
       <c r="C15">
-        <v>8900</v>
-      </c>
-      <c r="D15" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D15">
+        <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8880,10 +8884,10 @@
         <v>61911.5</v>
       </c>
       <c r="C16">
-        <v>8900</v>
-      </c>
-      <c r="D16" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D16">
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -8894,10 +8898,10 @@
         <v>61911.5</v>
       </c>
       <c r="C17">
-        <v>8900</v>
-      </c>
-      <c r="D17" s="2">
-        <v>28700</v>
+        <v>30000</v>
+      </c>
+      <c r="D17">
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -8908,10 +8912,10 @@
         <v>61911.5</v>
       </c>
       <c r="C18">
-        <v>2900</v>
-      </c>
-      <c r="D18" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D18">
+        <v>35000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8922,10 +8926,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C19">
-        <v>2900</v>
-      </c>
-      <c r="D19" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D19">
+        <v>35000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -8936,10 +8940,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C20">
-        <v>2900</v>
-      </c>
-      <c r="D20" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D20">
+        <v>35000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -8950,10 +8954,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C21">
-        <v>2900</v>
-      </c>
-      <c r="D21" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D21">
+        <v>35000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -8964,10 +8968,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C22">
-        <v>2900</v>
-      </c>
-      <c r="D22" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D22">
+        <v>35000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -8978,10 +8982,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C23">
-        <v>2900</v>
-      </c>
-      <c r="D23" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D23">
+        <v>35000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -8992,10 +8996,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C24">
-        <v>2900</v>
-      </c>
-      <c r="D24" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D24">
+        <v>35000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -9006,10 +9010,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C25">
-        <v>2900</v>
-      </c>
-      <c r="D25" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D25">
+        <v>35000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -9020,10 +9024,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C26">
-        <v>2900</v>
-      </c>
-      <c r="D26" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D26">
+        <v>9999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -9034,10 +9038,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C27">
-        <v>2900</v>
-      </c>
-      <c r="D27" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D27">
+        <v>9999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -9048,10 +9052,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C28">
-        <v>2900</v>
-      </c>
-      <c r="D28" s="2">
-        <v>19100</v>
+        <v>40000</v>
+      </c>
+      <c r="D28">
+        <v>9999999</v>
       </c>
     </row>
   </sheetData>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDF984-1904-4865-89C0-861161723B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD04B97-CDB3-4A5F-B0D1-09AA9779FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="7" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7527,8 +7527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7541,6 +7541,7 @@
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="21.88671875" customWidth="1"/>
     <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="20" max="20" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -7696,7 +7697,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="J3" s="7">
-        <v>0.38879999999999998</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="K3" s="7">
         <v>0.8</v>
@@ -7720,7 +7721,7 @@
         <v>10000</v>
       </c>
       <c r="R3" s="7">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="S3" s="7">
         <v>0.2</v>
@@ -7758,7 +7759,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="J4" s="7">
-        <v>0.38879999999999998</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="K4" s="7">
         <v>0.8</v>
@@ -7782,7 +7783,7 @@
         <v>10000</v>
       </c>
       <c r="R4" s="7">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="S4" s="7">
         <v>0.2</v>
@@ -8660,7 +8661,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8685,13 +8686,13 @@
         <v>2024</v>
       </c>
       <c r="B2" s="4">
-        <v>93020</v>
+        <v>150000</v>
       </c>
       <c r="C2">
-        <v>25000</v>
+        <v>13333</v>
       </c>
       <c r="D2">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -8702,10 +8703,10 @@
         <v>93020</v>
       </c>
       <c r="C3">
-        <v>25000</v>
+        <v>13333</v>
       </c>
       <c r="D3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -8716,10 +8717,10 @@
         <v>93020</v>
       </c>
       <c r="C4">
-        <v>25000</v>
+        <v>13333</v>
       </c>
       <c r="D4">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8730,10 +8731,10 @@
         <v>93020</v>
       </c>
       <c r="C5">
-        <v>25000</v>
+        <v>13333</v>
       </c>
       <c r="D5">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8744,10 +8745,10 @@
         <v>93020</v>
       </c>
       <c r="C6">
-        <v>25000</v>
+        <v>13333</v>
       </c>
       <c r="D6">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8758,10 +8759,10 @@
         <v>93020</v>
       </c>
       <c r="C7">
-        <v>25000</v>
+        <v>13333</v>
       </c>
       <c r="D7">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8772,10 +8773,10 @@
         <v>93020</v>
       </c>
       <c r="C8">
+        <v>20000</v>
+      </c>
+      <c r="D8">
         <v>30000</v>
-      </c>
-      <c r="D8">
-        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -8786,10 +8787,10 @@
         <v>61911.5</v>
       </c>
       <c r="C9">
+        <v>20000</v>
+      </c>
+      <c r="D9">
         <v>30000</v>
-      </c>
-      <c r="D9">
-        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -8800,10 +8801,10 @@
         <v>61911.5</v>
       </c>
       <c r="C10">
+        <v>20000</v>
+      </c>
+      <c r="D10">
         <v>30000</v>
-      </c>
-      <c r="D10">
-        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -8814,10 +8815,10 @@
         <v>61911.5</v>
       </c>
       <c r="C11">
+        <v>20000</v>
+      </c>
+      <c r="D11">
         <v>30000</v>
-      </c>
-      <c r="D11">
-        <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -8828,10 +8829,10 @@
         <v>61911.5</v>
       </c>
       <c r="C12">
+        <v>20000</v>
+      </c>
+      <c r="D12">
         <v>30000</v>
-      </c>
-      <c r="D12">
-        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -8842,10 +8843,10 @@
         <v>61911.5</v>
       </c>
       <c r="C13">
+        <v>20000</v>
+      </c>
+      <c r="D13">
         <v>30000</v>
-      </c>
-      <c r="D13">
-        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8856,10 +8857,10 @@
         <v>61911.5</v>
       </c>
       <c r="C14">
+        <v>20000</v>
+      </c>
+      <c r="D14">
         <v>30000</v>
-      </c>
-      <c r="D14">
-        <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8870,10 +8871,10 @@
         <v>61911.5</v>
       </c>
       <c r="C15">
+        <v>20000</v>
+      </c>
+      <c r="D15">
         <v>30000</v>
-      </c>
-      <c r="D15">
-        <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8884,10 +8885,10 @@
         <v>61911.5</v>
       </c>
       <c r="C16">
+        <v>20000</v>
+      </c>
+      <c r="D16">
         <v>30000</v>
-      </c>
-      <c r="D16">
-        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -8898,10 +8899,10 @@
         <v>61911.5</v>
       </c>
       <c r="C17">
+        <v>20000</v>
+      </c>
+      <c r="D17">
         <v>30000</v>
-      </c>
-      <c r="D17">
-        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -8912,10 +8913,10 @@
         <v>61911.5</v>
       </c>
       <c r="C18">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D18">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8926,10 +8927,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C19">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D19">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -8940,10 +8941,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C20">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D20">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -8954,10 +8955,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C21">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D21">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -8968,10 +8969,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C22">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D22">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -8982,10 +8983,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C23">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D23">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -8996,10 +8997,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C24">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D24">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -9010,10 +9011,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C25">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D25">
-        <v>35000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -9024,10 +9025,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C26">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D26">
-        <v>9999999</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -9038,10 +9039,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C27">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D27">
-        <v>9999999</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -9052,10 +9053,10 @@
         <v>57655.199999999997</v>
       </c>
       <c r="C28">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D28">
-        <v>9999999</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD04B97-CDB3-4A5F-B0D1-09AA9779FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88DD8F-3C38-47CA-A616-17733F889E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Value</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>recycling_EU27_windon</t>
+  </si>
+  <si>
+    <t>Initial_secondary_cap</t>
   </si>
 </sst>
 </file>
@@ -331,13 +334,12 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -739,7 +741,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,6 +749,7 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
     <col min="6" max="6" width="39.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
@@ -820,7 +823,7 @@
       <c r="H2">
         <v>9999999</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>11000</v>
       </c>
       <c r="J2">
@@ -832,7 +835,7 @@
       <c r="L2">
         <v>9999999</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -861,7 +864,7 @@
       <c r="H3">
         <v>9999999</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>11000</v>
       </c>
       <c r="J3">
@@ -873,7 +876,7 @@
       <c r="L3">
         <v>9999999</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -902,7 +905,7 @@
       <c r="H4">
         <v>9999999</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>11000</v>
       </c>
       <c r="J4">
@@ -914,7 +917,7 @@
       <c r="L4">
         <v>9999999</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -943,7 +946,7 @@
       <c r="H5">
         <v>9999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>11000</v>
       </c>
       <c r="J5">
@@ -955,7 +958,7 @@
       <c r="L5">
         <v>9999999</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -984,7 +987,7 @@
       <c r="H6">
         <v>9999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>11000</v>
       </c>
       <c r="J6">
@@ -996,7 +999,7 @@
       <c r="L6">
         <v>9999999</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1025,7 +1028,7 @@
       <c r="H7">
         <v>9999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>11000</v>
       </c>
       <c r="J7">
@@ -1037,7 +1040,7 @@
       <c r="L7">
         <v>9999999</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1066,7 +1069,7 @@
       <c r="H8">
         <v>9999999</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>11000</v>
       </c>
       <c r="J8">
@@ -1078,7 +1081,7 @@
       <c r="L8">
         <v>9999999</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1107,7 +1110,7 @@
       <c r="H9">
         <v>9999999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>11000</v>
       </c>
       <c r="J9">
@@ -1119,7 +1122,7 @@
       <c r="L9">
         <v>9999999</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1148,7 +1151,7 @@
       <c r="H10">
         <v>9999999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>11000</v>
       </c>
       <c r="J10">
@@ -1160,7 +1163,7 @@
       <c r="L10">
         <v>9999999</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1189,7 +1192,7 @@
       <c r="H11">
         <v>9999999</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>11000</v>
       </c>
       <c r="J11">
@@ -1201,7 +1204,7 @@
       <c r="L11">
         <v>9999999</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1230,7 +1233,7 @@
       <c r="H12">
         <v>9999999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>11000</v>
       </c>
       <c r="J12">
@@ -1242,7 +1245,7 @@
       <c r="L12">
         <v>9999999</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1271,7 +1274,7 @@
       <c r="H13">
         <v>9999999</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>11000</v>
       </c>
       <c r="J13">
@@ -1283,7 +1286,7 @@
       <c r="L13">
         <v>9999999</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1312,7 +1315,7 @@
       <c r="H14">
         <v>9999999</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>11000</v>
       </c>
       <c r="J14">
@@ -1324,7 +1327,7 @@
       <c r="L14">
         <v>9999999</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1353,7 +1356,7 @@
       <c r="H15">
         <v>9999999</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>11000</v>
       </c>
       <c r="J15">
@@ -1365,7 +1368,7 @@
       <c r="L15">
         <v>9999999</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1394,7 +1397,7 @@
       <c r="H16">
         <v>9999999</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>11000</v>
       </c>
       <c r="J16">
@@ -1406,7 +1409,7 @@
       <c r="L16">
         <v>9999999</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1435,7 +1438,7 @@
       <c r="H17">
         <v>9999999</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>11000</v>
       </c>
       <c r="J17">
@@ -1447,7 +1450,7 @@
       <c r="L17">
         <v>9999999</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1476,7 +1479,7 @@
       <c r="H18">
         <v>9999999</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>11000</v>
       </c>
       <c r="J18">
@@ -1488,7 +1491,7 @@
       <c r="L18">
         <v>9999999</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1517,7 +1520,7 @@
       <c r="H19">
         <v>9999999</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>11000</v>
       </c>
       <c r="J19">
@@ -1529,7 +1532,7 @@
       <c r="L19">
         <v>9999999</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1558,7 +1561,7 @@
       <c r="H20">
         <v>9999999</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>11000</v>
       </c>
       <c r="J20">
@@ -1570,7 +1573,7 @@
       <c r="L20">
         <v>9999999</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1599,7 +1602,7 @@
       <c r="H21">
         <v>9999999</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>11000</v>
       </c>
       <c r="J21">
@@ -1611,7 +1614,7 @@
       <c r="L21">
         <v>9999999</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1640,7 +1643,7 @@
       <c r="H22">
         <v>9999999</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>11000</v>
       </c>
       <c r="J22">
@@ -1652,7 +1655,7 @@
       <c r="L22">
         <v>9999999</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1681,7 +1684,7 @@
       <c r="H23">
         <v>9999999</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>11000</v>
       </c>
       <c r="J23">
@@ -1693,7 +1696,7 @@
       <c r="L23">
         <v>9999999</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1722,7 +1725,7 @@
       <c r="H24">
         <v>9999999</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>11000</v>
       </c>
       <c r="J24">
@@ -1734,7 +1737,7 @@
       <c r="L24">
         <v>9999999</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1763,7 +1766,7 @@
       <c r="H25">
         <v>9999999</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>11000</v>
       </c>
       <c r="J25">
@@ -1775,7 +1778,7 @@
       <c r="L25">
         <v>9999999</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1804,7 +1807,7 @@
       <c r="H26">
         <v>9999999</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>11000</v>
       </c>
       <c r="J26">
@@ -1816,7 +1819,7 @@
       <c r="L26">
         <v>9999999</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1845,7 +1848,7 @@
       <c r="H27">
         <v>9999999</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>11000</v>
       </c>
       <c r="J27">
@@ -1857,7 +1860,7 @@
       <c r="L27">
         <v>9999999</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1886,7 +1889,7 @@
       <c r="H28">
         <v>9999999</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>11000</v>
       </c>
       <c r="J28">
@@ -1898,7 +1901,7 @@
       <c r="L28">
         <v>9999999</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>11000</v>
       </c>
     </row>
@@ -1921,59 +1924,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1985,7 +1988,7 @@
   <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,10 +2003,10 @@
       <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
@@ -7525,10 +7528,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7544,35 +7547,35 @@
     <col min="20" max="20" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -7581,95 +7584,101 @@
       <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="U1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>260000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>40000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>25</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.25</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1500</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.37409999999999999</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.38879999999999998</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.8</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.8</v>
       </c>
       <c r="M2">
         <v>25</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>5</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>5</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>70</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>70</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.85</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.2</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B3">
@@ -7681,57 +7690,60 @@
       <c r="D3">
         <v>50</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.25</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>6000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>0.8</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>0.8</v>
       </c>
       <c r="M3">
         <v>15</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>5</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>5</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>10000</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>10000</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>0.7</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>0.2</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B4">
@@ -7743,10 +7755,10 @@
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.25</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4">
@@ -7755,84 +7767,87 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>0.8</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>0.8</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>20</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>5</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>5</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>10000</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>10000</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>0.7</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>0.2</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>25000</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7854,16 +7869,16 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -8262,16 +8277,16 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -8660,8 +8675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3790A601-26C3-4DCA-97B6-9342C547A4A0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8670,23 +8685,23 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
-      <c r="B2" s="4">
-        <v>150000</v>
+      <c r="B2" s="3">
+        <v>65000</v>
       </c>
       <c r="C2">
         <v>13333</v>
@@ -8699,8 +8714,8 @@
       <c r="A3">
         <v>2025</v>
       </c>
-      <c r="B3" s="4">
-        <v>93020</v>
+      <c r="B3" s="3">
+        <v>65000</v>
       </c>
       <c r="C3">
         <v>13333</v>
@@ -8713,8 +8728,8 @@
       <c r="A4">
         <v>2026</v>
       </c>
-      <c r="B4" s="4">
-        <v>93020</v>
+      <c r="B4" s="3">
+        <v>65000</v>
       </c>
       <c r="C4">
         <v>13333</v>
@@ -8727,8 +8742,8 @@
       <c r="A5">
         <v>2027</v>
       </c>
-      <c r="B5" s="4">
-        <v>93020</v>
+      <c r="B5" s="3">
+        <v>65000</v>
       </c>
       <c r="C5">
         <v>13333</v>
@@ -8741,8 +8756,8 @@
       <c r="A6">
         <v>2028</v>
       </c>
-      <c r="B6" s="4">
-        <v>93020</v>
+      <c r="B6" s="3">
+        <v>65000</v>
       </c>
       <c r="C6">
         <v>13333</v>
@@ -8755,8 +8770,8 @@
       <c r="A7">
         <v>2029</v>
       </c>
-      <c r="B7" s="4">
-        <v>93020</v>
+      <c r="B7" s="3">
+        <v>65000</v>
       </c>
       <c r="C7">
         <v>13333</v>
@@ -8769,8 +8784,8 @@
       <c r="A8">
         <v>2030</v>
       </c>
-      <c r="B8" s="4">
-        <v>93020</v>
+      <c r="B8" s="3">
+        <v>65000</v>
       </c>
       <c r="C8">
         <v>20000</v>
@@ -8783,8 +8798,8 @@
       <c r="A9">
         <v>2031</v>
       </c>
-      <c r="B9" s="4">
-        <v>61911.5</v>
+      <c r="B9" s="3">
+        <v>65000</v>
       </c>
       <c r="C9">
         <v>20000</v>
@@ -8797,8 +8812,8 @@
       <c r="A10">
         <v>2032</v>
       </c>
-      <c r="B10" s="4">
-        <v>61911.5</v>
+      <c r="B10" s="3">
+        <v>65000</v>
       </c>
       <c r="C10">
         <v>20000</v>
@@ -8811,8 +8826,8 @@
       <c r="A11">
         <v>2033</v>
       </c>
-      <c r="B11" s="4">
-        <v>61911.5</v>
+      <c r="B11" s="3">
+        <v>65000</v>
       </c>
       <c r="C11">
         <v>20000</v>
@@ -8825,8 +8840,8 @@
       <c r="A12">
         <v>2034</v>
       </c>
-      <c r="B12" s="4">
-        <v>61911.5</v>
+      <c r="B12" s="3">
+        <v>65000</v>
       </c>
       <c r="C12">
         <v>20000</v>
@@ -8839,8 +8854,8 @@
       <c r="A13">
         <v>2035</v>
       </c>
-      <c r="B13" s="4">
-        <v>61911.5</v>
+      <c r="B13" s="3">
+        <v>65000</v>
       </c>
       <c r="C13">
         <v>20000</v>
@@ -8853,8 +8868,8 @@
       <c r="A14">
         <v>2036</v>
       </c>
-      <c r="B14" s="4">
-        <v>61911.5</v>
+      <c r="B14" s="3">
+        <v>65000</v>
       </c>
       <c r="C14">
         <v>20000</v>
@@ -8867,8 +8882,8 @@
       <c r="A15">
         <v>2037</v>
       </c>
-      <c r="B15" s="4">
-        <v>61911.5</v>
+      <c r="B15" s="3">
+        <v>65000</v>
       </c>
       <c r="C15">
         <v>20000</v>
@@ -8881,8 +8896,8 @@
       <c r="A16">
         <v>2038</v>
       </c>
-      <c r="B16" s="4">
-        <v>61911.5</v>
+      <c r="B16" s="3">
+        <v>65000</v>
       </c>
       <c r="C16">
         <v>20000</v>
@@ -8895,8 +8910,8 @@
       <c r="A17">
         <v>2039</v>
       </c>
-      <c r="B17" s="4">
-        <v>61911.5</v>
+      <c r="B17" s="3">
+        <v>65000</v>
       </c>
       <c r="C17">
         <v>20000</v>
@@ -8909,8 +8924,8 @@
       <c r="A18">
         <v>2040</v>
       </c>
-      <c r="B18" s="4">
-        <v>61911.5</v>
+      <c r="B18" s="3">
+        <v>65000</v>
       </c>
       <c r="C18">
         <v>20000</v>
@@ -8923,8 +8938,8 @@
       <c r="A19">
         <v>2041</v>
       </c>
-      <c r="B19" s="4">
-        <v>57655.199999999997</v>
+      <c r="B19" s="3">
+        <v>65000</v>
       </c>
       <c r="C19">
         <v>20000</v>
@@ -8937,8 +8952,8 @@
       <c r="A20">
         <v>2042</v>
       </c>
-      <c r="B20" s="4">
-        <v>57655.199999999997</v>
+      <c r="B20" s="3">
+        <v>65000</v>
       </c>
       <c r="C20">
         <v>20000</v>
@@ -8951,8 +8966,8 @@
       <c r="A21">
         <v>2043</v>
       </c>
-      <c r="B21" s="4">
-        <v>57655.199999999997</v>
+      <c r="B21" s="3">
+        <v>65000</v>
       </c>
       <c r="C21">
         <v>20000</v>
@@ -8966,7 +8981,7 @@
         <v>2044</v>
       </c>
       <c r="B22" s="3">
-        <v>57655.199999999997</v>
+        <v>65000</v>
       </c>
       <c r="C22">
         <v>20000</v>
@@ -8980,7 +8995,7 @@
         <v>2045</v>
       </c>
       <c r="B23" s="3">
-        <v>57655.199999999997</v>
+        <v>65000</v>
       </c>
       <c r="C23">
         <v>20000</v>
@@ -8994,7 +9009,7 @@
         <v>2046</v>
       </c>
       <c r="B24" s="3">
-        <v>57655.199999999997</v>
+        <v>65000</v>
       </c>
       <c r="C24">
         <v>20000</v>
@@ -9008,7 +9023,7 @@
         <v>2047</v>
       </c>
       <c r="B25" s="3">
-        <v>57655.199999999997</v>
+        <v>65000</v>
       </c>
       <c r="C25">
         <v>20000</v>
@@ -9022,7 +9037,7 @@
         <v>2048</v>
       </c>
       <c r="B26" s="3">
-        <v>57655.199999999997</v>
+        <v>65000</v>
       </c>
       <c r="C26">
         <v>20000</v>
@@ -9036,7 +9051,7 @@
         <v>2049</v>
       </c>
       <c r="B27" s="3">
-        <v>57655.199999999997</v>
+        <v>65000</v>
       </c>
       <c r="C27">
         <v>20000</v>
@@ -9050,7 +9065,7 @@
         <v>2050</v>
       </c>
       <c r="B28" s="3">
-        <v>57655.199999999997</v>
+        <v>65000</v>
       </c>
       <c r="C28">
         <v>20000</v>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88DD8F-3C38-47CA-A616-17733F889E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24541DE1-766E-4CDE-B596-0030E3ACB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="7" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Value</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Initial_secondary_cap</t>
+  </si>
+  <si>
+    <t>price_reduction_init</t>
   </si>
 </sst>
 </file>
@@ -7528,10 +7531,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7547,7 +7550,7 @@
     <col min="20" max="20" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -7611,8 +7614,11 @@
       <c r="U1" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -7676,8 +7682,11 @@
       <c r="U2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -7741,8 +7750,11 @@
       <c r="U3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -7806,41 +7818,44 @@
       <c r="U4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -8675,8 +8690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3790A601-26C3-4DCA-97B6-9342C547A4A0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24541DE1-766E-4CDE-B596-0030E3ACB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570AEDE-B76A-4CF6-B588-EF1BDF0855A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="7" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Value</t>
   </si>
@@ -190,6 +190,36 @@
   </si>
   <si>
     <t>price_reduction_init</t>
+  </si>
+  <si>
+    <t>last_prim_cap</t>
+  </si>
+  <si>
+    <t>last_sec_cap</t>
+  </si>
+  <si>
+    <t>factor_bess</t>
+  </si>
+  <si>
+    <t>import_EU27_Batteries</t>
+  </si>
+  <si>
+    <t>manufacturing_EU27_Batteries</t>
+  </si>
+  <si>
+    <t>remanufacturing_EU27_Batteries</t>
+  </si>
+  <si>
+    <t>recycling_EU27_Batteries</t>
+  </si>
+  <si>
+    <t>EU27.Batteries</t>
+  </si>
+  <si>
+    <t>EU27_Batteries</t>
+  </si>
+  <si>
+    <t>capacity_scrap_total</t>
   </si>
 </sst>
 </file>
@@ -741,10 +771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185AF38-42FD-4CFF-B287-2FCFFF6C6EF3}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +790,7 @@
     <col min="11" max="11" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -800,8 +830,20 @@
       <c r="M1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -841,8 +883,20 @@
       <c r="M2" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>200000</v>
+      </c>
+      <c r="O2">
+        <v>300000</v>
+      </c>
+      <c r="P2">
+        <v>250000</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -882,8 +936,20 @@
       <c r="M3" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>200000</v>
+      </c>
+      <c r="O3">
+        <v>300000</v>
+      </c>
+      <c r="P3">
+        <v>250000</v>
+      </c>
+      <c r="Q3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -923,8 +989,20 @@
       <c r="M4" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>200000</v>
+      </c>
+      <c r="O4">
+        <v>300000</v>
+      </c>
+      <c r="P4">
+        <v>250000</v>
+      </c>
+      <c r="Q4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -964,8 +1042,20 @@
       <c r="M5" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>200000</v>
+      </c>
+      <c r="O5">
+        <v>300000</v>
+      </c>
+      <c r="P5">
+        <v>250000</v>
+      </c>
+      <c r="Q5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -1005,8 +1095,20 @@
       <c r="M6" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>200000</v>
+      </c>
+      <c r="O6">
+        <v>300000</v>
+      </c>
+      <c r="P6">
+        <v>250000</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -1046,8 +1148,20 @@
       <c r="M7" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>200000</v>
+      </c>
+      <c r="O7">
+        <v>300000</v>
+      </c>
+      <c r="P7">
+        <v>250000</v>
+      </c>
+      <c r="Q7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -1087,8 +1201,20 @@
       <c r="M8" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>200000</v>
+      </c>
+      <c r="O8">
+        <v>300000</v>
+      </c>
+      <c r="P8">
+        <v>250000</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -1128,8 +1254,20 @@
       <c r="M9" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>200000</v>
+      </c>
+      <c r="O9">
+        <v>300000</v>
+      </c>
+      <c r="P9">
+        <v>250000</v>
+      </c>
+      <c r="Q9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -1169,8 +1307,20 @@
       <c r="M10" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>200000</v>
+      </c>
+      <c r="O10">
+        <v>300000</v>
+      </c>
+      <c r="P10">
+        <v>250000</v>
+      </c>
+      <c r="Q10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -1210,8 +1360,20 @@
       <c r="M11" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>200000</v>
+      </c>
+      <c r="O11">
+        <v>300000</v>
+      </c>
+      <c r="P11">
+        <v>250000</v>
+      </c>
+      <c r="Q11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -1251,8 +1413,20 @@
       <c r="M12" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>200000</v>
+      </c>
+      <c r="O12">
+        <v>300000</v>
+      </c>
+      <c r="P12">
+        <v>250000</v>
+      </c>
+      <c r="Q12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -1292,8 +1466,20 @@
       <c r="M13" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>200000</v>
+      </c>
+      <c r="O13">
+        <v>300000</v>
+      </c>
+      <c r="P13">
+        <v>250000</v>
+      </c>
+      <c r="Q13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -1333,8 +1519,20 @@
       <c r="M14" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>200000</v>
+      </c>
+      <c r="O14">
+        <v>300000</v>
+      </c>
+      <c r="P14">
+        <v>250000</v>
+      </c>
+      <c r="Q14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -1374,8 +1572,20 @@
       <c r="M15" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>200000</v>
+      </c>
+      <c r="O15">
+        <v>300000</v>
+      </c>
+      <c r="P15">
+        <v>250000</v>
+      </c>
+      <c r="Q15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -1415,8 +1625,20 @@
       <c r="M16" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>200000</v>
+      </c>
+      <c r="O16">
+        <v>300000</v>
+      </c>
+      <c r="P16">
+        <v>250000</v>
+      </c>
+      <c r="Q16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -1456,8 +1678,20 @@
       <c r="M17" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>200000</v>
+      </c>
+      <c r="O17">
+        <v>300000</v>
+      </c>
+      <c r="P17">
+        <v>250000</v>
+      </c>
+      <c r="Q17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -1497,8 +1731,20 @@
       <c r="M18" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>200000</v>
+      </c>
+      <c r="O18">
+        <v>300000</v>
+      </c>
+      <c r="P18">
+        <v>250000</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -1538,8 +1784,20 @@
       <c r="M19" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>200000</v>
+      </c>
+      <c r="O19">
+        <v>300000</v>
+      </c>
+      <c r="P19">
+        <v>250000</v>
+      </c>
+      <c r="Q19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -1579,8 +1837,20 @@
       <c r="M20" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>200000</v>
+      </c>
+      <c r="O20">
+        <v>300000</v>
+      </c>
+      <c r="P20">
+        <v>250000</v>
+      </c>
+      <c r="Q20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -1620,8 +1890,20 @@
       <c r="M21" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>200000</v>
+      </c>
+      <c r="O21">
+        <v>300000</v>
+      </c>
+      <c r="P21">
+        <v>250000</v>
+      </c>
+      <c r="Q21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -1661,8 +1943,20 @@
       <c r="M22" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>200000</v>
+      </c>
+      <c r="O22">
+        <v>300000</v>
+      </c>
+      <c r="P22">
+        <v>250000</v>
+      </c>
+      <c r="Q22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -1702,8 +1996,20 @@
       <c r="M23" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>200000</v>
+      </c>
+      <c r="O23">
+        <v>300000</v>
+      </c>
+      <c r="P23">
+        <v>250000</v>
+      </c>
+      <c r="Q23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -1743,8 +2049,20 @@
       <c r="M24" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>200000</v>
+      </c>
+      <c r="O24">
+        <v>300000</v>
+      </c>
+      <c r="P24">
+        <v>250000</v>
+      </c>
+      <c r="Q24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -1784,8 +2102,20 @@
       <c r="M25" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>200000</v>
+      </c>
+      <c r="O25">
+        <v>300000</v>
+      </c>
+      <c r="P25">
+        <v>250000</v>
+      </c>
+      <c r="Q25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -1825,8 +2155,20 @@
       <c r="M26" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>200000</v>
+      </c>
+      <c r="O26">
+        <v>300000</v>
+      </c>
+      <c r="P26">
+        <v>250000</v>
+      </c>
+      <c r="Q26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -1866,8 +2208,20 @@
       <c r="M27" s="6">
         <v>11000</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>200000</v>
+      </c>
+      <c r="O27">
+        <v>300000</v>
+      </c>
+      <c r="P27">
+        <v>250000</v>
+      </c>
+      <c r="Q27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -1906,6 +2260,18 @@
       </c>
       <c r="M28" s="6">
         <v>11000</v>
+      </c>
+      <c r="N28">
+        <v>200000</v>
+      </c>
+      <c r="O28">
+        <v>300000</v>
+      </c>
+      <c r="P28">
+        <v>250000</v>
+      </c>
+      <c r="Q28">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1988,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6341E4C-4AB4-44A4-8119-B6BB3BEB6E84}">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,7 +2365,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2015,8 +2381,11 @@
       <c r="E1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2032,8 +2401,11 @@
       <c r="E2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2049,8 +2421,11 @@
       <c r="E3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2066,8 +2441,11 @@
       <c r="E4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2083,8 +2461,11 @@
       <c r="E5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2100,8 +2481,11 @@
       <c r="E6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2117,8 +2501,11 @@
       <c r="E7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2134,8 +2521,11 @@
       <c r="E8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2151,8 +2541,11 @@
       <c r="E9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2168,8 +2561,11 @@
       <c r="E10">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2185,8 +2581,11 @@
       <c r="E11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2202,8 +2601,11 @@
       <c r="E12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2219,8 +2621,11 @@
       <c r="E13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2236,8 +2641,11 @@
       <c r="E14">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2253,8 +2661,11 @@
       <c r="E15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2270,8 +2681,11 @@
       <c r="E16">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2287,8 +2701,11 @@
       <c r="E17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2304,8 +2721,11 @@
       <c r="E18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2321,8 +2741,11 @@
       <c r="E19">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2338,8 +2761,11 @@
       <c r="E20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2355,8 +2781,11 @@
       <c r="E21">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2372,8 +2801,11 @@
       <c r="E22">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
@@ -2389,8 +2821,11 @@
       <c r="E23">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2406,8 +2841,11 @@
       <c r="E24">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -2423,8 +2861,11 @@
       <c r="E25">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2440,8 +2881,11 @@
       <c r="E26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2457,8 +2901,11 @@
       <c r="E27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2474,8 +2921,11 @@
       <c r="E28">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2491,8 +2941,11 @@
       <c r="E29">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2508,8 +2961,11 @@
       <c r="E30">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2525,8 +2981,11 @@
       <c r="E31">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2542,8 +3001,11 @@
       <c r="E32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2559,8 +3021,11 @@
       <c r="E33">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -2576,8 +3041,11 @@
       <c r="E34">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -2593,8 +3061,11 @@
       <c r="E35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2610,8 +3081,11 @@
       <c r="E36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12</v>
       </c>
@@ -2627,8 +3101,11 @@
       <c r="E37">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2644,8 +3121,11 @@
       <c r="E38">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2661,8 +3141,11 @@
       <c r="E39">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2678,8 +3161,11 @@
       <c r="E40">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2695,8 +3181,11 @@
       <c r="E41">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2712,8 +3201,11 @@
       <c r="E42">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2729,8 +3221,11 @@
       <c r="E43">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2746,8 +3241,11 @@
       <c r="E44">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2763,8 +3261,11 @@
       <c r="E45">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2780,8 +3281,11 @@
       <c r="E46">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2797,8 +3301,11 @@
       <c r="E47">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2814,8 +3321,11 @@
       <c r="E48">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2831,8 +3341,11 @@
       <c r="E49">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2848,8 +3361,11 @@
       <c r="E50">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2865,8 +3381,11 @@
       <c r="E51">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2882,8 +3401,11 @@
       <c r="E52">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2899,8 +3421,11 @@
       <c r="E53">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2916,8 +3441,11 @@
       <c r="E54">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2933,8 +3461,11 @@
       <c r="E55">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2950,8 +3481,11 @@
       <c r="E56">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8</v>
       </c>
@@ -2967,8 +3501,11 @@
       <c r="E57">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2984,8 +3521,11 @@
       <c r="E58">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10</v>
       </c>
@@ -3001,8 +3541,11 @@
       <c r="E59">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -3018,8 +3561,11 @@
       <c r="E60">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -3035,8 +3581,11 @@
       <c r="E61">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3052,8 +3601,11 @@
       <c r="E62">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3069,8 +3621,11 @@
       <c r="E63">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3086,8 +3641,11 @@
       <c r="E64">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3103,8 +3661,11 @@
       <c r="E65">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5</v>
       </c>
@@ -3120,8 +3681,11 @@
       <c r="E66">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -3137,8 +3701,11 @@
       <c r="E67">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7</v>
       </c>
@@ -3154,8 +3721,11 @@
       <c r="E68">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8</v>
       </c>
@@ -3171,8 +3741,11 @@
       <c r="E69">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
@@ -3188,8 +3761,11 @@
       <c r="E70">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10</v>
       </c>
@@ -3205,8 +3781,11 @@
       <c r="E71">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -3222,8 +3801,11 @@
       <c r="E72">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
@@ -3239,8 +3821,11 @@
       <c r="E73">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3256,8 +3841,11 @@
       <c r="E74">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3273,8 +3861,11 @@
       <c r="E75">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3290,8 +3881,11 @@
       <c r="E76">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3307,8 +3901,11 @@
       <c r="E77">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -3324,8 +3921,11 @@
       <c r="E78">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6</v>
       </c>
@@ -3341,8 +3941,11 @@
       <c r="E79">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7</v>
       </c>
@@ -3358,8 +3961,11 @@
       <c r="E80">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -3375,8 +3981,11 @@
       <c r="E81">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>9</v>
       </c>
@@ -3392,8 +4001,11 @@
       <c r="E82">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>10</v>
       </c>
@@ -3409,8 +4021,11 @@
       <c r="E83">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>11</v>
       </c>
@@ -3426,8 +4041,11 @@
       <c r="E84">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12</v>
       </c>
@@ -3443,8 +4061,11 @@
       <c r="E85">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3460,8 +4081,11 @@
       <c r="E86">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3477,8 +4101,11 @@
       <c r="E87">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3494,8 +4121,11 @@
       <c r="E88">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -3511,8 +4141,11 @@
       <c r="E89">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -3528,8 +4161,11 @@
       <c r="E90">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6</v>
       </c>
@@ -3545,8 +4181,11 @@
       <c r="E91">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>7</v>
       </c>
@@ -3562,8 +4201,11 @@
       <c r="E92">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8</v>
       </c>
@@ -3579,8 +4221,11 @@
       <c r="E93">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9</v>
       </c>
@@ -3596,8 +4241,11 @@
       <c r="E94">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>10</v>
       </c>
@@ -3613,8 +4261,11 @@
       <c r="E95">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>11</v>
       </c>
@@ -3630,8 +4281,11 @@
       <c r="E96">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12</v>
       </c>
@@ -3647,8 +4301,11 @@
       <c r="E97">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3664,8 +4321,11 @@
       <c r="E98">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3681,8 +4341,11 @@
       <c r="E99">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3698,8 +4361,11 @@
       <c r="E100">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3715,8 +4381,11 @@
       <c r="E101">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -3732,8 +4401,11 @@
       <c r="E102">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>6</v>
       </c>
@@ -3749,8 +4421,11 @@
       <c r="E103">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>7</v>
       </c>
@@ -3766,8 +4441,11 @@
       <c r="E104">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>8</v>
       </c>
@@ -3783,8 +4461,11 @@
       <c r="E105">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9</v>
       </c>
@@ -3800,8 +4481,11 @@
       <c r="E106">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10</v>
       </c>
@@ -3817,8 +4501,11 @@
       <c r="E107">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -3834,8 +4521,11 @@
       <c r="E108">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12</v>
       </c>
@@ -3851,8 +4541,11 @@
       <c r="E109">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3868,8 +4561,11 @@
       <c r="E110">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3885,8 +4581,11 @@
       <c r="E111">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3902,8 +4601,11 @@
       <c r="E112">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3919,8 +4621,11 @@
       <c r="E113">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3936,8 +4641,11 @@
       <c r="E114">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>6</v>
       </c>
@@ -3953,8 +4661,11 @@
       <c r="E115">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>7</v>
       </c>
@@ -3970,8 +4681,11 @@
       <c r="E116">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3987,8 +4701,11 @@
       <c r="E117">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9</v>
       </c>
@@ -4004,8 +4721,11 @@
       <c r="E118">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10</v>
       </c>
@@ -4021,8 +4741,11 @@
       <c r="E119">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11</v>
       </c>
@@ -4038,8 +4761,11 @@
       <c r="E120">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -4055,8 +4781,11 @@
       <c r="E121">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4072,8 +4801,11 @@
       <c r="E122">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -4089,8 +4821,11 @@
       <c r="E123">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4106,8 +4841,11 @@
       <c r="E124">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -4123,8 +4861,11 @@
       <c r="E125">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4140,8 +4881,11 @@
       <c r="E126">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -4157,8 +4901,11 @@
       <c r="E127">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7</v>
       </c>
@@ -4174,8 +4921,11 @@
       <c r="E128">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8</v>
       </c>
@@ -4191,8 +4941,11 @@
       <c r="E129">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9</v>
       </c>
@@ -4208,8 +4961,11 @@
       <c r="E130">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>10</v>
       </c>
@@ -4225,8 +4981,11 @@
       <c r="E131">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>11</v>
       </c>
@@ -4242,8 +5001,11 @@
       <c r="E132">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>12</v>
       </c>
@@ -4259,8 +5021,11 @@
       <c r="E133">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4276,8 +5041,11 @@
       <c r="E134">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -4293,8 +5061,11 @@
       <c r="E135">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3</v>
       </c>
@@ -4310,8 +5081,11 @@
       <c r="E136">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -4327,8 +5101,11 @@
       <c r="E137">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5</v>
       </c>
@@ -4344,8 +5121,11 @@
       <c r="E138">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -4361,8 +5141,11 @@
       <c r="E139">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>7</v>
       </c>
@@ -4378,8 +5161,11 @@
       <c r="E140">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>8</v>
       </c>
@@ -4395,8 +5181,11 @@
       <c r="E141">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>9</v>
       </c>
@@ -4412,8 +5201,11 @@
       <c r="E142">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10</v>
       </c>
@@ -4429,8 +5221,11 @@
       <c r="E143">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>11</v>
       </c>
@@ -4446,8 +5241,11 @@
       <c r="E144">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>12</v>
       </c>
@@ -4463,8 +5261,11 @@
       <c r="E145">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4480,8 +5281,11 @@
       <c r="E146">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -4497,8 +5301,11 @@
       <c r="E147">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4514,8 +5321,11 @@
       <c r="E148">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4</v>
       </c>
@@ -4531,8 +5341,11 @@
       <c r="E149">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4548,8 +5361,11 @@
       <c r="E150">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -4565,8 +5381,11 @@
       <c r="E151">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -4582,8 +5401,11 @@
       <c r="E152">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>8</v>
       </c>
@@ -4599,8 +5421,11 @@
       <c r="E153">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9</v>
       </c>
@@ -4616,8 +5441,11 @@
       <c r="E154">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10</v>
       </c>
@@ -4633,8 +5461,11 @@
       <c r="E155">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11</v>
       </c>
@@ -4650,8 +5481,11 @@
       <c r="E156">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>12</v>
       </c>
@@ -4667,8 +5501,11 @@
       <c r="E157">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4684,8 +5521,11 @@
       <c r="E158">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2</v>
       </c>
@@ -4701,8 +5541,11 @@
       <c r="E159">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3</v>
       </c>
@@ -4718,8 +5561,11 @@
       <c r="E160">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4</v>
       </c>
@@ -4735,8 +5581,11 @@
       <c r="E161">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5</v>
       </c>
@@ -4752,8 +5601,11 @@
       <c r="E162">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6</v>
       </c>
@@ -4769,8 +5621,11 @@
       <c r="E163">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -4786,8 +5641,11 @@
       <c r="E164">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8</v>
       </c>
@@ -4803,8 +5661,11 @@
       <c r="E165">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9</v>
       </c>
@@ -4820,8 +5681,11 @@
       <c r="E166">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>10</v>
       </c>
@@ -4837,8 +5701,11 @@
       <c r="E167">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>11</v>
       </c>
@@ -4854,8 +5721,11 @@
       <c r="E168">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>12</v>
       </c>
@@ -4871,8 +5741,11 @@
       <c r="E169">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4888,8 +5761,11 @@
       <c r="E170">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2</v>
       </c>
@@ -4905,8 +5781,11 @@
       <c r="E171">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3</v>
       </c>
@@ -4922,8 +5801,11 @@
       <c r="E172">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -4939,8 +5821,11 @@
       <c r="E173">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5</v>
       </c>
@@ -4956,8 +5841,11 @@
       <c r="E174">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -4973,8 +5861,11 @@
       <c r="E175">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7</v>
       </c>
@@ -4990,8 +5881,11 @@
       <c r="E176">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -5007,8 +5901,11 @@
       <c r="E177">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5024,8 +5921,11 @@
       <c r="E178">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>10</v>
       </c>
@@ -5041,8 +5941,11 @@
       <c r="E179">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>11</v>
       </c>
@@ -5058,8 +5961,11 @@
       <c r="E180">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>12</v>
       </c>
@@ -5075,8 +5981,11 @@
       <c r="E181">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5092,8 +6001,11 @@
       <c r="E182">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2</v>
       </c>
@@ -5109,8 +6021,11 @@
       <c r="E183">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3</v>
       </c>
@@ -5126,8 +6041,11 @@
       <c r="E184">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>4</v>
       </c>
@@ -5143,8 +6061,11 @@
       <c r="E185">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5</v>
       </c>
@@ -5160,8 +6081,11 @@
       <c r="E186">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -5177,8 +6101,11 @@
       <c r="E187">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>7</v>
       </c>
@@ -5194,8 +6121,11 @@
       <c r="E188">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -5211,8 +6141,11 @@
       <c r="E189">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9</v>
       </c>
@@ -5228,8 +6161,11 @@
       <c r="E190">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>10</v>
       </c>
@@ -5245,8 +6181,11 @@
       <c r="E191">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>11</v>
       </c>
@@ -5262,8 +6201,11 @@
       <c r="E192">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>12</v>
       </c>
@@ -5279,8 +6221,11 @@
       <c r="E193">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5296,8 +6241,11 @@
       <c r="E194">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2</v>
       </c>
@@ -5313,8 +6261,11 @@
       <c r="E195">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3</v>
       </c>
@@ -5330,8 +6281,11 @@
       <c r="E196">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4</v>
       </c>
@@ -5347,8 +6301,11 @@
       <c r="E197">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5</v>
       </c>
@@ -5364,8 +6321,11 @@
       <c r="E198">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>6</v>
       </c>
@@ -5381,8 +6341,11 @@
       <c r="E199">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>7</v>
       </c>
@@ -5398,8 +6361,11 @@
       <c r="E200">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -5415,8 +6381,11 @@
       <c r="E201">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9</v>
       </c>
@@ -5432,8 +6401,11 @@
       <c r="E202">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>10</v>
       </c>
@@ -5449,8 +6421,11 @@
       <c r="E203">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>11</v>
       </c>
@@ -5466,8 +6441,11 @@
       <c r="E204">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>12</v>
       </c>
@@ -5483,8 +6461,11 @@
       <c r="E205">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5500,8 +6481,11 @@
       <c r="E206">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2</v>
       </c>
@@ -5517,8 +6501,11 @@
       <c r="E207">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3</v>
       </c>
@@ -5534,8 +6521,11 @@
       <c r="E208">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5551,8 +6541,11 @@
       <c r="E209">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>5</v>
       </c>
@@ -5568,8 +6561,11 @@
       <c r="E210">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>6</v>
       </c>
@@ -5585,8 +6581,11 @@
       <c r="E211">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>7</v>
       </c>
@@ -5602,8 +6601,11 @@
       <c r="E212">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8</v>
       </c>
@@ -5619,8 +6621,11 @@
       <c r="E213">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>9</v>
       </c>
@@ -5636,8 +6641,11 @@
       <c r="E214">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>10</v>
       </c>
@@ -5653,8 +6661,11 @@
       <c r="E215">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11</v>
       </c>
@@ -5670,8 +6681,11 @@
       <c r="E216">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12</v>
       </c>
@@ -5687,8 +6701,11 @@
       <c r="E217">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5704,8 +6721,11 @@
       <c r="E218">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2</v>
       </c>
@@ -5721,8 +6741,11 @@
       <c r="E219">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3</v>
       </c>
@@ -5738,8 +6761,11 @@
       <c r="E220">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -5755,8 +6781,11 @@
       <c r="E221">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>5</v>
       </c>
@@ -5772,8 +6801,11 @@
       <c r="E222">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -5789,8 +6821,11 @@
       <c r="E223">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>7</v>
       </c>
@@ -5806,8 +6841,11 @@
       <c r="E224">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>8</v>
       </c>
@@ -5823,8 +6861,11 @@
       <c r="E225">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>9</v>
       </c>
@@ -5840,8 +6881,11 @@
       <c r="E226">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>10</v>
       </c>
@@ -5857,8 +6901,11 @@
       <c r="E227">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>11</v>
       </c>
@@ -5874,8 +6921,11 @@
       <c r="E228">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>12</v>
       </c>
@@ -5891,8 +6941,11 @@
       <c r="E229">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5908,8 +6961,11 @@
       <c r="E230">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2</v>
       </c>
@@ -5925,8 +6981,11 @@
       <c r="E231">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -5942,8 +7001,11 @@
       <c r="E232">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4</v>
       </c>
@@ -5959,8 +7021,11 @@
       <c r="E233">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>5</v>
       </c>
@@ -5976,8 +7041,11 @@
       <c r="E234">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>6</v>
       </c>
@@ -5993,8 +7061,11 @@
       <c r="E235">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>7</v>
       </c>
@@ -6010,8 +7081,11 @@
       <c r="E236">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -6027,8 +7101,11 @@
       <c r="E237">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>9</v>
       </c>
@@ -6044,8 +7121,11 @@
       <c r="E238">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>10</v>
       </c>
@@ -6061,8 +7141,11 @@
       <c r="E239">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11</v>
       </c>
@@ -6078,8 +7161,11 @@
       <c r="E240">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>12</v>
       </c>
@@ -6095,8 +7181,11 @@
       <c r="E241">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -6112,8 +7201,11 @@
       <c r="E242">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2</v>
       </c>
@@ -6129,8 +7221,11 @@
       <c r="E243">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3</v>
       </c>
@@ -6146,8 +7241,11 @@
       <c r="E244">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>4</v>
       </c>
@@ -6163,8 +7261,11 @@
       <c r="E245">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>5</v>
       </c>
@@ -6180,8 +7281,11 @@
       <c r="E246">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>6</v>
       </c>
@@ -6197,8 +7301,11 @@
       <c r="E247">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>7</v>
       </c>
@@ -6214,8 +7321,11 @@
       <c r="E248">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8</v>
       </c>
@@ -6231,8 +7341,11 @@
       <c r="E249">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>9</v>
       </c>
@@ -6248,8 +7361,11 @@
       <c r="E250">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>10</v>
       </c>
@@ -6265,8 +7381,11 @@
       <c r="E251">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>11</v>
       </c>
@@ -6282,8 +7401,11 @@
       <c r="E252">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>12</v>
       </c>
@@ -6299,8 +7421,11 @@
       <c r="E253">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -6316,8 +7441,11 @@
       <c r="E254">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2</v>
       </c>
@@ -6333,8 +7461,11 @@
       <c r="E255">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3</v>
       </c>
@@ -6350,8 +7481,11 @@
       <c r="E256">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>4</v>
       </c>
@@ -6367,8 +7501,11 @@
       <c r="E257">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>5</v>
       </c>
@@ -6384,8 +7521,11 @@
       <c r="E258">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6</v>
       </c>
@@ -6401,8 +7541,11 @@
       <c r="E259">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>7</v>
       </c>
@@ -6418,8 +7561,11 @@
       <c r="E260">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8</v>
       </c>
@@ -6435,8 +7581,11 @@
       <c r="E261">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>9</v>
       </c>
@@ -6452,8 +7601,11 @@
       <c r="E262">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>10</v>
       </c>
@@ -6469,8 +7621,11 @@
       <c r="E263">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>11</v>
       </c>
@@ -6486,8 +7641,11 @@
       <c r="E264">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>12</v>
       </c>
@@ -6503,8 +7661,11 @@
       <c r="E265">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6520,8 +7681,11 @@
       <c r="E266">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6537,8 +7701,11 @@
       <c r="E267">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3</v>
       </c>
@@ -6554,8 +7721,11 @@
       <c r="E268">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4</v>
       </c>
@@ -6571,8 +7741,11 @@
       <c r="E269">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>5</v>
       </c>
@@ -6588,8 +7761,11 @@
       <c r="E270">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>6</v>
       </c>
@@ -6605,8 +7781,11 @@
       <c r="E271">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>7</v>
       </c>
@@ -6622,8 +7801,11 @@
       <c r="E272">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -6639,8 +7821,11 @@
       <c r="E273">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>9</v>
       </c>
@@ -6656,8 +7841,11 @@
       <c r="E274">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>10</v>
       </c>
@@ -6673,8 +7861,11 @@
       <c r="E275">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>11</v>
       </c>
@@ -6690,8 +7881,11 @@
       <c r="E276">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>12</v>
       </c>
@@ -6707,8 +7901,11 @@
       <c r="E277">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -6724,8 +7921,11 @@
       <c r="E278">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6741,8 +7941,11 @@
       <c r="E279">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3</v>
       </c>
@@ -6758,8 +7961,11 @@
       <c r="E280">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>4</v>
       </c>
@@ -6775,8 +7981,11 @@
       <c r="E281">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>5</v>
       </c>
@@ -6792,8 +8001,11 @@
       <c r="E282">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6</v>
       </c>
@@ -6809,8 +8021,11 @@
       <c r="E283">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>7</v>
       </c>
@@ -6826,8 +8041,11 @@
       <c r="E284">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8</v>
       </c>
@@ -6843,8 +8061,11 @@
       <c r="E285">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>9</v>
       </c>
@@ -6860,8 +8081,11 @@
       <c r="E286">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>10</v>
       </c>
@@ -6877,8 +8101,11 @@
       <c r="E287">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>11</v>
       </c>
@@ -6894,8 +8121,11 @@
       <c r="E288">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>12</v>
       </c>
@@ -6911,8 +8141,11 @@
       <c r="E289">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6928,8 +8161,11 @@
       <c r="E290">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6945,8 +8181,11 @@
       <c r="E291">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3</v>
       </c>
@@ -6962,8 +8201,11 @@
       <c r="E292">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>4</v>
       </c>
@@ -6979,8 +8221,11 @@
       <c r="E293">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>5</v>
       </c>
@@ -6996,8 +8241,11 @@
       <c r="E294">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>6</v>
       </c>
@@ -7013,8 +8261,11 @@
       <c r="E295">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>7</v>
       </c>
@@ -7030,8 +8281,11 @@
       <c r="E296">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>8</v>
       </c>
@@ -7047,8 +8301,11 @@
       <c r="E297">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>9</v>
       </c>
@@ -7064,8 +8321,11 @@
       <c r="E298">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>10</v>
       </c>
@@ -7081,8 +8341,11 @@
       <c r="E299">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>11</v>
       </c>
@@ -7098,8 +8361,11 @@
       <c r="E300">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>12</v>
       </c>
@@ -7115,8 +8381,11 @@
       <c r="E301">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -7132,8 +8401,11 @@
       <c r="E302">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2</v>
       </c>
@@ -7149,8 +8421,11 @@
       <c r="E303">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3</v>
       </c>
@@ -7166,8 +8441,11 @@
       <c r="E304">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>4</v>
       </c>
@@ -7183,8 +8461,11 @@
       <c r="E305">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>5</v>
       </c>
@@ -7200,8 +8481,11 @@
       <c r="E306">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6</v>
       </c>
@@ -7217,8 +8501,11 @@
       <c r="E307">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>7</v>
       </c>
@@ -7234,8 +8521,11 @@
       <c r="E308">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>8</v>
       </c>
@@ -7251,8 +8541,11 @@
       <c r="E309">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>9</v>
       </c>
@@ -7268,8 +8561,11 @@
       <c r="E310">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>10</v>
       </c>
@@ -7285,8 +8581,11 @@
       <c r="E311">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>11</v>
       </c>
@@ -7302,8 +8601,11 @@
       <c r="E312">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>12</v>
       </c>
@@ -7319,8 +8621,11 @@
       <c r="E313">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -7336,8 +8641,11 @@
       <c r="E314">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7353,8 +8661,11 @@
       <c r="E315">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3</v>
       </c>
@@ -7370,8 +8681,11 @@
       <c r="E316">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>4</v>
       </c>
@@ -7387,8 +8701,11 @@
       <c r="E317">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5</v>
       </c>
@@ -7404,8 +8721,11 @@
       <c r="E318">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>6</v>
       </c>
@@ -7421,8 +8741,11 @@
       <c r="E319">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>7</v>
       </c>
@@ -7438,8 +8761,11 @@
       <c r="E320">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>8</v>
       </c>
@@ -7455,8 +8781,11 @@
       <c r="E321">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>9</v>
       </c>
@@ -7472,8 +8801,11 @@
       <c r="E322">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>10</v>
       </c>
@@ -7489,8 +8821,11 @@
       <c r="E323">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>11</v>
       </c>
@@ -7506,8 +8841,11 @@
       <c r="E324">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>12</v>
       </c>
@@ -7522,6 +8860,9 @@
       </c>
       <c r="E325">
         <v>0.3</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7531,10 +8872,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7550,7 +8891,7 @@
     <col min="20" max="20" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -7617,8 +8958,20 @@
       <c r="V1" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -7685,8 +9038,20 @@
       <c r="V2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -7753,8 +9118,20 @@
       <c r="V3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -7821,41 +9198,130 @@
       <c r="V4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>25000</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -7875,7 +9341,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7893,7 +9359,9 @@
       <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -7908,6 +9376,9 @@
       <c r="D2">
         <v>0.02</v>
       </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -7922,6 +9393,9 @@
       <c r="D3" s="2">
         <v>2.2200000000000001E-2</v>
       </c>
+      <c r="E3" s="2">
+        <v>2.2200000000000001E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -7936,6 +9410,9 @@
       <c r="D4" s="2">
         <v>2.4400000000000002E-2</v>
       </c>
+      <c r="E4" s="2">
+        <v>2.4400000000000002E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -7950,6 +9427,9 @@
       <c r="D5" s="2">
         <v>2.6599999999999999E-2</v>
       </c>
+      <c r="E5" s="2">
+        <v>2.6599999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -7964,6 +9444,9 @@
       <c r="D6" s="2">
         <v>2.8799999999999999E-2</v>
       </c>
+      <c r="E6" s="2">
+        <v>2.8799999999999999E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -7978,6 +9461,9 @@
       <c r="D7" s="2">
         <v>3.1E-2</v>
       </c>
+      <c r="E7" s="2">
+        <v>3.1E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -7992,6 +9478,9 @@
       <c r="D8" s="2">
         <v>3.32E-2</v>
       </c>
+      <c r="E8" s="2">
+        <v>3.32E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -8006,6 +9495,9 @@
       <c r="D9" s="2">
         <v>3.5400000000000001E-2</v>
       </c>
+      <c r="E9" s="2">
+        <v>3.5400000000000001E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8020,6 +9512,9 @@
       <c r="D10" s="2">
         <v>3.7600000000000001E-2</v>
       </c>
+      <c r="E10" s="2">
+        <v>3.7600000000000001E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -8034,6 +9529,9 @@
       <c r="D11" s="2">
         <v>3.9800000000000002E-2</v>
       </c>
+      <c r="E11" s="2">
+        <v>3.9800000000000002E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -8048,6 +9546,9 @@
       <c r="D12" s="2">
         <v>3.9800000000000002E-2</v>
       </c>
+      <c r="E12" s="2">
+        <v>3.9800000000000002E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -8062,6 +9563,9 @@
       <c r="D13" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="E13" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -8076,6 +9580,9 @@
       <c r="D14" s="2">
         <v>4.4200000000000003E-2</v>
       </c>
+      <c r="E14" s="2">
+        <v>4.4200000000000003E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -8090,6 +9597,9 @@
       <c r="D15" s="2">
         <v>4.6399999999999997E-2</v>
       </c>
+      <c r="E15" s="2">
+        <v>4.6399999999999997E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -8104,8 +9614,11 @@
       <c r="D16" s="2">
         <v>4.8599999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="2">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -8118,8 +9631,11 @@
       <c r="D17" s="2">
         <v>5.0799999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="2">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -8132,8 +9648,11 @@
       <c r="D18" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -8146,8 +9665,11 @@
       <c r="D19" s="2">
         <v>5.5199999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -8160,8 +9682,11 @@
       <c r="D20" s="2">
         <v>5.74E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="2">
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -8174,8 +9699,11 @@
       <c r="D21" s="2">
         <v>5.96E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -8188,8 +9716,11 @@
       <c r="D22" s="2">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>6.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -8202,8 +9733,11 @@
       <c r="D23" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -8216,8 +9750,11 @@
       <c r="D24" s="2">
         <v>6.6199999999999995E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -8230,8 +9767,11 @@
       <c r="D25" s="2">
         <v>6.8400000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -8244,8 +9784,11 @@
       <c r="D26" s="2">
         <v>7.0599999999999996E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="2">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -8258,8 +9801,11 @@
       <c r="D27" s="2">
         <v>7.2800000000000004E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -8270,6 +9816,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E28">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -8283,7 +9832,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8301,7 +9850,9 @@
       <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -8316,6 +9867,9 @@
       <c r="D2">
         <v>26229.707720000002</v>
       </c>
+      <c r="E2">
+        <v>26229.707720000002</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -8330,6 +9884,9 @@
       <c r="D3">
         <v>26589.174669999997</v>
       </c>
+      <c r="E3">
+        <v>26589.174669999997</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -8344,6 +9901,9 @@
       <c r="D4">
         <v>60431.69513</v>
       </c>
+      <c r="E4">
+        <v>60431.69513</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -8358,6 +9918,9 @@
       <c r="D5">
         <v>95314.195130000007</v>
       </c>
+      <c r="E5">
+        <v>95314.195130000007</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -8372,6 +9935,9 @@
       <c r="D6">
         <v>130196.6951</v>
       </c>
+      <c r="E6">
+        <v>130196.6951</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -8386,6 +9952,9 @@
       <c r="D7">
         <v>165780.465</v>
       </c>
+      <c r="E7">
+        <v>165780.465</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -8400,6 +9969,9 @@
       <c r="D8">
         <v>179750.54879999999</v>
       </c>
+      <c r="E8">
+        <v>179750.54879999999</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -8414,6 +9986,9 @@
       <c r="D9">
         <v>195610.7611</v>
       </c>
+      <c r="E9">
+        <v>195610.7611</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8428,6 +10003,9 @@
       <c r="D10">
         <v>196499.72339999999</v>
       </c>
+      <c r="E10">
+        <v>196499.72339999999</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -8442,6 +10020,9 @@
       <c r="D11">
         <v>198853.9976</v>
       </c>
+      <c r="E11">
+        <v>198853.9976</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -8456,6 +10037,9 @@
       <c r="D12">
         <v>202089.00579999998</v>
       </c>
+      <c r="E12">
+        <v>202089.00579999998</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -8470,6 +10054,9 @@
       <c r="D13">
         <v>164077.8836</v>
       </c>
+      <c r="E13">
+        <v>164077.8836</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -8484,6 +10071,9 @@
       <c r="D14">
         <v>126654.49769999999</v>
       </c>
+      <c r="E14">
+        <v>126654.49769999999</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -8498,6 +10088,9 @@
       <c r="D15">
         <v>90701.344779999999</v>
       </c>
+      <c r="E15">
+        <v>90701.344779999999</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -8512,8 +10105,11 @@
       <c r="D16">
         <v>57298.538379999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>57298.538379999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -8526,8 +10122,11 @@
       <c r="D17">
         <v>40938.322699999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>40938.322699999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -8540,8 +10139,11 @@
       <c r="D18">
         <v>30788.296410000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>30788.296410000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -8554,8 +10156,11 @@
       <c r="D19">
         <v>28368.054080000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>28368.054080000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -8568,8 +10173,11 @@
       <c r="D20">
         <v>31250.81408</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>31250.81408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -8582,8 +10190,11 @@
       <c r="D21">
         <v>34011.350160000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>34011.350160000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -8596,8 +10207,11 @@
       <c r="D22">
         <v>35066.675019999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>35066.675019999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -8610,8 +10224,11 @@
       <c r="D23">
         <v>33453.543590000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>33453.543590000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -8624,8 +10241,11 @@
       <c r="D24">
         <v>25310.301890000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>25310.301890000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -8638,8 +10258,11 @@
       <c r="D25">
         <v>11877.08452</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>11877.08452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -8652,8 +10275,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -8666,8 +10292,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -8678,6 +10307,9 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
     </row>
@@ -8690,8 +10322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3790A601-26C3-4DCA-97B6-9342C547A4A0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +10341,9 @@
       <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -8724,6 +10358,9 @@
       <c r="D2">
         <v>30000</v>
       </c>
+      <c r="E2">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -8738,6 +10375,9 @@
       <c r="D3">
         <v>30000</v>
       </c>
+      <c r="E3">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -8752,6 +10392,9 @@
       <c r="D4">
         <v>30000</v>
       </c>
+      <c r="E4">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -8766,6 +10409,9 @@
       <c r="D5">
         <v>30000</v>
       </c>
+      <c r="E5">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -8780,6 +10426,9 @@
       <c r="D6">
         <v>30000</v>
       </c>
+      <c r="E6">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -8794,6 +10443,9 @@
       <c r="D7">
         <v>30000</v>
       </c>
+      <c r="E7">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -8808,6 +10460,9 @@
       <c r="D8">
         <v>30000</v>
       </c>
+      <c r="E8">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -8822,6 +10477,9 @@
       <c r="D9">
         <v>30000</v>
       </c>
+      <c r="E9">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8836,6 +10494,9 @@
       <c r="D10">
         <v>30000</v>
       </c>
+      <c r="E10">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -8850,6 +10511,9 @@
       <c r="D11">
         <v>30000</v>
       </c>
+      <c r="E11">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -8864,6 +10528,9 @@
       <c r="D12">
         <v>30000</v>
       </c>
+      <c r="E12">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -8878,6 +10545,9 @@
       <c r="D13">
         <v>30000</v>
       </c>
+      <c r="E13">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -8892,6 +10562,9 @@
       <c r="D14">
         <v>30000</v>
       </c>
+      <c r="E14">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -8906,6 +10579,9 @@
       <c r="D15">
         <v>30000</v>
       </c>
+      <c r="E15">
+        <v>9999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -8920,8 +10596,11 @@
       <c r="D16">
         <v>30000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -8934,8 +10613,11 @@
       <c r="D17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -8948,8 +10630,11 @@
       <c r="D18">
         <v>30000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -8962,8 +10647,11 @@
       <c r="D19">
         <v>30000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -8976,8 +10664,11 @@
       <c r="D20">
         <v>30000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -8990,8 +10681,11 @@
       <c r="D21">
         <v>30000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -9004,8 +10698,11 @@
       <c r="D22">
         <v>30000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -9018,8 +10715,11 @@
       <c r="D23">
         <v>30000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -9032,8 +10732,11 @@
       <c r="D24">
         <v>30000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -9046,8 +10749,11 @@
       <c r="D25">
         <v>30000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -9060,8 +10766,11 @@
       <c r="D26">
         <v>30000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -9074,8 +10783,11 @@
       <c r="D27">
         <v>30000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -9087,6 +10799,9 @@
       </c>
       <c r="D28">
         <v>30000</v>
+      </c>
+      <c r="E28">
+        <v>9999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570AEDE-B76A-4CF6-B588-EF1BDF0855A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09E6A1-CCD3-441C-95F8-48EE791C8F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -367,13 +367,12 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,7 +773,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +867,7 @@
       <c r="H2">
         <v>9999999</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>11000</v>
       </c>
       <c r="J2">
@@ -880,17 +879,17 @@
       <c r="L2">
         <v>9999999</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>11000</v>
       </c>
       <c r="N2">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O2">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P2">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q2">
         <v>1000</v>
@@ -921,7 +920,7 @@
       <c r="H3">
         <v>9999999</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>11000</v>
       </c>
       <c r="J3">
@@ -933,17 +932,17 @@
       <c r="L3">
         <v>9999999</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>11000</v>
       </c>
       <c r="N3">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O3">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P3">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q3">
         <v>1000</v>
@@ -974,7 +973,7 @@
       <c r="H4">
         <v>9999999</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>11000</v>
       </c>
       <c r="J4">
@@ -986,17 +985,17 @@
       <c r="L4">
         <v>9999999</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>11000</v>
       </c>
       <c r="N4">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O4">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P4">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q4">
         <v>1000</v>
@@ -1027,7 +1026,7 @@
       <c r="H5">
         <v>9999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>11000</v>
       </c>
       <c r="J5">
@@ -1039,17 +1038,17 @@
       <c r="L5">
         <v>9999999</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>11000</v>
       </c>
       <c r="N5">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O5">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P5">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q5">
         <v>1000</v>
@@ -1080,7 +1079,7 @@
       <c r="H6">
         <v>9999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>11000</v>
       </c>
       <c r="J6">
@@ -1092,17 +1091,17 @@
       <c r="L6">
         <v>9999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>11000</v>
       </c>
       <c r="N6">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O6">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P6">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q6">
         <v>1000</v>
@@ -1133,7 +1132,7 @@
       <c r="H7">
         <v>9999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>11000</v>
       </c>
       <c r="J7">
@@ -1145,17 +1144,17 @@
       <c r="L7">
         <v>9999999</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>11000</v>
       </c>
       <c r="N7">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O7">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P7">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q7">
         <v>1000</v>
@@ -1186,7 +1185,7 @@
       <c r="H8">
         <v>9999999</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>11000</v>
       </c>
       <c r="J8">
@@ -1198,17 +1197,17 @@
       <c r="L8">
         <v>9999999</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>11000</v>
       </c>
       <c r="N8">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O8">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P8">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q8">
         <v>1000</v>
@@ -1239,7 +1238,7 @@
       <c r="H9">
         <v>9999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>11000</v>
       </c>
       <c r="J9">
@@ -1251,17 +1250,17 @@
       <c r="L9">
         <v>9999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>11000</v>
       </c>
       <c r="N9">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O9">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P9">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q9">
         <v>1000</v>
@@ -1292,7 +1291,7 @@
       <c r="H10">
         <v>9999999</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>11000</v>
       </c>
       <c r="J10">
@@ -1304,17 +1303,17 @@
       <c r="L10">
         <v>9999999</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>11000</v>
       </c>
       <c r="N10">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O10">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P10">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q10">
         <v>1000</v>
@@ -1345,7 +1344,7 @@
       <c r="H11">
         <v>9999999</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>11000</v>
       </c>
       <c r="J11">
@@ -1357,17 +1356,17 @@
       <c r="L11">
         <v>9999999</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>11000</v>
       </c>
       <c r="N11">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O11">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P11">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q11">
         <v>1000</v>
@@ -1398,7 +1397,7 @@
       <c r="H12">
         <v>9999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>11000</v>
       </c>
       <c r="J12">
@@ -1410,17 +1409,17 @@
       <c r="L12">
         <v>9999999</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>11000</v>
       </c>
       <c r="N12">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O12">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P12">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q12">
         <v>1000</v>
@@ -1451,7 +1450,7 @@
       <c r="H13">
         <v>9999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>11000</v>
       </c>
       <c r="J13">
@@ -1463,17 +1462,17 @@
       <c r="L13">
         <v>9999999</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>11000</v>
       </c>
       <c r="N13">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O13">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P13">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q13">
         <v>1000</v>
@@ -1504,7 +1503,7 @@
       <c r="H14">
         <v>9999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>11000</v>
       </c>
       <c r="J14">
@@ -1516,17 +1515,17 @@
       <c r="L14">
         <v>9999999</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>11000</v>
       </c>
       <c r="N14">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O14">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P14">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q14">
         <v>1000</v>
@@ -1557,7 +1556,7 @@
       <c r="H15">
         <v>9999999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>11000</v>
       </c>
       <c r="J15">
@@ -1569,17 +1568,17 @@
       <c r="L15">
         <v>9999999</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>11000</v>
       </c>
       <c r="N15">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O15">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P15">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q15">
         <v>1000</v>
@@ -1610,7 +1609,7 @@
       <c r="H16">
         <v>9999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>11000</v>
       </c>
       <c r="J16">
@@ -1622,17 +1621,17 @@
       <c r="L16">
         <v>9999999</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>11000</v>
       </c>
       <c r="N16">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O16">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P16">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q16">
         <v>1000</v>
@@ -1663,7 +1662,7 @@
       <c r="H17">
         <v>9999999</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>11000</v>
       </c>
       <c r="J17">
@@ -1675,17 +1674,17 @@
       <c r="L17">
         <v>9999999</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>11000</v>
       </c>
       <c r="N17">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O17">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P17">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q17">
         <v>1000</v>
@@ -1716,7 +1715,7 @@
       <c r="H18">
         <v>9999999</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>11000</v>
       </c>
       <c r="J18">
@@ -1728,17 +1727,17 @@
       <c r="L18">
         <v>9999999</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>11000</v>
       </c>
       <c r="N18">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O18">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P18">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
@@ -1769,7 +1768,7 @@
       <c r="H19">
         <v>9999999</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>11000</v>
       </c>
       <c r="J19">
@@ -1781,17 +1780,17 @@
       <c r="L19">
         <v>9999999</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>11000</v>
       </c>
       <c r="N19">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O19">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P19">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q19">
         <v>1000</v>
@@ -1822,7 +1821,7 @@
       <c r="H20">
         <v>9999999</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>11000</v>
       </c>
       <c r="J20">
@@ -1834,17 +1833,17 @@
       <c r="L20">
         <v>9999999</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>11000</v>
       </c>
       <c r="N20">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O20">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P20">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q20">
         <v>1000</v>
@@ -1875,7 +1874,7 @@
       <c r="H21">
         <v>9999999</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>11000</v>
       </c>
       <c r="J21">
@@ -1887,17 +1886,17 @@
       <c r="L21">
         <v>9999999</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>11000</v>
       </c>
       <c r="N21">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O21">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P21">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q21">
         <v>1000</v>
@@ -1928,7 +1927,7 @@
       <c r="H22">
         <v>9999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>11000</v>
       </c>
       <c r="J22">
@@ -1940,17 +1939,17 @@
       <c r="L22">
         <v>9999999</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>11000</v>
       </c>
       <c r="N22">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O22">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P22">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q22">
         <v>1000</v>
@@ -1981,7 +1980,7 @@
       <c r="H23">
         <v>9999999</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>11000</v>
       </c>
       <c r="J23">
@@ -1993,17 +1992,17 @@
       <c r="L23">
         <v>9999999</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>11000</v>
       </c>
       <c r="N23">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O23">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P23">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q23">
         <v>1000</v>
@@ -2034,7 +2033,7 @@
       <c r="H24">
         <v>9999999</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>11000</v>
       </c>
       <c r="J24">
@@ -2046,17 +2045,17 @@
       <c r="L24">
         <v>9999999</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>11000</v>
       </c>
       <c r="N24">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O24">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P24">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q24">
         <v>1000</v>
@@ -2087,7 +2086,7 @@
       <c r="H25">
         <v>9999999</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>11000</v>
       </c>
       <c r="J25">
@@ -2099,17 +2098,17 @@
       <c r="L25">
         <v>9999999</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>11000</v>
       </c>
       <c r="N25">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O25">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P25">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q25">
         <v>1000</v>
@@ -2140,7 +2139,7 @@
       <c r="H26">
         <v>9999999</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>11000</v>
       </c>
       <c r="J26">
@@ -2152,17 +2151,17 @@
       <c r="L26">
         <v>9999999</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>11000</v>
       </c>
       <c r="N26">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O26">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P26">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q26">
         <v>1000</v>
@@ -2193,7 +2192,7 @@
       <c r="H27">
         <v>9999999</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>11000</v>
       </c>
       <c r="J27">
@@ -2205,17 +2204,17 @@
       <c r="L27">
         <v>9999999</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>11000</v>
       </c>
       <c r="N27">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O27">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P27">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q27">
         <v>1000</v>
@@ -2246,7 +2245,7 @@
       <c r="H28">
         <v>9999999</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>11000</v>
       </c>
       <c r="J28">
@@ -2258,17 +2257,17 @@
       <c r="L28">
         <v>9999999</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>11000</v>
       </c>
       <c r="N28">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="O28">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="P28">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="Q28">
         <v>1000</v>
@@ -2293,59 +2292,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2357,7 +2356,7 @@
   <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,10 +2371,10 @@
       <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
@@ -8874,8 +8873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8892,34 +8891,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -8928,131 +8927,131 @@
       <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>260000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>40000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>25</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.25</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>1500</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.37409999999999999</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>0.38879999999999998</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>0.8</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>0.8</v>
       </c>
       <c r="M2">
         <v>25</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>5</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>5</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>70</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>70</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>0.85</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <v>0.2</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>100000</v>
       </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Z2" s="6">
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B3">
@@ -9064,75 +9063,75 @@
       <c r="D3">
         <v>50</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.25</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>6000</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>0.8</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>0.8</v>
       </c>
       <c r="M3">
         <v>15</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>5</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>5</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>10000</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>10000</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>0.7</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>0.2</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>25000</v>
       </c>
-      <c r="U3" s="6">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Z3" s="6">
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B4">
@@ -9144,10 +9143,10 @@
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.25</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4">
@@ -9156,63 +9155,63 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.8</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0.8</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>20</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>5</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>5</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>10000</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>10000</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>0.7</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>0.2</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>25000</v>
       </c>
-      <c r="U4" s="6">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Z4" s="6">
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B5">
@@ -9224,111 +9223,111 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.25</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>6000</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.8</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.8</v>
       </c>
       <c r="M5">
         <v>30</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>5</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>5</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>10000</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>10000</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.7</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>0.2</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>25000</v>
       </c>
-      <c r="U5" s="6">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6">
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9341,7 +9340,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9350,16 +9349,16 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9841,16 +9840,16 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10322,8 +10321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3790A601-26C3-4DCA-97B6-9342C547A4A0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10332,16 +10331,16 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10349,14 +10348,14 @@
       <c r="A2">
         <v>2024</v>
       </c>
-      <c r="B2" s="3">
-        <v>65000</v>
+      <c r="B2">
+        <v>74200</v>
       </c>
       <c r="C2">
-        <v>13333</v>
+        <v>26250</v>
       </c>
       <c r="D2">
-        <v>30000</v>
+        <v>36915</v>
       </c>
       <c r="E2">
         <v>9999999999</v>
@@ -10366,14 +10365,14 @@
       <c r="A3">
         <v>2025</v>
       </c>
-      <c r="B3" s="3">
-        <v>65000</v>
+      <c r="B3">
+        <v>74200</v>
       </c>
       <c r="C3">
-        <v>13333</v>
+        <v>26250</v>
       </c>
       <c r="D3">
-        <v>30000</v>
+        <v>36915</v>
       </c>
       <c r="E3">
         <v>9999999999</v>
@@ -10383,14 +10382,14 @@
       <c r="A4">
         <v>2026</v>
       </c>
-      <c r="B4" s="3">
-        <v>65000</v>
+      <c r="B4">
+        <v>74200</v>
       </c>
       <c r="C4">
-        <v>13333</v>
+        <v>26250</v>
       </c>
       <c r="D4">
-        <v>30000</v>
+        <v>36915</v>
       </c>
       <c r="E4">
         <v>9999999999</v>
@@ -10400,14 +10399,14 @@
       <c r="A5">
         <v>2027</v>
       </c>
-      <c r="B5" s="3">
-        <v>65000</v>
+      <c r="B5">
+        <v>74200</v>
       </c>
       <c r="C5">
-        <v>13333</v>
+        <v>26250</v>
       </c>
       <c r="D5">
-        <v>30000</v>
+        <v>36915</v>
       </c>
       <c r="E5">
         <v>9999999999</v>
@@ -10417,14 +10416,14 @@
       <c r="A6">
         <v>2028</v>
       </c>
-      <c r="B6" s="3">
-        <v>65000</v>
+      <c r="B6">
+        <v>74200</v>
       </c>
       <c r="C6">
-        <v>13333</v>
+        <v>26250</v>
       </c>
       <c r="D6">
-        <v>30000</v>
+        <v>36915</v>
       </c>
       <c r="E6">
         <v>9999999999</v>
@@ -10434,14 +10433,14 @@
       <c r="A7">
         <v>2029</v>
       </c>
-      <c r="B7" s="3">
-        <v>65000</v>
+      <c r="B7">
+        <v>74200</v>
       </c>
       <c r="C7">
-        <v>13333</v>
+        <v>26250</v>
       </c>
       <c r="D7">
-        <v>30000</v>
+        <v>36915</v>
       </c>
       <c r="E7">
         <v>9999999999</v>
@@ -10451,14 +10450,14 @@
       <c r="A8">
         <v>2030</v>
       </c>
-      <c r="B8" s="3">
-        <v>65000</v>
+      <c r="B8">
+        <v>74200</v>
       </c>
       <c r="C8">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D8">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E8">
         <v>9999999999</v>
@@ -10468,14 +10467,14 @@
       <c r="A9">
         <v>2031</v>
       </c>
-      <c r="B9" s="3">
-        <v>65000</v>
+      <c r="B9">
+        <v>74200</v>
       </c>
       <c r="C9">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D9">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E9">
         <v>9999999999</v>
@@ -10485,14 +10484,14 @@
       <c r="A10">
         <v>2032</v>
       </c>
-      <c r="B10" s="3">
-        <v>65000</v>
+      <c r="B10">
+        <v>74200</v>
       </c>
       <c r="C10">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D10">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E10">
         <v>9999999999</v>
@@ -10502,14 +10501,14 @@
       <c r="A11">
         <v>2033</v>
       </c>
-      <c r="B11" s="3">
-        <v>65000</v>
+      <c r="B11">
+        <v>74200</v>
       </c>
       <c r="C11">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D11">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E11">
         <v>9999999999</v>
@@ -10519,14 +10518,14 @@
       <c r="A12">
         <v>2034</v>
       </c>
-      <c r="B12" s="3">
-        <v>65000</v>
+      <c r="B12">
+        <v>74200</v>
       </c>
       <c r="C12">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D12">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E12">
         <v>9999999999</v>
@@ -10536,14 +10535,14 @@
       <c r="A13">
         <v>2035</v>
       </c>
-      <c r="B13" s="3">
-        <v>65000</v>
+      <c r="B13">
+        <v>74200</v>
       </c>
       <c r="C13">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D13">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E13">
         <v>9999999999</v>
@@ -10553,14 +10552,14 @@
       <c r="A14">
         <v>2036</v>
       </c>
-      <c r="B14" s="3">
-        <v>65000</v>
+      <c r="B14">
+        <v>74200</v>
       </c>
       <c r="C14">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D14">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E14">
         <v>9999999999</v>
@@ -10570,14 +10569,14 @@
       <c r="A15">
         <v>2037</v>
       </c>
-      <c r="B15" s="3">
-        <v>65000</v>
+      <c r="B15">
+        <v>74200</v>
       </c>
       <c r="C15">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D15">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E15">
         <v>9999999999</v>
@@ -10587,14 +10586,14 @@
       <c r="A16">
         <v>2038</v>
       </c>
-      <c r="B16" s="3">
-        <v>65000</v>
+      <c r="B16">
+        <v>74200</v>
       </c>
       <c r="C16">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D16">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E16">
         <v>9999999999</v>
@@ -10604,14 +10603,14 @@
       <c r="A17">
         <v>2039</v>
       </c>
-      <c r="B17" s="3">
-        <v>65000</v>
+      <c r="B17">
+        <v>74200</v>
       </c>
       <c r="C17">
-        <v>20000</v>
+        <v>26250</v>
       </c>
       <c r="D17">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E17">
         <v>9999999999</v>
@@ -10621,14 +10620,14 @@
       <c r="A18">
         <v>2040</v>
       </c>
-      <c r="B18" s="3">
-        <v>65000</v>
+      <c r="B18">
+        <v>58400</v>
       </c>
       <c r="C18">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D18">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E18">
         <v>9999999999</v>
@@ -10638,14 +10637,14 @@
       <c r="A19">
         <v>2041</v>
       </c>
-      <c r="B19" s="3">
-        <v>65000</v>
+      <c r="B19">
+        <v>58400</v>
       </c>
       <c r="C19">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D19">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E19">
         <v>9999999999</v>
@@ -10655,14 +10654,14 @@
       <c r="A20">
         <v>2042</v>
       </c>
-      <c r="B20" s="3">
-        <v>65000</v>
+      <c r="B20">
+        <v>58400</v>
       </c>
       <c r="C20">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D20">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E20">
         <v>9999999999</v>
@@ -10672,14 +10671,14 @@
       <c r="A21">
         <v>2043</v>
       </c>
-      <c r="B21" s="3">
-        <v>65000</v>
+      <c r="B21">
+        <v>58400</v>
       </c>
       <c r="C21">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D21">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E21">
         <v>9999999999</v>
@@ -10689,14 +10688,14 @@
       <c r="A22">
         <v>2044</v>
       </c>
-      <c r="B22" s="3">
-        <v>65000</v>
+      <c r="B22">
+        <v>58400</v>
       </c>
       <c r="C22">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D22">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E22">
         <v>9999999999</v>
@@ -10706,14 +10705,14 @@
       <c r="A23">
         <v>2045</v>
       </c>
-      <c r="B23" s="3">
-        <v>65000</v>
+      <c r="B23">
+        <v>58400</v>
       </c>
       <c r="C23">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D23">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E23">
         <v>9999999999</v>
@@ -10723,14 +10722,14 @@
       <c r="A24">
         <v>2046</v>
       </c>
-      <c r="B24" s="3">
-        <v>65000</v>
+      <c r="B24">
+        <v>58400</v>
       </c>
       <c r="C24">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D24">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E24">
         <v>9999999999</v>
@@ -10740,14 +10739,14 @@
       <c r="A25">
         <v>2047</v>
       </c>
-      <c r="B25" s="3">
-        <v>65000</v>
+      <c r="B25">
+        <v>58400</v>
       </c>
       <c r="C25">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D25">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E25">
         <v>9999999999</v>
@@ -10757,14 +10756,14 @@
       <c r="A26">
         <v>2048</v>
       </c>
-      <c r="B26" s="3">
-        <v>65000</v>
+      <c r="B26">
+        <v>58400</v>
       </c>
       <c r="C26">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D26">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E26">
         <v>9999999999</v>
@@ -10774,14 +10773,14 @@
       <c r="A27">
         <v>2049</v>
       </c>
-      <c r="B27" s="3">
-        <v>65000</v>
+      <c r="B27">
+        <v>58400</v>
       </c>
       <c r="C27">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D27">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E27">
         <v>9999999999</v>
@@ -10791,14 +10790,14 @@
       <c r="A28">
         <v>2050</v>
       </c>
-      <c r="B28" s="3">
-        <v>65000</v>
+      <c r="B28">
+        <v>58400</v>
       </c>
       <c r="C28">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D28">
-        <v>30000</v>
+        <v>21800</v>
       </c>
       <c r="E28">
         <v>9999999999</v>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF69530-EC06-49E0-A434-8DF36D91B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDBADA-B079-48EC-B15F-74FCE604A884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -373,7 +373,7 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,6 +390,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{1C1ADB5D-62B2-4A88-A962-14B0B3D457AA}"/>
@@ -782,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185AF38-42FD-4CFF-B287-2FCFFF6C6EF3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,6 +798,9 @@
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="24.109375" customWidth="1"/>
     <col min="11" max="11" width="27.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.77734375" customWidth="1"/>
+    <col min="16" max="16" width="35.21875" customWidth="1"/>
+    <col min="17" max="17" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -893,13 +897,13 @@
         <v>11000</v>
       </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+        <v>90210</v>
+      </c>
+      <c r="O2" s="8">
+        <v>129380</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -946,13 +950,13 @@
         <v>11000</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
+        <v>88856.85</v>
+      </c>
+      <c r="O3" s="8">
+        <v>127438.3</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -999,13 +1003,13 @@
         <v>11000</v>
       </c>
       <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
+        <v>87523</v>
+      </c>
+      <c r="O4" s="8">
+        <v>125526.73</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1052,13 +1056,13 @@
         <v>11000</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
+        <v>86209.15</v>
+      </c>
+      <c r="O5" s="8">
+        <v>123644.83</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1105,13 +1109,13 @@
         <v>11000</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
+        <v>84915.01</v>
+      </c>
+      <c r="O6" s="8">
+        <v>121792.16</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1137,7 +1141,7 @@
         <v>1513549.293360333</v>
       </c>
       <c r="G7">
-        <v>2238241.8229333325</v>
+        <v>2238241.8229333302</v>
       </c>
       <c r="H7">
         <v>9999999</v>
@@ -1158,13 +1162,13 @@
         <v>11000</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
+        <v>83640.289999999994</v>
+      </c>
+      <c r="O7" s="8">
+        <v>119968.28</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1211,13 +1215,13 @@
         <v>11000</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
+        <v>82384.69</v>
+      </c>
+      <c r="O8" s="8">
+        <v>118172.75</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1264,13 +1268,13 @@
         <v>11000</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
+        <v>81147.92</v>
+      </c>
+      <c r="O9" s="8">
+        <v>116405.16</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1317,13 +1321,13 @@
         <v>11000</v>
       </c>
       <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
+        <v>79929.7</v>
+      </c>
+      <c r="O10" s="8">
+        <v>114665.09</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1370,13 +1374,13 @@
         <v>11000</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
+        <v>78729.759999999995</v>
+      </c>
+      <c r="O11" s="8">
+        <v>112952.12</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1423,13 +1427,13 @@
         <v>11000</v>
       </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
+        <v>77547.820000000007</v>
+      </c>
+      <c r="O12" s="8">
+        <v>111265.84</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1476,13 +1480,13 @@
         <v>11000</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
+        <v>76383.600000000006</v>
+      </c>
+      <c r="O13" s="8">
+        <v>109605.86</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1529,13 +1533,13 @@
         <v>11000</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
+        <v>75236.84</v>
+      </c>
+      <c r="O14" s="8">
+        <v>107971.77</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1582,13 +1586,13 @@
         <v>11000</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>74107.289999999994</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>106363.2</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1635,13 +1639,13 @@
         <v>11000</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>72994.679999999993</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>104779.75</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1688,13 +1692,13 @@
         <v>11000</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>71898.759999999995</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>103221.06</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1741,13 +1745,13 @@
         <v>11000</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>70819.28</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>101686.74</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1794,13 +1798,13 @@
         <v>11000</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>69755.990000000005</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>100176.44</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -1847,13 +1851,13 @@
         <v>11000</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>68708.649999999994</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>98689.79</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1900,13 +1904,13 @@
         <v>11000</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>67677.02</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>97226.44</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -1953,13 +1957,13 @@
         <v>11000</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>66660.86</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>95786.05</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2006,13 +2010,13 @@
         <v>11000</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>65659.95</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>94368.26</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2059,13 +2063,13 @@
         <v>11000</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>64674.05</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>92972.74</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2112,13 +2116,13 @@
         <v>11000</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>63702.94</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>91599.15</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2165,13 +2169,13 @@
         <v>11000</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>62746.400000000001</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>90247.16</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2218,13 +2222,13 @@
         <v>11000</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>61804.2</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>88916.45</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2271,13 +2275,13 @@
         <v>11000</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>60876.14</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>87606.7</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>139589.9</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -8883,7 +8887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/Input_urbsextensionv1.xlsx
+++ b/Input_urbsextensionv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDBADA-B079-48EC-B15F-74FCE604A884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA9B08-323D-4013-A62E-287D8C61B49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{81864710-3A67-40FC-ABA1-4EF02E4F8A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185AF38-42FD-4CFF-B287-2FCFFF6C6EF3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8887,8 +8887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71493739-45C2-4A8D-9266-24BB3FC8F4DB}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9019,7 +9019,7 @@
         <v>0.8</v>
       </c>
       <c r="L2" s="5">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
         <v>25</v>
